--- a/DBMetrics.xlsx
+++ b/DBMetrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="117">
   <si>
     <t>Dataset</t>
   </si>
@@ -399,6 +399,15 @@
   </si>
   <si>
     <t>graph</t>
+  </si>
+  <si>
+    <t>test12.py</t>
+  </si>
+  <si>
+    <t>simple13.sh</t>
+  </si>
+  <si>
+    <t>running on PC</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1584,7 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,11 +1856,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1860,6 +1869,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,12 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2614,11 +2624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-172171072"/>
-        <c:axId val="-172170528"/>
+        <c:axId val="-1246390304"/>
+        <c:axId val="-1246391392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-172171072"/>
+        <c:axId val="-1246390304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-172170528"/>
+        <c:crossAx val="-1246391392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-172170528"/>
+        <c:axId val="-1246391392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-172171072"/>
+        <c:crossAx val="-1246390304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3582,11 +3592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-172169440"/>
-        <c:axId val="-172178144"/>
+        <c:axId val="-1246401184"/>
+        <c:axId val="-1246398464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-172169440"/>
+        <c:axId val="-1246401184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-172178144"/>
+        <c:crossAx val="-1246398464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3692,7 +3702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-172178144"/>
+        <c:axId val="-1246398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-172169440"/>
+        <c:crossAx val="-1246401184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4550,11 +4560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-172177600"/>
-        <c:axId val="-172179232"/>
+        <c:axId val="-1246395200"/>
+        <c:axId val="-1246394656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-172177600"/>
+        <c:axId val="-1246395200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,7 +4662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-172179232"/>
+        <c:crossAx val="-1246394656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4660,7 +4670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-172179232"/>
+        <c:axId val="-1246394656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,7 +4776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-172177600"/>
+        <c:crossAx val="-1246395200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5518,11 +5528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-360497184"/>
-        <c:axId val="-360204000"/>
+        <c:axId val="-1246397376"/>
+        <c:axId val="-1246387040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-360497184"/>
+        <c:axId val="-1246397376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,7 +5630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360204000"/>
+        <c:crossAx val="-1246387040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5628,7 +5638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-360204000"/>
+        <c:axId val="-1246387040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5734,7 +5744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360497184"/>
+        <c:crossAx val="-1246397376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8416,8 +8426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8436,8 +8446,8 @@
     <col min="15" max="16" width="15.28515625" style="10" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="10" customWidth="1"/>
     <col min="18" max="18" width="19.140625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="58" customWidth="1"/>
-    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8468,23 +8478,23 @@
       <c r="S4" s="59"/>
     </row>
     <row r="5" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
       <c r="S5" s="60"/>
     </row>
     <row r="6" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8584,7 +8594,7 @@
       <c r="S7" s="82"/>
     </row>
     <row r="8" spans="2:19" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="94">
+      <c r="B8" s="99">
         <v>1</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -8609,7 +8619,9 @@
         <v>13.238989091000001</v>
       </c>
       <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="K8" s="50">
+        <v>10</v>
+      </c>
       <c r="L8" s="50"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
@@ -8643,7 +8655,9 @@
         <v>13.238989091000001</v>
       </c>
       <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="K9" s="51">
+        <v>20</v>
+      </c>
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
@@ -8677,7 +8691,9 @@
         <v>13.238989091000001</v>
       </c>
       <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="K10" s="51">
+        <v>30</v>
+      </c>
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
@@ -8711,7 +8727,9 @@
         <v>13.238989091000001</v>
       </c>
       <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="K11" s="51">
+        <v>40</v>
+      </c>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
@@ -8745,7 +8763,9 @@
         <v>13.238989091000001</v>
       </c>
       <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="K12" s="51">
+        <v>50</v>
+      </c>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
@@ -9951,7 +9971,9 @@
       <c r="H48" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="I48" s="71"/>
+      <c r="I48" s="71">
+        <v>14.1734061586114</v>
+      </c>
       <c r="J48" s="71"/>
       <c r="K48" s="54"/>
       <c r="L48" s="54"/>
@@ -9962,7 +9984,7 @@
       <c r="Q48" s="54"/>
       <c r="R48" s="47"/>
     </row>
-    <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="95"/>
       <c r="C49" s="65" t="s">
         <v>37</v>
@@ -9982,7 +10004,9 @@
       <c r="H49" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="I49" s="71"/>
+      <c r="I49" s="71">
+        <v>14.1734061586114</v>
+      </c>
       <c r="J49" s="71"/>
       <c r="K49" s="54"/>
       <c r="L49" s="54"/>
@@ -9992,8 +10016,9 @@
       <c r="P49" s="54"/>
       <c r="Q49" s="54"/>
       <c r="R49" s="47"/>
-    </row>
-    <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="105"/>
+    </row>
+    <row r="50" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="95"/>
       <c r="C50" s="65" t="s">
         <v>37</v>
@@ -10013,7 +10038,9 @@
       <c r="H50" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="I50" s="71"/>
+      <c r="I50" s="71">
+        <v>14.1734061586114</v>
+      </c>
       <c r="J50" s="71"/>
       <c r="K50" s="54"/>
       <c r="L50" s="54"/>
@@ -10024,7 +10051,7 @@
       <c r="Q50" s="54"/>
       <c r="R50" s="47"/>
     </row>
-    <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="95"/>
       <c r="C51" s="65" t="s">
         <v>37</v>
@@ -10044,7 +10071,9 @@
       <c r="H51" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="I51" s="71"/>
+      <c r="I51" s="71">
+        <v>14.1734061586114</v>
+      </c>
       <c r="J51" s="71"/>
       <c r="K51" s="54"/>
       <c r="L51" s="54"/>
@@ -10055,7 +10084,7 @@
       <c r="Q51" s="54"/>
       <c r="R51" s="47"/>
     </row>
-    <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="95"/>
       <c r="C52" s="65" t="s">
         <v>37</v>
@@ -10075,7 +10104,9 @@
       <c r="H52" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="I52" s="71"/>
+      <c r="I52" s="71">
+        <v>14.1734061586114</v>
+      </c>
       <c r="J52" s="71"/>
       <c r="K52" s="54"/>
       <c r="L52" s="54"/>
@@ -10086,7 +10117,7 @@
       <c r="Q52" s="54"/>
       <c r="R52" s="47"/>
     </row>
-    <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="95">
         <v>10</v>
       </c>
@@ -10108,7 +10139,9 @@
       <c r="H53" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="I53" s="90"/>
+      <c r="I53" s="90">
+        <v>14.1906432135</v>
+      </c>
       <c r="J53" s="90"/>
       <c r="K53" s="43"/>
       <c r="L53" s="43"/>
@@ -10119,7 +10152,7 @@
       <c r="Q53" s="43"/>
       <c r="R53" s="48"/>
     </row>
-    <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="95"/>
       <c r="C54" s="42" t="s">
         <v>38</v>
@@ -10139,7 +10172,9 @@
       <c r="H54" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="I54" s="90"/>
+      <c r="I54" s="90">
+        <v>14.1906432135</v>
+      </c>
       <c r="J54" s="90"/>
       <c r="K54" s="43"/>
       <c r="L54" s="43"/>
@@ -10150,7 +10185,7 @@
       <c r="Q54" s="43"/>
       <c r="R54" s="48"/>
     </row>
-    <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="95"/>
       <c r="C55" s="42" t="s">
         <v>38</v>
@@ -10170,7 +10205,9 @@
       <c r="H55" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="I55" s="90"/>
+      <c r="I55" s="90">
+        <v>14.1906432135</v>
+      </c>
       <c r="J55" s="90"/>
       <c r="K55" s="43"/>
       <c r="L55" s="43"/>
@@ -10181,7 +10218,7 @@
       <c r="Q55" s="43"/>
       <c r="R55" s="48"/>
     </row>
-    <row r="56" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="95"/>
       <c r="C56" s="42" t="s">
         <v>38</v>
@@ -10201,7 +10238,9 @@
       <c r="H56" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="I56" s="90"/>
+      <c r="I56" s="90">
+        <v>14.1906432135</v>
+      </c>
       <c r="J56" s="90"/>
       <c r="K56" s="43"/>
       <c r="L56" s="43"/>
@@ -10212,7 +10251,7 @@
       <c r="Q56" s="43"/>
       <c r="R56" s="48"/>
     </row>
-    <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="95"/>
       <c r="C57" s="42" t="s">
         <v>38</v>
@@ -10232,7 +10271,9 @@
       <c r="H57" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="I57" s="90"/>
+      <c r="I57" s="90">
+        <v>14.1906432135</v>
+      </c>
       <c r="J57" s="90"/>
       <c r="K57" s="43"/>
       <c r="L57" s="43"/>
@@ -10243,7 +10284,7 @@
       <c r="Q57" s="43"/>
       <c r="R57" s="48"/>
     </row>
-    <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="95">
         <v>11</v>
       </c>
@@ -10265,7 +10306,9 @@
       <c r="H58" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="I58" s="71"/>
+      <c r="I58" s="71">
+        <v>14.836285331599999</v>
+      </c>
       <c r="J58" s="71"/>
       <c r="K58" s="54"/>
       <c r="L58" s="54"/>
@@ -10276,7 +10319,7 @@
       <c r="Q58" s="54"/>
       <c r="R58" s="47"/>
     </row>
-    <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="95"/>
       <c r="C59" s="65" t="s">
         <v>39</v>
@@ -10296,7 +10339,9 @@
       <c r="H59" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="I59" s="71"/>
+      <c r="I59" s="71">
+        <v>14.836285331599999</v>
+      </c>
       <c r="J59" s="71"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
@@ -10307,7 +10352,7 @@
       <c r="Q59" s="54"/>
       <c r="R59" s="47"/>
     </row>
-    <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="95"/>
       <c r="C60" s="65" t="s">
         <v>39</v>
@@ -10327,7 +10372,9 @@
       <c r="H60" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="I60" s="71"/>
+      <c r="I60" s="71">
+        <v>14.836285331599999</v>
+      </c>
       <c r="J60" s="71"/>
       <c r="K60" s="54"/>
       <c r="L60" s="54"/>
@@ -10338,7 +10385,7 @@
       <c r="Q60" s="54"/>
       <c r="R60" s="47"/>
     </row>
-    <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="95"/>
       <c r="C61" s="65" t="s">
         <v>39</v>
@@ -10358,7 +10405,9 @@
       <c r="H61" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="I61" s="71"/>
+      <c r="I61" s="71">
+        <v>14.836285331599999</v>
+      </c>
       <c r="J61" s="71"/>
       <c r="K61" s="54"/>
       <c r="L61" s="54"/>
@@ -10369,7 +10418,7 @@
       <c r="Q61" s="54"/>
       <c r="R61" s="47"/>
     </row>
-    <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="95"/>
       <c r="C62" s="65" t="s">
         <v>39</v>
@@ -10389,7 +10438,9 @@
       <c r="H62" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="I62" s="71"/>
+      <c r="I62" s="71">
+        <v>14.836285331599999</v>
+      </c>
       <c r="J62" s="71"/>
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
@@ -10400,7 +10451,7 @@
       <c r="Q62" s="54"/>
       <c r="R62" s="47"/>
     </row>
-    <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="95">
         <v>12</v>
       </c>
@@ -10422,7 +10473,9 @@
       <c r="H63" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="I63" s="90"/>
+      <c r="I63" s="90">
+        <v>11.187984055905201</v>
+      </c>
       <c r="J63" s="90"/>
       <c r="K63" s="43"/>
       <c r="L63" s="43"/>
@@ -10433,7 +10486,7 @@
       <c r="Q63" s="43"/>
       <c r="R63" s="48"/>
     </row>
-    <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="95"/>
       <c r="C64" s="42" t="s">
         <v>41</v>
@@ -10453,7 +10506,9 @@
       <c r="H64" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="I64" s="90"/>
+      <c r="I64" s="90">
+        <v>11.187984055905201</v>
+      </c>
       <c r="J64" s="90"/>
       <c r="K64" s="43"/>
       <c r="L64" s="43"/>
@@ -10464,7 +10519,7 @@
       <c r="Q64" s="43"/>
       <c r="R64" s="48"/>
     </row>
-    <row r="65" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="95"/>
       <c r="C65" s="42" t="s">
         <v>41</v>
@@ -10484,7 +10539,9 @@
       <c r="H65" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="I65" s="90"/>
+      <c r="I65" s="90">
+        <v>11.187984055905201</v>
+      </c>
       <c r="J65" s="90"/>
       <c r="K65" s="43"/>
       <c r="L65" s="43"/>
@@ -10495,7 +10552,7 @@
       <c r="Q65" s="43"/>
       <c r="R65" s="48"/>
     </row>
-    <row r="66" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="95"/>
       <c r="C66" s="42" t="s">
         <v>41</v>
@@ -10515,7 +10572,9 @@
       <c r="H66" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="I66" s="90"/>
+      <c r="I66" s="90">
+        <v>11.187984055905201</v>
+      </c>
       <c r="J66" s="90"/>
       <c r="K66" s="43"/>
       <c r="L66" s="43"/>
@@ -10526,7 +10585,7 @@
       <c r="Q66" s="43"/>
       <c r="R66" s="48"/>
     </row>
-    <row r="67" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="95"/>
       <c r="C67" s="42" t="s">
         <v>41</v>
@@ -10546,7 +10605,9 @@
       <c r="H67" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="I67" s="90"/>
+      <c r="I67" s="90">
+        <v>11.187984055905201</v>
+      </c>
       <c r="J67" s="90"/>
       <c r="K67" s="43"/>
       <c r="L67" s="43"/>
@@ -10557,7 +10618,7 @@
       <c r="Q67" s="43"/>
       <c r="R67" s="48"/>
     </row>
-    <row r="68" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="95">
         <v>13</v>
       </c>
@@ -10592,7 +10653,7 @@
       <c r="Q68" s="54"/>
       <c r="R68" s="47"/>
     </row>
-    <row r="69" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="95"/>
       <c r="C69" s="65" t="s">
         <v>7</v>
@@ -10625,7 +10686,7 @@
       <c r="Q69" s="54"/>
       <c r="R69" s="47"/>
     </row>
-    <row r="70" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="95"/>
       <c r="C70" s="65" t="s">
         <v>7</v>
@@ -10658,7 +10719,7 @@
       <c r="Q70" s="54"/>
       <c r="R70" s="47"/>
     </row>
-    <row r="71" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="95"/>
       <c r="C71" s="65" t="s">
         <v>7</v>
@@ -10691,7 +10752,7 @@
       <c r="Q71" s="54"/>
       <c r="R71" s="47"/>
     </row>
-    <row r="72" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="95"/>
       <c r="C72" s="65" t="s">
         <v>7</v>
@@ -10724,7 +10785,7 @@
       <c r="Q72" s="54"/>
       <c r="R72" s="47"/>
     </row>
-    <row r="73" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="95">
         <v>14</v>
       </c>
@@ -10757,7 +10818,7 @@
       <c r="Q73" s="43"/>
       <c r="R73" s="48"/>
     </row>
-    <row r="74" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="95"/>
       <c r="C74" s="42" t="s">
         <v>40</v>
@@ -10788,7 +10849,7 @@
       <c r="Q74" s="43"/>
       <c r="R74" s="48"/>
     </row>
-    <row r="75" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="95"/>
       <c r="C75" s="42" t="s">
         <v>40</v>
@@ -10819,7 +10880,7 @@
       <c r="Q75" s="43"/>
       <c r="R75" s="48"/>
     </row>
-    <row r="76" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="95"/>
       <c r="C76" s="42" t="s">
         <v>40</v>
@@ -10850,7 +10911,7 @@
       <c r="Q76" s="43"/>
       <c r="R76" s="48"/>
     </row>
-    <row r="77" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="95"/>
       <c r="C77" s="42" t="s">
         <v>40</v>
@@ -10881,7 +10942,7 @@
       <c r="Q77" s="43"/>
       <c r="R77" s="48"/>
     </row>
-    <row r="78" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="95">
         <v>15</v>
       </c>
@@ -10913,8 +10974,11 @@
       <c r="P78" s="54"/>
       <c r="Q78" s="54"/>
       <c r="R78" s="47"/>
-    </row>
-    <row r="79" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S78" s="58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="95"/>
       <c r="C79" s="65" t="s">
         <v>15</v>
@@ -10945,7 +11009,7 @@
       <c r="Q79" s="54"/>
       <c r="R79" s="47"/>
     </row>
-    <row r="80" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="95"/>
       <c r="C80" s="65" t="s">
         <v>15</v>
@@ -11227,7 +11291,9 @@
       <c r="H88" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="I88" s="71"/>
+      <c r="I88" s="71">
+        <v>11.911648988132001</v>
+      </c>
       <c r="J88" s="71"/>
       <c r="K88" s="54"/>
       <c r="L88" s="54"/>
@@ -11258,7 +11324,9 @@
       <c r="H89" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="I89" s="71"/>
+      <c r="I89" s="71">
+        <v>11.911648988132001</v>
+      </c>
       <c r="J89" s="71"/>
       <c r="K89" s="54"/>
       <c r="L89" s="54"/>
@@ -11289,7 +11357,9 @@
       <c r="H90" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="I90" s="71"/>
+      <c r="I90" s="71">
+        <v>11.911648988132001</v>
+      </c>
       <c r="J90" s="71"/>
       <c r="K90" s="54"/>
       <c r="L90" s="54"/>
@@ -11320,7 +11390,9 @@
       <c r="H91" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="I91" s="71"/>
+      <c r="I91" s="71">
+        <v>11.911648988132001</v>
+      </c>
       <c r="J91" s="71"/>
       <c r="K91" s="54"/>
       <c r="L91" s="54"/>
@@ -11351,7 +11423,9 @@
       <c r="H92" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="I92" s="71"/>
+      <c r="I92" s="71">
+        <v>11.911648988132001</v>
+      </c>
       <c r="J92" s="71"/>
       <c r="K92" s="54"/>
       <c r="L92" s="54"/>
@@ -11394,6 +11468,9 @@
       <c r="P93" s="43"/>
       <c r="Q93" s="43"/>
       <c r="R93" s="48"/>
+      <c r="S93" s="58">
+        <v>6252929</v>
+      </c>
       <c r="T93" s="10"/>
     </row>
     <row r="94" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11426,6 +11503,9 @@
       <c r="P94" s="43"/>
       <c r="Q94" s="43"/>
       <c r="R94" s="48"/>
+      <c r="S94" s="58" t="s">
+        <v>114</v>
+      </c>
       <c r="T94" s="10"/>
     </row>
     <row r="95" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11458,6 +11538,9 @@
       <c r="P95" s="43"/>
       <c r="Q95" s="43"/>
       <c r="R95" s="48"/>
+      <c r="S95" s="58" t="s">
+        <v>115</v>
+      </c>
       <c r="T95" s="10"/>
     </row>
     <row r="96" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12909,6 +12992,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B98:B102"/>
     <mergeCell ref="B138:B142"/>
     <mergeCell ref="B123:B127"/>
     <mergeCell ref="B128:B132"/>
@@ -12917,26 +13020,6 @@
     <mergeCell ref="B113:B117"/>
     <mergeCell ref="B118:B122"/>
     <mergeCell ref="B133:B137"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -12986,31 +13069,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="102"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="104"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
@@ -13320,31 +13403,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="102"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="104"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
@@ -14003,21 +14086,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AA130"/>
+  <dimension ref="C4:AB130"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>113</v>
       </c>
@@ -14027,11 +14110,8 @@
       <c r="N4" t="s">
         <v>110</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>110</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>109</v>
       </c>
       <c r="R4" t="s">
         <v>109</v>
@@ -14039,8 +14119,8 @@
       <c r="S4" t="s">
         <v>109</v>
       </c>
-      <c r="U4" t="s">
-        <v>111</v>
+      <c r="T4" t="s">
+        <v>109</v>
       </c>
       <c r="V4" t="s">
         <v>111</v>
@@ -14048,8 +14128,8 @@
       <c r="W4" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" t="s">
-        <v>112</v>
+      <c r="X4" t="s">
+        <v>111</v>
       </c>
       <c r="Z4" t="s">
         <v>112</v>
@@ -14057,8 +14137,11 @@
       <c r="AA4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C6" s="50">
         <v>29.7399163312021</v>
       </c>
@@ -14086,8 +14169,8 @@
       <c r="O6" s="50">
         <v>13.238989091000001</v>
       </c>
-      <c r="Q6" s="50">
-        <v>29.7399163312021</v>
+      <c r="P6" s="50">
+        <v>13.238989091000001</v>
       </c>
       <c r="R6" s="50">
         <v>29.7399163312021</v>
@@ -14095,8 +14178,8 @@
       <c r="S6" s="50">
         <v>29.7399163312021</v>
       </c>
-      <c r="U6" s="50">
-        <v>206</v>
+      <c r="T6" s="50">
+        <v>29.7399163312021</v>
       </c>
       <c r="V6" s="50">
         <v>206</v>
@@ -14104,8 +14187,8 @@
       <c r="W6" s="50">
         <v>206</v>
       </c>
-      <c r="Y6" s="50">
-        <v>246</v>
+      <c r="X6" s="50">
+        <v>206</v>
       </c>
       <c r="Z6" s="50">
         <v>246</v>
@@ -14113,8 +14196,11 @@
       <c r="AA6" s="50">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="50">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C7" s="51">
         <v>29.7399163312021</v>
       </c>
@@ -14142,35 +14228,38 @@
       <c r="O7" s="52">
         <v>11.562317029100001</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="P7" s="52">
+        <v>11.562317029100001</v>
+      </c>
+      <c r="R7" s="51">
         <v>29.7399163312021</v>
-      </c>
-      <c r="R7" s="52">
-        <v>4.6507515473032699</v>
       </c>
       <c r="S7" s="52">
         <v>4.6507515473032699</v>
       </c>
-      <c r="U7" s="51">
+      <c r="T7" s="52">
+        <v>4.6507515473032699</v>
+      </c>
+      <c r="V7" s="51">
         <v>206</v>
-      </c>
-      <c r="V7" s="52">
-        <v>315</v>
       </c>
       <c r="W7" s="52">
         <v>315</v>
       </c>
-      <c r="Y7" s="51">
+      <c r="X7" s="52">
+        <v>315</v>
+      </c>
+      <c r="Z7" s="51">
         <v>246</v>
-      </c>
-      <c r="Z7" s="52">
-        <v>377</v>
       </c>
       <c r="AA7" s="52">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="52">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C8" s="51">
         <v>29.7399163312021</v>
       </c>
@@ -14198,35 +14287,38 @@
       <c r="O8" s="54">
         <v>9.5861011454099998</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="P8" s="54">
+        <v>9.5861011454099998</v>
+      </c>
+      <c r="R8" s="51">
         <v>29.7399163312021</v>
-      </c>
-      <c r="R8" s="54">
-        <v>7.0759999999999996</v>
       </c>
       <c r="S8" s="54">
         <v>7.0759999999999996</v>
       </c>
-      <c r="U8" s="51">
+      <c r="T8" s="54">
+        <v>7.0759999999999996</v>
+      </c>
+      <c r="V8" s="51">
         <v>206</v>
-      </c>
-      <c r="V8" s="54">
-        <v>50</v>
       </c>
       <c r="W8" s="54">
         <v>50</v>
       </c>
-      <c r="Y8" s="51">
+      <c r="X8" s="54">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="51">
         <v>246</v>
-      </c>
-      <c r="Z8" s="53">
-        <v>1000</v>
       </c>
       <c r="AA8" s="53">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C9" s="51">
         <v>29.7399163312021</v>
       </c>
@@ -14254,35 +14346,38 @@
       <c r="O9" s="90">
         <v>10.5683581965</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="P9" s="90">
+        <v>10.5683581965</v>
+      </c>
+      <c r="R9" s="51">
         <v>29.7399163312021</v>
-      </c>
-      <c r="R9" s="90">
-        <v>49.3333333333333</v>
       </c>
       <c r="S9" s="90">
         <v>49.3333333333333</v>
       </c>
-      <c r="U9" s="51">
+      <c r="T9" s="90">
+        <v>49.3333333333333</v>
+      </c>
+      <c r="V9" s="51">
         <v>206</v>
-      </c>
-      <c r="V9" s="43">
-        <v>75</v>
       </c>
       <c r="W9" s="43">
         <v>75</v>
       </c>
-      <c r="Y9" s="51">
+      <c r="X9" s="43">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="51">
         <v>246</v>
-      </c>
-      <c r="Z9" s="55">
-        <v>3196</v>
       </c>
       <c r="AA9" s="55">
         <v>3196</v>
       </c>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="55">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C10" s="51">
         <v>29.7399163312021</v>
       </c>
@@ -14310,35 +14405,38 @@
       <c r="O10" s="71">
         <v>15.2086203631</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="P10" s="71">
+        <v>15.2086203631</v>
+      </c>
+      <c r="R10" s="51">
         <v>29.7399163312021</v>
-      </c>
-      <c r="R10" s="71">
-        <v>0.283759504409897</v>
       </c>
       <c r="S10" s="71">
         <v>0.283759504409897</v>
       </c>
-      <c r="U10" s="51">
+      <c r="T10" s="71">
+        <v>0.283759504409897</v>
+      </c>
+      <c r="V10" s="51">
         <v>206</v>
-      </c>
-      <c r="V10" s="54">
-        <v>1559</v>
       </c>
       <c r="W10" s="54">
         <v>1559</v>
       </c>
-      <c r="Y10" s="51">
+      <c r="X10" s="54">
+        <v>1559</v>
+      </c>
+      <c r="Z10" s="51">
         <v>246</v>
-      </c>
-      <c r="Z10" s="53">
-        <v>4141</v>
       </c>
       <c r="AA10" s="53">
         <v>4141</v>
       </c>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="53">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C11" s="52">
         <v>4.6507515473032699</v>
       </c>
@@ -14366,35 +14464,38 @@
       <c r="O11" s="90">
         <v>9.72385212929</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="P11" s="90">
+        <v>9.72385212929</v>
+      </c>
+      <c r="R11" s="52">
         <v>4.6507515473032699</v>
-      </c>
-      <c r="R11" s="90">
-        <v>7.0940000000000003</v>
       </c>
       <c r="S11" s="90">
         <v>7.0940000000000003</v>
       </c>
-      <c r="U11" s="52">
+      <c r="T11" s="90">
+        <v>7.0940000000000003</v>
+      </c>
+      <c r="V11" s="52">
         <v>315</v>
-      </c>
-      <c r="V11" s="43">
-        <v>50</v>
       </c>
       <c r="W11" s="43">
         <v>50</v>
       </c>
-      <c r="Y11" s="52">
+      <c r="X11" s="43">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="52">
         <v>377</v>
-      </c>
-      <c r="Z11" s="55">
-        <v>5000</v>
       </c>
       <c r="AA11" s="55">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="55">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C12" s="52">
         <v>4.6507515473032699</v>
       </c>
@@ -14422,35 +14523,38 @@
       <c r="O12" s="71">
         <v>10.6102161573</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="P12" s="71">
+        <v>10.6102161573</v>
+      </c>
+      <c r="R12" s="52">
         <v>4.6507515473032699</v>
-      </c>
-      <c r="R12" s="71">
-        <v>19.327731092436899</v>
       </c>
       <c r="S12" s="71">
         <v>19.327731092436899</v>
       </c>
-      <c r="U12" s="52">
+      <c r="T12" s="71">
+        <v>19.327731092436899</v>
+      </c>
+      <c r="V12" s="52">
         <v>315</v>
-      </c>
-      <c r="V12" s="54">
-        <v>119</v>
       </c>
       <c r="W12" s="54">
         <v>119</v>
       </c>
-      <c r="Y12" s="52">
+      <c r="X12" s="54">
+        <v>119</v>
+      </c>
+      <c r="Z12" s="52">
         <v>377</v>
-      </c>
-      <c r="Z12" s="53">
-        <v>8124</v>
       </c>
       <c r="AA12" s="53">
         <v>8124</v>
       </c>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="53">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C13" s="52">
         <v>4.6507515473032699</v>
       </c>
@@ -14478,35 +14582,38 @@
       <c r="O13" s="90">
         <v>9.7691123398500004</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="P13" s="90">
+        <v>9.7691123398500004</v>
+      </c>
+      <c r="R13" s="52">
         <v>4.6507515473032699</v>
-      </c>
-      <c r="R13" s="90">
-        <v>7.1129999999999898</v>
       </c>
       <c r="S13" s="90">
         <v>7.1129999999999898</v>
       </c>
-      <c r="U13" s="52">
+      <c r="T13" s="90">
+        <v>7.1129999999999898</v>
+      </c>
+      <c r="V13" s="52">
         <v>315</v>
-      </c>
-      <c r="V13" s="43">
-        <v>50</v>
       </c>
       <c r="W13" s="43">
         <v>50</v>
       </c>
-      <c r="Y13" s="52">
+      <c r="X13" s="43">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="52">
         <v>377</v>
-      </c>
-      <c r="Z13" s="55">
-        <v>20000</v>
       </c>
       <c r="AA13" s="55">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="55">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C14" s="52">
         <v>4.6507515473032699</v>
       </c>
@@ -14528,29 +14635,29 @@
       <c r="N14" s="52">
         <v>11.562317029100001</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="R14" s="52">
         <v>4.6507515473032699</v>
       </c>
-      <c r="R14" s="71">
+      <c r="S14" s="71">
         <v>3.50212967345007</v>
       </c>
-      <c r="S14" s="71"/>
-      <c r="U14" s="52">
+      <c r="T14" s="71"/>
+      <c r="V14" s="52">
         <v>315</v>
       </c>
-      <c r="V14" s="54">
+      <c r="W14" s="54">
         <v>2113</v>
       </c>
-      <c r="W14" s="54"/>
-      <c r="Y14" s="52">
+      <c r="X14" s="54"/>
+      <c r="Z14" s="52">
         <v>377</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="AA14" s="53">
         <v>49046</v>
       </c>
-      <c r="AA14" s="53"/>
-    </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="53"/>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C15" s="52">
         <v>4.6507515473032699</v>
       </c>
@@ -14572,29 +14679,29 @@
       <c r="N15" s="52">
         <v>11.562317029100001</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="R15" s="52">
         <v>4.6507515473032699</v>
       </c>
-      <c r="R15" s="90">
+      <c r="S15" s="90">
         <v>2.41772697395814</v>
       </c>
-      <c r="S15" s="90"/>
-      <c r="U15" s="52">
+      <c r="T15" s="90"/>
+      <c r="V15" s="52">
         <v>315</v>
       </c>
-      <c r="V15" s="43">
+      <c r="W15" s="43">
         <v>2088</v>
       </c>
-      <c r="W15" s="43"/>
-      <c r="Y15" s="52">
+      <c r="X15" s="43"/>
+      <c r="Z15" s="52">
         <v>377</v>
       </c>
-      <c r="Z15" s="55">
+      <c r="AA15" s="55">
         <v>49046</v>
       </c>
-      <c r="AA15" s="55"/>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="55"/>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C16" s="54">
         <v>7.0759999999999996</v>
       </c>
@@ -14616,29 +14723,29 @@
       <c r="N16" s="54">
         <v>9.5861011454099998</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="R16" s="54">
         <v>7.0759999999999996</v>
       </c>
-      <c r="R16" s="71">
+      <c r="S16" s="71">
         <v>0.50515839576231203</v>
       </c>
-      <c r="S16" s="71"/>
-      <c r="U16" s="54">
+      <c r="T16" s="71"/>
+      <c r="V16" s="54">
         <v>50</v>
       </c>
-      <c r="V16" s="54">
+      <c r="W16" s="54">
         <v>497</v>
       </c>
-      <c r="W16" s="54"/>
-      <c r="Y16" s="53">
+      <c r="X16" s="54"/>
+      <c r="Z16" s="53">
         <v>1000</v>
       </c>
-      <c r="Z16" s="53">
+      <c r="AA16" s="53">
         <v>59602</v>
       </c>
-      <c r="AA16" s="53"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="53"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C17" s="54">
         <v>7.0759999999999996</v>
       </c>
@@ -14660,29 +14767,29 @@
       <c r="N17" s="54">
         <v>9.5861011454099998</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="R17" s="54">
         <v>7.0759999999999996</v>
       </c>
-      <c r="R17" s="90">
+      <c r="S17" s="90">
         <v>33.3333333333333</v>
       </c>
-      <c r="S17" s="90"/>
-      <c r="U17" s="54">
+      <c r="T17" s="90"/>
+      <c r="V17" s="54">
         <v>50</v>
       </c>
-      <c r="V17" s="43">
+      <c r="W17" s="43">
         <v>129</v>
       </c>
-      <c r="W17" s="43"/>
-      <c r="Y17" s="53">
+      <c r="X17" s="43"/>
+      <c r="Z17" s="53">
         <v>1000</v>
       </c>
-      <c r="Z17" s="55">
+      <c r="AA17" s="55">
         <v>67557</v>
       </c>
-      <c r="AA17" s="55"/>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="55"/>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C18" s="54">
         <v>7.0759999999999996</v>
       </c>
@@ -14710,17 +14817,17 @@
       <c r="O18" s="71">
         <v>9.7715981233600004</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="P18" s="71">
+        <v>9.7715981233600004</v>
+      </c>
+      <c r="R18" s="54">
         <v>7.0759999999999996</v>
-      </c>
-      <c r="R18" s="71">
-        <v>7.09890666666666</v>
       </c>
       <c r="S18" s="71">
         <v>7.09890666666666</v>
       </c>
-      <c r="U18" s="54">
-        <v>50</v>
+      <c r="T18" s="71">
+        <v>7.09890666666666</v>
       </c>
       <c r="V18" s="54">
         <v>50</v>
@@ -14728,17 +14835,20 @@
       <c r="W18" s="54">
         <v>50</v>
       </c>
-      <c r="Y18" s="53">
+      <c r="X18" s="54">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="53">
         <v>1000</v>
-      </c>
-      <c r="Z18" s="53">
-        <v>75000</v>
       </c>
       <c r="AA18" s="53">
         <v>75000</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="53">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C19" s="54">
         <v>7.0759999999999996</v>
       </c>
@@ -14760,29 +14870,29 @@
       <c r="N19" s="54">
         <v>9.5861011454099998</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="R19" s="54">
         <v>7.0759999999999996</v>
       </c>
-      <c r="R19" s="90">
+      <c r="S19" s="90">
         <v>0.13839000706400101</v>
       </c>
-      <c r="S19" s="90"/>
-      <c r="U19" s="54">
+      <c r="T19" s="90"/>
+      <c r="V19" s="54">
         <v>50</v>
       </c>
-      <c r="V19" s="43">
+      <c r="W19" s="43">
         <v>3340</v>
       </c>
-      <c r="W19" s="43"/>
-      <c r="Y19" s="53">
+      <c r="X19" s="43"/>
+      <c r="Z19" s="53">
         <v>1000</v>
       </c>
-      <c r="Z19" s="55">
+      <c r="AA19" s="55">
         <v>77512</v>
       </c>
-      <c r="AA19" s="55"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="55"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C20" s="54">
         <v>7.0759999999999996</v>
       </c>
@@ -14804,29 +14914,29 @@
       <c r="N20" s="54">
         <v>9.5861011454099998</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="R20" s="54">
         <v>7.0759999999999996</v>
       </c>
-      <c r="R20" s="71">
+      <c r="S20" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
-      <c r="S20" s="71"/>
-      <c r="U20" s="54">
+      <c r="T20" s="71"/>
+      <c r="V20" s="54">
         <v>50</v>
       </c>
-      <c r="V20" s="54">
+      <c r="W20" s="54">
         <v>16470</v>
       </c>
-      <c r="W20" s="54"/>
-      <c r="Y20" s="53">
+      <c r="X20" s="54"/>
+      <c r="Z20" s="53">
         <v>1000</v>
       </c>
-      <c r="Z20" s="53">
+      <c r="AA20" s="53">
         <v>88162</v>
       </c>
-      <c r="AA20" s="53"/>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="53"/>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21" s="90">
         <v>49.3333333333333</v>
       </c>
@@ -14854,35 +14964,38 @@
       <c r="O21" s="90">
         <v>5.0058344079100001</v>
       </c>
-      <c r="Q21" s="90">
+      <c r="P21" s="90">
+        <v>5.0058344079100001</v>
+      </c>
+      <c r="R21" s="90">
         <v>49.3333333333333</v>
-      </c>
-      <c r="R21" s="90">
-        <v>33.302422157565999</v>
       </c>
       <c r="S21" s="90">
         <v>33.302422157565999</v>
       </c>
-      <c r="U21" s="43">
+      <c r="T21" s="90">
+        <v>33.302422157565999</v>
+      </c>
+      <c r="V21" s="43">
         <v>75</v>
-      </c>
-      <c r="V21" s="43">
-        <v>12</v>
       </c>
       <c r="W21" s="43">
         <v>12</v>
       </c>
-      <c r="Y21" s="55">
+      <c r="X21" s="43">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="55">
         <v>3196</v>
-      </c>
-      <c r="Z21" s="55">
-        <v>245057</v>
       </c>
       <c r="AA21" s="55">
         <v>245057</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="55">
+        <v>245057</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C22" s="90">
         <v>49.3333333333333</v>
       </c>
@@ -14904,29 +15017,29 @@
       <c r="N22" s="90">
         <v>10.5683581965</v>
       </c>
-      <c r="Q22" s="90">
+      <c r="R22" s="90">
         <v>49.3333333333333</v>
       </c>
-      <c r="R22" s="71">
+      <c r="S22" s="71">
         <v>7.2239084689736197</v>
       </c>
-      <c r="S22" s="71"/>
-      <c r="U22" s="43">
+      <c r="T22" s="71"/>
+      <c r="V22" s="43">
         <v>75</v>
       </c>
-      <c r="V22" s="54">
+      <c r="W22" s="54">
         <v>468</v>
       </c>
-      <c r="W22" s="54"/>
-      <c r="Y22" s="55">
+      <c r="X22" s="54"/>
+      <c r="Z22" s="55">
         <v>3196</v>
       </c>
-      <c r="Z22" s="53">
+      <c r="AA22" s="53">
         <v>340183</v>
       </c>
-      <c r="AA22" s="53"/>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="53"/>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C23" s="90">
         <v>49.3333333333333</v>
       </c>
@@ -14948,29 +15061,29 @@
       <c r="N23" s="90">
         <v>10.5683581965</v>
       </c>
-      <c r="Q23" s="90">
+      <c r="R23" s="90">
         <v>49.3333333333333</v>
       </c>
-      <c r="R23" s="90">
+      <c r="S23" s="90">
         <v>0.16758174398199499</v>
       </c>
-      <c r="S23" s="90"/>
-      <c r="U23" s="43">
+      <c r="T23" s="90"/>
+      <c r="V23" s="43">
         <v>75</v>
       </c>
-      <c r="V23" s="43">
+      <c r="W23" s="43">
         <v>2604</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="Y23" s="55">
+      <c r="X23" s="43"/>
+      <c r="Z23" s="55">
         <v>3196</v>
       </c>
-      <c r="Z23" s="55">
+      <c r="AA23" s="55">
         <v>541909</v>
       </c>
-      <c r="AA23" s="55"/>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="55"/>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C24" s="90">
         <v>49.3333333333333</v>
       </c>
@@ -14998,35 +15111,38 @@
       <c r="O24" s="71">
         <v>6.4273218295100003</v>
       </c>
-      <c r="Q24" s="90">
+      <c r="P24" s="71">
+        <v>6.4273218295100003</v>
+      </c>
+      <c r="R24" s="90">
         <v>49.3333333333333</v>
-      </c>
-      <c r="R24" s="71">
-        <v>37.037037037037003</v>
       </c>
       <c r="S24" s="71">
         <v>37.037037037037003</v>
       </c>
-      <c r="U24" s="43">
+      <c r="T24" s="71">
+        <v>37.037037037037003</v>
+      </c>
+      <c r="V24" s="43">
         <v>75</v>
-      </c>
-      <c r="V24" s="54">
-        <v>27</v>
       </c>
       <c r="W24" s="54">
         <v>27</v>
       </c>
-      <c r="Y24" s="55">
+      <c r="X24" s="54">
+        <v>27</v>
+      </c>
+      <c r="Z24" s="55">
         <v>3196</v>
-      </c>
-      <c r="Z24" s="53">
-        <v>574913</v>
       </c>
       <c r="AA24" s="53">
         <v>574913</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="53">
+        <v>574913</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C25" s="90">
         <v>49.3333333333333</v>
       </c>
@@ -15048,29 +15164,29 @@
       <c r="N25" s="90">
         <v>10.5683581965</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="R25" s="90">
         <v>49.3333333333333</v>
       </c>
-      <c r="R25" s="90">
+      <c r="S25" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
-      <c r="S25" s="90"/>
-      <c r="U25" s="43">
+      <c r="T25" s="90"/>
+      <c r="V25" s="43">
         <v>75</v>
       </c>
-      <c r="V25" s="43">
+      <c r="W25" s="43">
         <v>41270</v>
       </c>
-      <c r="W25" s="43"/>
-      <c r="Y25" s="55">
+      <c r="X25" s="43"/>
+      <c r="Z25" s="55">
         <v>3196</v>
       </c>
-      <c r="Z25" s="55">
+      <c r="AA25" s="55">
         <v>990002</v>
       </c>
-      <c r="AA25" s="55"/>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="55"/>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C26" s="71">
         <v>0.283759504409897</v>
       </c>
@@ -15098,35 +15214,38 @@
       <c r="O26" s="71">
         <v>8.5368888115899999</v>
       </c>
-      <c r="Q26" s="71">
+      <c r="P26" s="71">
+        <v>8.5368888115899999</v>
+      </c>
+      <c r="R26" s="71">
         <v>0.283759504409897</v>
-      </c>
-      <c r="R26" s="71">
-        <v>11.8518518518518</v>
       </c>
       <c r="S26" s="71">
         <v>11.8518518518518</v>
       </c>
-      <c r="U26" s="54">
+      <c r="T26" s="71">
+        <v>11.8518518518518</v>
+      </c>
+      <c r="V26" s="54">
         <v>1559</v>
-      </c>
-      <c r="V26" s="54">
-        <v>135</v>
       </c>
       <c r="W26" s="54">
         <v>135</v>
       </c>
-      <c r="Y26" s="53">
+      <c r="X26" s="54">
+        <v>135</v>
+      </c>
+      <c r="Z26" s="53">
         <v>4141</v>
-      </c>
-      <c r="Z26" s="53">
-        <v>1000000</v>
       </c>
       <c r="AA26" s="53">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C27" s="71">
         <v>0.283759504409897</v>
       </c>
@@ -15154,35 +15273,38 @@
       <c r="O27" s="90">
         <v>9.8459303506700007</v>
       </c>
-      <c r="Q27" s="71">
+      <c r="P27" s="90">
+        <v>9.8459303506700007</v>
+      </c>
+      <c r="R27" s="71">
         <v>0.283759504409897</v>
-      </c>
-      <c r="R27" s="90">
-        <v>29.1850365853658</v>
       </c>
       <c r="S27" s="90">
         <v>29.1850365853658</v>
       </c>
-      <c r="U27" s="54">
+      <c r="T27" s="90">
+        <v>29.1850365853658</v>
+      </c>
+      <c r="V27" s="54">
         <v>1559</v>
-      </c>
-      <c r="V27" s="43">
-        <v>82</v>
       </c>
       <c r="W27" s="43">
         <v>82</v>
       </c>
-      <c r="Y27" s="53">
+      <c r="X27" s="43">
+        <v>82</v>
+      </c>
+      <c r="Z27" s="53">
         <v>4141</v>
-      </c>
-      <c r="Z27" s="55">
-        <v>1000000</v>
       </c>
       <c r="AA27" s="55">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="55">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C28" s="71">
         <v>0.283759504409897</v>
       </c>
@@ -15210,35 +15332,38 @@
       <c r="O28" s="71">
         <v>12.9866738828</v>
       </c>
-      <c r="Q28" s="71">
+      <c r="P28" s="71">
+        <v>12.9866738828</v>
+      </c>
+      <c r="R28" s="71">
         <v>0.283759504409897</v>
-      </c>
-      <c r="R28" s="71">
-        <v>15.1898734177215</v>
       </c>
       <c r="S28" s="71">
         <v>15.1898734177215</v>
       </c>
-      <c r="U28" s="54">
+      <c r="T28" s="71">
+        <v>15.1898734177215</v>
+      </c>
+      <c r="V28" s="54">
         <v>1559</v>
-      </c>
-      <c r="V28" s="54">
-        <v>316</v>
       </c>
       <c r="W28" s="54">
         <v>316</v>
       </c>
-      <c r="Y28" s="53">
+      <c r="X28" s="54">
+        <v>316</v>
+      </c>
+      <c r="Z28" s="53">
         <v>4141</v>
-      </c>
-      <c r="Z28" s="53">
-        <v>1000000</v>
       </c>
       <c r="AA28" s="53">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C29" s="71">
         <v>0.283759504409897</v>
       </c>
@@ -15266,35 +15391,38 @@
       <c r="O29" s="90">
         <v>7.06515962874</v>
       </c>
-      <c r="Q29" s="71">
+      <c r="P29" s="90">
+        <v>7.06515962874</v>
+      </c>
+      <c r="R29" s="71">
         <v>0.283759504409897</v>
-      </c>
-      <c r="R29" s="90">
-        <v>5.6</v>
       </c>
       <c r="S29" s="90">
         <v>5.6</v>
       </c>
-      <c r="U29" s="54">
+      <c r="T29" s="90">
+        <v>5.6</v>
+      </c>
+      <c r="V29" s="54">
         <v>1559</v>
-      </c>
-      <c r="V29" s="43">
-        <v>125</v>
       </c>
       <c r="W29" s="43">
         <v>125</v>
       </c>
-      <c r="Y29" s="53">
+      <c r="X29" s="43">
+        <v>125</v>
+      </c>
+      <c r="Z29" s="53">
         <v>4141</v>
-      </c>
-      <c r="Z29" s="55">
-        <v>1040000</v>
       </c>
       <c r="AA29" s="55">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="55">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C30" s="71">
         <v>0.283759504409897</v>
       </c>
@@ -15316,29 +15444,30 @@
       <c r="N30" s="71">
         <v>15.2086203631</v>
       </c>
-      <c r="Q30" s="71">
+      <c r="O30" s="94"/>
+      <c r="R30" s="71">
         <v>0.283759504409897</v>
       </c>
-      <c r="R30" s="71">
+      <c r="S30" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
-      <c r="S30" s="71"/>
-      <c r="U30" s="54">
+      <c r="T30" s="71"/>
+      <c r="V30" s="54">
         <v>1559</v>
       </c>
-      <c r="V30" s="54">
+      <c r="W30" s="54">
         <v>46086</v>
       </c>
-      <c r="W30" s="54"/>
-      <c r="Y30" s="53">
+      <c r="X30" s="54"/>
+      <c r="Z30" s="53">
         <v>4141</v>
       </c>
-      <c r="Z30" s="53">
+      <c r="AA30" s="53">
         <v>1112949</v>
       </c>
-      <c r="AA30" s="53"/>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="53"/>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C31" s="90">
         <v>7.0940000000000003</v>
       </c>
@@ -15348,22 +15477,23 @@
       <c r="I31" s="90">
         <v>100</v>
       </c>
-      <c r="J31" s="103"/>
+      <c r="J31" s="93"/>
       <c r="N31" s="90">
         <v>9.72385212929</v>
       </c>
-      <c r="Q31" s="90">
+      <c r="O31" s="93"/>
+      <c r="R31" s="90">
         <v>7.0940000000000003</v>
       </c>
-      <c r="R31" s="103"/>
-      <c r="U31" s="43">
+      <c r="S31" s="93"/>
+      <c r="V31" s="43">
         <v>50</v>
       </c>
-      <c r="Y31" s="55">
+      <c r="Z31" s="55">
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C32" s="90">
         <v>7.0940000000000003</v>
       </c>
@@ -15373,22 +15503,23 @@
       <c r="I32" s="90">
         <v>100</v>
       </c>
-      <c r="J32" s="103"/>
+      <c r="J32" s="93"/>
       <c r="N32" s="90">
         <v>9.72385212929</v>
       </c>
-      <c r="Q32" s="90">
+      <c r="O32" s="93"/>
+      <c r="R32" s="90">
         <v>7.0940000000000003</v>
       </c>
-      <c r="R32" s="103"/>
-      <c r="U32" s="43">
+      <c r="S32" s="93"/>
+      <c r="V32" s="43">
         <v>50</v>
       </c>
-      <c r="Y32" s="55">
+      <c r="Z32" s="55">
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C33" s="90">
         <v>7.0940000000000003</v>
       </c>
@@ -15398,22 +15529,23 @@
       <c r="I33" s="90">
         <v>100</v>
       </c>
-      <c r="J33" s="103"/>
+      <c r="J33" s="93"/>
       <c r="N33" s="90">
         <v>9.72385212929</v>
       </c>
-      <c r="Q33" s="90">
+      <c r="O33" s="93"/>
+      <c r="R33" s="90">
         <v>7.0940000000000003</v>
       </c>
-      <c r="R33" s="103"/>
-      <c r="U33" s="43">
+      <c r="S33" s="93"/>
+      <c r="V33" s="43">
         <v>50</v>
       </c>
-      <c r="Y33" s="55">
+      <c r="Z33" s="55">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C34" s="90">
         <v>7.0940000000000003</v>
       </c>
@@ -15423,22 +15555,23 @@
       <c r="I34" s="90">
         <v>100</v>
       </c>
-      <c r="J34" s="103"/>
+      <c r="J34" s="93"/>
       <c r="N34" s="90">
         <v>9.72385212929</v>
       </c>
-      <c r="Q34" s="90">
+      <c r="O34" s="93"/>
+      <c r="R34" s="90">
         <v>7.0940000000000003</v>
       </c>
-      <c r="R34" s="103"/>
-      <c r="U34" s="43">
+      <c r="S34" s="93"/>
+      <c r="V34" s="43">
         <v>50</v>
       </c>
-      <c r="Y34" s="55">
+      <c r="Z34" s="55">
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C35" s="90">
         <v>7.0940000000000003</v>
       </c>
@@ -15448,22 +15581,23 @@
       <c r="I35" s="90">
         <v>100</v>
       </c>
-      <c r="J35" s="103"/>
+      <c r="J35" s="93"/>
       <c r="N35" s="90">
         <v>9.72385212929</v>
       </c>
-      <c r="Q35" s="90">
+      <c r="O35" s="93"/>
+      <c r="R35" s="90">
         <v>7.0940000000000003</v>
       </c>
-      <c r="R35" s="103"/>
-      <c r="U35" s="43">
+      <c r="S35" s="93"/>
+      <c r="V35" s="43">
         <v>50</v>
       </c>
-      <c r="Y35" s="55">
+      <c r="Z35" s="55">
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C36" s="71">
         <v>19.327731092436899</v>
       </c>
@@ -15473,22 +15607,23 @@
       <c r="I36" s="71">
         <v>50.235009257940398</v>
       </c>
-      <c r="J36" s="104"/>
+      <c r="J36" s="94"/>
       <c r="N36" s="71">
         <v>10.6102161573</v>
       </c>
-      <c r="Q36" s="71">
+      <c r="O36" s="94"/>
+      <c r="R36" s="71">
         <v>19.327731092436899</v>
       </c>
-      <c r="R36" s="104"/>
-      <c r="U36" s="54">
+      <c r="S36" s="94"/>
+      <c r="V36" s="54">
         <v>119</v>
       </c>
-      <c r="Y36" s="53">
+      <c r="Z36" s="53">
         <v>8124</v>
       </c>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C37" s="71">
         <v>19.327731092436899</v>
       </c>
@@ -15498,22 +15633,23 @@
       <c r="I37" s="71">
         <v>50.235009257940398</v>
       </c>
-      <c r="J37" s="104"/>
+      <c r="J37" s="94"/>
       <c r="N37" s="71">
         <v>10.6102161573</v>
       </c>
-      <c r="Q37" s="71">
+      <c r="O37" s="94"/>
+      <c r="R37" s="71">
         <v>19.327731092436899</v>
       </c>
-      <c r="R37" s="104"/>
-      <c r="U37" s="54">
+      <c r="S37" s="94"/>
+      <c r="V37" s="54">
         <v>119</v>
       </c>
-      <c r="Y37" s="53">
+      <c r="Z37" s="53">
         <v>8124</v>
       </c>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C38" s="71">
         <v>19.327731092436899</v>
       </c>
@@ -15523,22 +15659,23 @@
       <c r="I38" s="71">
         <v>50.235009257940398</v>
       </c>
-      <c r="J38" s="104"/>
+      <c r="J38" s="94"/>
       <c r="N38" s="71">
         <v>10.6102161573</v>
       </c>
-      <c r="Q38" s="71">
+      <c r="O38" s="94"/>
+      <c r="R38" s="71">
         <v>19.327731092436899</v>
       </c>
-      <c r="R38" s="104"/>
-      <c r="U38" s="54">
+      <c r="S38" s="94"/>
+      <c r="V38" s="54">
         <v>119</v>
       </c>
-      <c r="Y38" s="53">
+      <c r="Z38" s="53">
         <v>8124</v>
       </c>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C39" s="71">
         <v>19.327731092436899</v>
       </c>
@@ -15548,22 +15685,23 @@
       <c r="I39" s="71">
         <v>50.235009257940398</v>
       </c>
-      <c r="J39" s="104"/>
+      <c r="J39" s="94"/>
       <c r="N39" s="71">
         <v>10.6102161573</v>
       </c>
-      <c r="Q39" s="71">
+      <c r="O39" s="94"/>
+      <c r="R39" s="71">
         <v>19.327731092436899</v>
       </c>
-      <c r="R39" s="104"/>
-      <c r="U39" s="54">
+      <c r="S39" s="94"/>
+      <c r="V39" s="54">
         <v>119</v>
       </c>
-      <c r="Y39" s="53">
+      <c r="Z39" s="53">
         <v>8124</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C40" s="71">
         <v>19.327731092436899</v>
       </c>
@@ -15573,22 +15711,23 @@
       <c r="I40" s="71">
         <v>50.235009257940398</v>
       </c>
-      <c r="J40" s="104"/>
+      <c r="J40" s="94"/>
       <c r="N40" s="71">
         <v>10.6102161573</v>
       </c>
-      <c r="Q40" s="71">
+      <c r="O40" s="94"/>
+      <c r="R40" s="71">
         <v>19.327731092436899</v>
       </c>
-      <c r="R40" s="104"/>
-      <c r="U40" s="54">
+      <c r="S40" s="94"/>
+      <c r="V40" s="54">
         <v>119</v>
       </c>
-      <c r="Y40" s="53">
+      <c r="Z40" s="53">
         <v>8124</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C41" s="90">
         <v>7.1129999999999898</v>
       </c>
@@ -15598,22 +15737,23 @@
       <c r="I41" s="90">
         <v>100</v>
       </c>
-      <c r="J41" s="103"/>
+      <c r="J41" s="93"/>
       <c r="N41" s="90">
         <v>9.7691123398500004</v>
       </c>
-      <c r="Q41" s="90">
+      <c r="O41" s="93"/>
+      <c r="R41" s="90">
         <v>7.1129999999999898</v>
       </c>
-      <c r="R41" s="103"/>
-      <c r="U41" s="43">
+      <c r="S41" s="93"/>
+      <c r="V41" s="43">
         <v>50</v>
       </c>
-      <c r="Y41" s="55">
+      <c r="Z41" s="55">
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C42" s="90">
         <v>7.1129999999999898</v>
       </c>
@@ -15623,22 +15763,23 @@
       <c r="I42" s="90">
         <v>100</v>
       </c>
-      <c r="J42" s="103"/>
+      <c r="J42" s="93"/>
       <c r="N42" s="90">
         <v>9.7691123398500004</v>
       </c>
-      <c r="Q42" s="90">
+      <c r="O42" s="93"/>
+      <c r="R42" s="90">
         <v>7.1129999999999898</v>
       </c>
-      <c r="R42" s="103"/>
-      <c r="U42" s="43">
+      <c r="S42" s="93"/>
+      <c r="V42" s="43">
         <v>50</v>
       </c>
-      <c r="Y42" s="55">
+      <c r="Z42" s="55">
         <v>20000</v>
       </c>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C43" s="90">
         <v>7.1129999999999898</v>
       </c>
@@ -15648,22 +15789,23 @@
       <c r="I43" s="90">
         <v>100</v>
       </c>
-      <c r="J43" s="103"/>
+      <c r="J43" s="93"/>
       <c r="N43" s="90">
         <v>9.7691123398500004</v>
       </c>
-      <c r="Q43" s="90">
+      <c r="O43" s="93"/>
+      <c r="R43" s="90">
         <v>7.1129999999999898</v>
       </c>
-      <c r="R43" s="103"/>
-      <c r="U43" s="43">
+      <c r="S43" s="93"/>
+      <c r="V43" s="43">
         <v>50</v>
       </c>
-      <c r="Y43" s="55">
+      <c r="Z43" s="55">
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C44" s="90">
         <v>7.1129999999999898</v>
       </c>
@@ -15673,22 +15815,23 @@
       <c r="I44" s="90">
         <v>100</v>
       </c>
-      <c r="J44" s="103"/>
+      <c r="J44" s="93"/>
       <c r="N44" s="90">
         <v>9.7691123398500004</v>
       </c>
-      <c r="Q44" s="90">
+      <c r="O44" s="93"/>
+      <c r="R44" s="90">
         <v>7.1129999999999898</v>
       </c>
-      <c r="R44" s="103"/>
-      <c r="U44" s="43">
+      <c r="S44" s="93"/>
+      <c r="V44" s="43">
         <v>50</v>
       </c>
-      <c r="Y44" s="55">
+      <c r="Z44" s="55">
         <v>20000</v>
       </c>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C45" s="90">
         <v>7.1129999999999898</v>
       </c>
@@ -15698,22 +15841,23 @@
       <c r="I45" s="90">
         <v>100</v>
       </c>
-      <c r="J45" s="103"/>
+      <c r="J45" s="93"/>
       <c r="N45" s="90">
         <v>9.7691123398500004</v>
       </c>
-      <c r="Q45" s="90">
+      <c r="O45" s="93"/>
+      <c r="R45" s="90">
         <v>7.1129999999999898</v>
       </c>
-      <c r="R45" s="103"/>
-      <c r="U45" s="43">
+      <c r="S45" s="93"/>
+      <c r="V45" s="43">
         <v>50</v>
       </c>
-      <c r="Y45" s="55">
+      <c r="Z45" s="55">
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C46" s="71">
         <v>3.50212967345007</v>
       </c>
@@ -15723,20 +15867,21 @@
       <c r="I46" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="J46" s="104"/>
+      <c r="J46" s="94"/>
       <c r="N46" s="71"/>
-      <c r="Q46" s="71">
+      <c r="O46" s="94"/>
+      <c r="R46" s="71">
         <v>3.50212967345007</v>
       </c>
-      <c r="R46" s="104"/>
-      <c r="U46" s="54">
+      <c r="S46" s="94"/>
+      <c r="V46" s="54">
         <v>2113</v>
       </c>
-      <c r="Y46" s="53">
+      <c r="Z46" s="53">
         <v>49046</v>
       </c>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C47" s="71">
         <v>3.50212967345007</v>
       </c>
@@ -15746,20 +15891,21 @@
       <c r="I47" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="J47" s="104"/>
+      <c r="J47" s="94"/>
       <c r="N47" s="71"/>
-      <c r="Q47" s="71">
+      <c r="O47" s="94"/>
+      <c r="R47" s="71">
         <v>3.50212967345007</v>
       </c>
-      <c r="R47" s="104"/>
-      <c r="U47" s="54">
+      <c r="S47" s="94"/>
+      <c r="V47" s="54">
         <v>2113</v>
       </c>
-      <c r="Y47" s="53">
+      <c r="Z47" s="53">
         <v>49046</v>
       </c>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C48" s="71">
         <v>3.50212967345007</v>
       </c>
@@ -15769,20 +15915,21 @@
       <c r="I48" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="J48" s="104"/>
+      <c r="J48" s="94"/>
       <c r="N48" s="71"/>
-      <c r="Q48" s="71">
+      <c r="O48" s="94"/>
+      <c r="R48" s="71">
         <v>3.50212967345007</v>
       </c>
-      <c r="R48" s="104"/>
-      <c r="U48" s="54">
+      <c r="S48" s="94"/>
+      <c r="V48" s="54">
         <v>2113</v>
       </c>
-      <c r="Y48" s="53">
+      <c r="Z48" s="53">
         <v>49046</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C49" s="71">
         <v>3.50212967345007</v>
       </c>
@@ -15792,20 +15939,21 @@
       <c r="I49" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="J49" s="104"/>
+      <c r="J49" s="94"/>
       <c r="N49" s="71"/>
-      <c r="Q49" s="71">
+      <c r="O49" s="94"/>
+      <c r="R49" s="71">
         <v>3.50212967345007</v>
       </c>
-      <c r="R49" s="104"/>
-      <c r="U49" s="54">
+      <c r="S49" s="94"/>
+      <c r="V49" s="54">
         <v>2113</v>
       </c>
-      <c r="Y49" s="53">
+      <c r="Z49" s="53">
         <v>49046</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C50" s="71">
         <v>3.50212967345007</v>
       </c>
@@ -15815,20 +15963,21 @@
       <c r="I50" s="71">
         <v>23.930054209869599</v>
       </c>
-      <c r="J50" s="104"/>
+      <c r="J50" s="94"/>
       <c r="N50" s="71"/>
-      <c r="Q50" s="71">
+      <c r="O50" s="94"/>
+      <c r="R50" s="71">
         <v>3.50212967345007</v>
       </c>
-      <c r="R50" s="104"/>
-      <c r="U50" s="54">
+      <c r="S50" s="94"/>
+      <c r="V50" s="54">
         <v>2113</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Z50" s="53">
         <v>49046</v>
       </c>
     </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C51" s="90">
         <v>2.41772697395814</v>
       </c>
@@ -15838,20 +15987,21 @@
       <c r="I51" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="J51" s="103"/>
+      <c r="J51" s="93"/>
       <c r="N51" s="90"/>
-      <c r="Q51" s="90">
+      <c r="O51" s="93"/>
+      <c r="R51" s="90">
         <v>2.41772697395814</v>
       </c>
-      <c r="R51" s="103"/>
-      <c r="U51" s="43">
+      <c r="S51" s="93"/>
+      <c r="V51" s="43">
         <v>2088</v>
       </c>
-      <c r="Y51" s="55">
+      <c r="Z51" s="55">
         <v>49046</v>
       </c>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C52" s="90">
         <v>2.41772697395814</v>
       </c>
@@ -15861,20 +16011,21 @@
       <c r="I52" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="J52" s="103"/>
+      <c r="J52" s="93"/>
       <c r="N52" s="90"/>
-      <c r="Q52" s="90">
+      <c r="O52" s="93"/>
+      <c r="R52" s="90">
         <v>2.41772697395814</v>
       </c>
-      <c r="R52" s="103"/>
-      <c r="U52" s="43">
+      <c r="S52" s="93"/>
+      <c r="V52" s="43">
         <v>2088</v>
       </c>
-      <c r="Y52" s="55">
+      <c r="Z52" s="55">
         <v>49046</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C53" s="90">
         <v>2.41772697395814</v>
       </c>
@@ -15884,20 +16035,21 @@
       <c r="I53" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="J53" s="103"/>
+      <c r="J53" s="93"/>
       <c r="N53" s="90"/>
-      <c r="Q53" s="90">
+      <c r="O53" s="93"/>
+      <c r="R53" s="90">
         <v>2.41772697395814</v>
       </c>
-      <c r="R53" s="103"/>
-      <c r="U53" s="43">
+      <c r="S53" s="93"/>
+      <c r="V53" s="43">
         <v>2088</v>
       </c>
-      <c r="Y53" s="55">
+      <c r="Z53" s="55">
         <v>49046</v>
       </c>
     </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C54" s="90">
         <v>2.41772697395814</v>
       </c>
@@ -15907,20 +16059,21 @@
       <c r="I54" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="J54" s="103"/>
+      <c r="J54" s="93"/>
       <c r="N54" s="90"/>
-      <c r="Q54" s="90">
+      <c r="O54" s="93"/>
+      <c r="R54" s="90">
         <v>2.41772697395814</v>
       </c>
-      <c r="R54" s="103"/>
-      <c r="U54" s="43">
+      <c r="S54" s="93"/>
+      <c r="V54" s="43">
         <v>2088</v>
       </c>
-      <c r="Y54" s="55">
+      <c r="Z54" s="55">
         <v>49046</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C55" s="90">
         <v>2.41772697395814</v>
       </c>
@@ -15930,20 +16083,21 @@
       <c r="I55" s="90">
         <v>22.149430794904401</v>
       </c>
-      <c r="J55" s="103"/>
+      <c r="J55" s="93"/>
       <c r="N55" s="90"/>
-      <c r="Q55" s="90">
+      <c r="O55" s="93"/>
+      <c r="R55" s="90">
         <v>2.41772697395814</v>
       </c>
-      <c r="R55" s="103"/>
-      <c r="U55" s="43">
+      <c r="S55" s="93"/>
+      <c r="V55" s="43">
         <v>2088</v>
       </c>
-      <c r="Y55" s="55">
+      <c r="Z55" s="55">
         <v>49046</v>
       </c>
     </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C56" s="71">
         <v>0.50515839576231203</v>
       </c>
@@ -15953,20 +16107,21 @@
       <c r="I56" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="J56" s="104"/>
+      <c r="J56" s="94"/>
       <c r="N56" s="71"/>
-      <c r="Q56" s="71">
+      <c r="O56" s="94"/>
+      <c r="R56" s="71">
         <v>0.50515839576231203</v>
       </c>
-      <c r="R56" s="104"/>
-      <c r="U56" s="54">
+      <c r="S56" s="94"/>
+      <c r="V56" s="54">
         <v>497</v>
       </c>
-      <c r="Y56" s="53">
+      <c r="Z56" s="53">
         <v>59602</v>
       </c>
     </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C57" s="71">
         <v>0.50515839576231203</v>
       </c>
@@ -15976,20 +16131,21 @@
       <c r="I57" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="J57" s="104"/>
+      <c r="J57" s="94"/>
       <c r="N57" s="71"/>
-      <c r="Q57" s="71">
+      <c r="O57" s="94"/>
+      <c r="R57" s="71">
         <v>0.50515839576231203</v>
       </c>
-      <c r="R57" s="104"/>
-      <c r="U57" s="54">
+      <c r="S57" s="94"/>
+      <c r="V57" s="54">
         <v>497</v>
       </c>
-      <c r="Y57" s="53">
+      <c r="Z57" s="53">
         <v>59602</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C58" s="71">
         <v>0.50515839576231203</v>
       </c>
@@ -15999,20 +16155,21 @@
       <c r="I58" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="J58" s="104"/>
+      <c r="J58" s="94"/>
       <c r="N58" s="71"/>
-      <c r="Q58" s="71">
+      <c r="O58" s="94"/>
+      <c r="R58" s="71">
         <v>0.50515839576231203</v>
       </c>
-      <c r="R58" s="104"/>
-      <c r="U58" s="54">
+      <c r="S58" s="94"/>
+      <c r="V58" s="54">
         <v>497</v>
       </c>
-      <c r="Y58" s="53">
+      <c r="Z58" s="53">
         <v>59602</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C59" s="71">
         <v>0.50515839576231203</v>
       </c>
@@ -16022,20 +16179,21 @@
       <c r="I59" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="J59" s="104"/>
+      <c r="J59" s="94"/>
       <c r="N59" s="71"/>
-      <c r="Q59" s="71">
+      <c r="O59" s="94"/>
+      <c r="R59" s="71">
         <v>0.50515839576231203</v>
       </c>
-      <c r="R59" s="104"/>
-      <c r="U59" s="54">
+      <c r="S59" s="94"/>
+      <c r="V59" s="54">
         <v>497</v>
       </c>
-      <c r="Y59" s="53">
+      <c r="Z59" s="53">
         <v>59602</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C60" s="71">
         <v>0.50515839576231203</v>
       </c>
@@ -16045,20 +16203,21 @@
       <c r="I60" s="71">
         <v>51.902544298046301</v>
       </c>
-      <c r="J60" s="104"/>
+      <c r="J60" s="94"/>
       <c r="N60" s="71"/>
-      <c r="Q60" s="71">
+      <c r="O60" s="94"/>
+      <c r="R60" s="71">
         <v>0.50515839576231203</v>
       </c>
-      <c r="R60" s="104"/>
-      <c r="U60" s="54">
+      <c r="S60" s="94"/>
+      <c r="V60" s="54">
         <v>497</v>
       </c>
-      <c r="Y60" s="53">
+      <c r="Z60" s="53">
         <v>59602</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C61" s="90">
         <v>33.3333333333333</v>
       </c>
@@ -16068,20 +16227,21 @@
       <c r="I61" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="J61" s="103"/>
+      <c r="J61" s="93"/>
       <c r="N61" s="90"/>
-      <c r="Q61" s="90">
+      <c r="O61" s="93"/>
+      <c r="R61" s="90">
         <v>33.3333333333333</v>
       </c>
-      <c r="R61" s="103"/>
-      <c r="U61" s="43">
+      <c r="S61" s="93"/>
+      <c r="V61" s="43">
         <v>129</v>
       </c>
-      <c r="Y61" s="55">
+      <c r="Z61" s="55">
         <v>67557</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C62" s="90">
         <v>33.3333333333333</v>
       </c>
@@ -16091,20 +16251,21 @@
       <c r="I62" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="J62" s="103"/>
+      <c r="J62" s="93"/>
       <c r="N62" s="90"/>
-      <c r="Q62" s="90">
+      <c r="O62" s="93"/>
+      <c r="R62" s="90">
         <v>33.3333333333333</v>
       </c>
-      <c r="R62" s="103"/>
-      <c r="U62" s="43">
+      <c r="S62" s="93"/>
+      <c r="V62" s="43">
         <v>129</v>
       </c>
-      <c r="Y62" s="55">
+      <c r="Z62" s="55">
         <v>67557</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C63" s="90">
         <v>33.3333333333333</v>
       </c>
@@ -16114,20 +16275,21 @@
       <c r="I63" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="J63" s="103"/>
+      <c r="J63" s="93"/>
       <c r="N63" s="90"/>
-      <c r="Q63" s="90">
+      <c r="O63" s="93"/>
+      <c r="R63" s="90">
         <v>33.3333333333333</v>
       </c>
-      <c r="R63" s="103"/>
-      <c r="U63" s="43">
+      <c r="S63" s="93"/>
+      <c r="V63" s="43">
         <v>129</v>
       </c>
-      <c r="Y63" s="55">
+      <c r="Z63" s="55">
         <v>67557</v>
       </c>
     </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C64" s="90">
         <v>33.3333333333333</v>
       </c>
@@ -16137,20 +16299,21 @@
       <c r="I64" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="J64" s="103"/>
+      <c r="J64" s="93"/>
       <c r="N64" s="90"/>
-      <c r="Q64" s="90">
+      <c r="O64" s="93"/>
+      <c r="R64" s="90">
         <v>33.3333333333333</v>
       </c>
-      <c r="R64" s="103"/>
-      <c r="U64" s="43">
+      <c r="S64" s="93"/>
+      <c r="V64" s="43">
         <v>129</v>
       </c>
-      <c r="Y64" s="55">
+      <c r="Z64" s="55">
         <v>67557</v>
       </c>
     </row>
-    <row r="65" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C65" s="90">
         <v>33.3333333333333</v>
       </c>
@@ -16160,20 +16323,21 @@
       <c r="I65" s="90">
         <v>82.691375968992205</v>
       </c>
-      <c r="J65" s="103"/>
+      <c r="J65" s="93"/>
       <c r="N65" s="90"/>
-      <c r="Q65" s="90">
+      <c r="O65" s="93"/>
+      <c r="R65" s="90">
         <v>33.3333333333333</v>
       </c>
-      <c r="R65" s="103"/>
-      <c r="U65" s="43">
+      <c r="S65" s="93"/>
+      <c r="V65" s="43">
         <v>129</v>
       </c>
-      <c r="Y65" s="55">
+      <c r="Z65" s="55">
         <v>67557</v>
       </c>
     </row>
-    <row r="66" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C66" s="71">
         <v>7.09890666666666</v>
       </c>
@@ -16183,22 +16347,23 @@
       <c r="I66" s="71">
         <v>100</v>
       </c>
-      <c r="J66" s="104"/>
+      <c r="J66" s="94"/>
       <c r="N66" s="71">
         <v>9.7715981233600004</v>
       </c>
-      <c r="Q66" s="71">
+      <c r="O66" s="94"/>
+      <c r="R66" s="71">
         <v>7.09890666666666</v>
       </c>
-      <c r="R66" s="104"/>
-      <c r="U66" s="54">
+      <c r="S66" s="94"/>
+      <c r="V66" s="54">
         <v>50</v>
       </c>
-      <c r="Y66" s="53">
+      <c r="Z66" s="53">
         <v>75000</v>
       </c>
     </row>
-    <row r="67" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C67" s="71">
         <v>7.09890666666666</v>
       </c>
@@ -16208,22 +16373,23 @@
       <c r="I67" s="71">
         <v>100</v>
       </c>
-      <c r="J67" s="104"/>
+      <c r="J67" s="94"/>
       <c r="N67" s="71">
         <v>9.7715981233600004</v>
       </c>
-      <c r="Q67" s="71">
+      <c r="O67" s="94"/>
+      <c r="R67" s="71">
         <v>7.09890666666666</v>
       </c>
-      <c r="R67" s="104"/>
-      <c r="U67" s="54">
+      <c r="S67" s="94"/>
+      <c r="V67" s="54">
         <v>50</v>
       </c>
-      <c r="Y67" s="53">
+      <c r="Z67" s="53">
         <v>75000</v>
       </c>
     </row>
-    <row r="68" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C68" s="71">
         <v>7.09890666666666</v>
       </c>
@@ -16233,22 +16399,23 @@
       <c r="I68" s="71">
         <v>100</v>
       </c>
-      <c r="J68" s="104"/>
+      <c r="J68" s="94"/>
       <c r="N68" s="71">
         <v>9.7715981233600004</v>
       </c>
-      <c r="Q68" s="71">
+      <c r="O68" s="94"/>
+      <c r="R68" s="71">
         <v>7.09890666666666</v>
       </c>
-      <c r="R68" s="104"/>
-      <c r="U68" s="54">
+      <c r="S68" s="94"/>
+      <c r="V68" s="54">
         <v>50</v>
       </c>
-      <c r="Y68" s="53">
+      <c r="Z68" s="53">
         <v>75000</v>
       </c>
     </row>
-    <row r="69" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C69" s="71">
         <v>7.09890666666666</v>
       </c>
@@ -16258,22 +16425,23 @@
       <c r="I69" s="71">
         <v>100</v>
       </c>
-      <c r="J69" s="104"/>
+      <c r="J69" s="94"/>
       <c r="N69" s="71">
         <v>9.7715981233600004</v>
       </c>
-      <c r="Q69" s="71">
+      <c r="O69" s="94"/>
+      <c r="R69" s="71">
         <v>7.09890666666666</v>
       </c>
-      <c r="R69" s="104"/>
-      <c r="U69" s="54">
+      <c r="S69" s="94"/>
+      <c r="V69" s="54">
         <v>50</v>
       </c>
-      <c r="Y69" s="53">
+      <c r="Z69" s="53">
         <v>75000</v>
       </c>
     </row>
-    <row r="70" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C70" s="71">
         <v>7.09890666666666</v>
       </c>
@@ -16283,22 +16451,23 @@
       <c r="I70" s="71">
         <v>100</v>
       </c>
-      <c r="J70" s="104"/>
+      <c r="J70" s="94"/>
       <c r="N70" s="71">
         <v>9.7715981233600004</v>
       </c>
-      <c r="Q70" s="71">
+      <c r="O70" s="94"/>
+      <c r="R70" s="71">
         <v>7.09890666666666</v>
       </c>
-      <c r="R70" s="104"/>
-      <c r="U70" s="54">
+      <c r="S70" s="94"/>
+      <c r="V70" s="54">
         <v>50</v>
       </c>
-      <c r="Y70" s="53">
+      <c r="Z70" s="53">
         <v>75000</v>
       </c>
     </row>
-    <row r="71" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C71" s="90">
         <v>0.13839000706400101</v>
       </c>
@@ -16308,20 +16477,21 @@
       <c r="I71" s="90">
         <v>12.948855209616699</v>
       </c>
-      <c r="J71" s="103"/>
+      <c r="J71" s="93"/>
       <c r="N71" s="90"/>
-      <c r="Q71" s="90">
+      <c r="O71" s="93"/>
+      <c r="R71" s="90">
         <v>0.13839000706400101</v>
       </c>
-      <c r="R71" s="103"/>
-      <c r="U71" s="43">
+      <c r="S71" s="93"/>
+      <c r="V71" s="43">
         <v>3340</v>
       </c>
-      <c r="Y71" s="55">
+      <c r="Z71" s="55">
         <v>77512</v>
       </c>
     </row>
-    <row r="72" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C72" s="90">
         <v>0.13839000706400101</v>
       </c>
@@ -16331,20 +16501,21 @@
       <c r="I72" s="90">
         <v>12.948855209616699</v>
       </c>
-      <c r="J72" s="103"/>
+      <c r="J72" s="93"/>
       <c r="N72" s="90"/>
-      <c r="Q72" s="90">
+      <c r="O72" s="93"/>
+      <c r="R72" s="90">
         <v>0.13839000706400101</v>
       </c>
-      <c r="R72" s="103"/>
-      <c r="U72" s="43">
+      <c r="S72" s="93"/>
+      <c r="V72" s="43">
         <v>3340</v>
       </c>
-      <c r="Y72" s="55">
+      <c r="Z72" s="55">
         <v>77512</v>
       </c>
     </row>
-    <row r="73" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C73" s="90">
         <v>0.13839000706400101</v>
       </c>
@@ -16354,20 +16525,21 @@
       <c r="I73" s="90">
         <v>12.948855209616699</v>
       </c>
-      <c r="J73" s="103"/>
+      <c r="J73" s="93"/>
       <c r="N73" s="90"/>
-      <c r="Q73" s="90">
+      <c r="O73" s="93"/>
+      <c r="R73" s="90">
         <v>0.13839000706400101</v>
       </c>
-      <c r="R73" s="103"/>
-      <c r="U73" s="43">
+      <c r="S73" s="93"/>
+      <c r="V73" s="43">
         <v>3340</v>
       </c>
-      <c r="Y73" s="55">
+      <c r="Z73" s="55">
         <v>77512</v>
       </c>
     </row>
-    <row r="74" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C74" s="90">
         <v>0.13839000706400101</v>
       </c>
@@ -16377,20 +16549,21 @@
       <c r="I74" s="90">
         <v>12.948855209616699</v>
       </c>
-      <c r="J74" s="103"/>
+      <c r="J74" s="93"/>
       <c r="N74" s="90"/>
-      <c r="Q74" s="90">
+      <c r="O74" s="93"/>
+      <c r="R74" s="90">
         <v>0.13839000706400101</v>
       </c>
-      <c r="R74" s="103"/>
-      <c r="U74" s="43">
+      <c r="S74" s="93"/>
+      <c r="V74" s="43">
         <v>3340</v>
       </c>
-      <c r="Y74" s="55">
+      <c r="Z74" s="55">
         <v>77512</v>
       </c>
     </row>
-    <row r="75" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C75" s="90">
         <v>0.13839000706400101</v>
       </c>
@@ -16400,20 +16573,21 @@
       <c r="I75" s="90">
         <v>12.948855209616699</v>
       </c>
-      <c r="J75" s="103"/>
+      <c r="J75" s="93"/>
       <c r="N75" s="90"/>
-      <c r="Q75" s="90">
+      <c r="O75" s="93"/>
+      <c r="R75" s="90">
         <v>0.13839000706400101</v>
       </c>
-      <c r="R75" s="103"/>
-      <c r="U75" s="43">
+      <c r="S75" s="93"/>
+      <c r="V75" s="43">
         <v>3340</v>
       </c>
-      <c r="Y75" s="55">
+      <c r="Z75" s="55">
         <v>77512</v>
       </c>
     </row>
-    <row r="76" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C76" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
@@ -16423,20 +16597,21 @@
       <c r="I76" s="71">
         <v>2.6446972570091098</v>
       </c>
-      <c r="J76" s="104"/>
+      <c r="J76" s="94"/>
       <c r="N76" s="71"/>
-      <c r="Q76" s="71">
+      <c r="O76" s="94"/>
+      <c r="R76" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
-      <c r="R76" s="104"/>
-      <c r="U76" s="54">
+      <c r="S76" s="94"/>
+      <c r="V76" s="54">
         <v>16470</v>
       </c>
-      <c r="Y76" s="53">
+      <c r="Z76" s="53">
         <v>88162</v>
       </c>
     </row>
-    <row r="77" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C77" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
@@ -16446,20 +16621,21 @@
       <c r="I77" s="71">
         <v>2.6446972570091098</v>
       </c>
-      <c r="J77" s="104"/>
+      <c r="J77" s="94"/>
       <c r="N77" s="71"/>
-      <c r="Q77" s="71">
+      <c r="O77" s="94"/>
+      <c r="R77" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
-      <c r="R77" s="104"/>
-      <c r="U77" s="54">
+      <c r="S77" s="94"/>
+      <c r="V77" s="54">
         <v>16470</v>
       </c>
-      <c r="Y77" s="53">
+      <c r="Z77" s="53">
         <v>88162</v>
       </c>
     </row>
-    <row r="78" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C78" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
@@ -16469,20 +16645,21 @@
       <c r="I78" s="71">
         <v>2.6446972570091098</v>
       </c>
-      <c r="J78" s="104"/>
+      <c r="J78" s="94"/>
       <c r="N78" s="71"/>
-      <c r="Q78" s="71">
+      <c r="O78" s="94"/>
+      <c r="R78" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
-      <c r="R78" s="104"/>
-      <c r="U78" s="54">
+      <c r="S78" s="94"/>
+      <c r="V78" s="54">
         <v>16470</v>
       </c>
-      <c r="Y78" s="53">
+      <c r="Z78" s="53">
         <v>88162</v>
       </c>
     </row>
-    <row r="79" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C79" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
@@ -16492,20 +16669,21 @@
       <c r="I79" s="71">
         <v>2.6446972570091098</v>
       </c>
-      <c r="J79" s="104"/>
+      <c r="J79" s="94"/>
       <c r="N79" s="71"/>
-      <c r="Q79" s="71">
+      <c r="O79" s="94"/>
+      <c r="R79" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
-      <c r="R79" s="104"/>
-      <c r="U79" s="54">
+      <c r="S79" s="94"/>
+      <c r="V79" s="54">
         <v>16470</v>
       </c>
-      <c r="Y79" s="53">
+      <c r="Z79" s="53">
         <v>88162</v>
       </c>
     </row>
-    <row r="80" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C80" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
@@ -16515,20 +16693,21 @@
       <c r="I80" s="71">
         <v>2.6446972570091098</v>
       </c>
-      <c r="J80" s="104"/>
+      <c r="J80" s="94"/>
       <c r="N80" s="71"/>
-      <c r="Q80" s="71">
+      <c r="O80" s="94"/>
+      <c r="R80" s="71">
         <v>6.2572892010205799E-2</v>
       </c>
-      <c r="R80" s="104"/>
-      <c r="U80" s="54">
+      <c r="S80" s="94"/>
+      <c r="V80" s="54">
         <v>16470</v>
       </c>
-      <c r="Y80" s="53">
+      <c r="Z80" s="53">
         <v>88162</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C81" s="90">
         <v>33.302422157565999</v>
       </c>
@@ -16538,22 +16717,23 @@
       <c r="I81" s="90">
         <v>84.848484848484802</v>
       </c>
-      <c r="J81" s="103"/>
+      <c r="J81" s="93"/>
       <c r="N81" s="90">
         <v>5.0058344079100001</v>
       </c>
-      <c r="Q81" s="90">
+      <c r="O81" s="93"/>
+      <c r="R81" s="90">
         <v>33.302422157565999</v>
       </c>
-      <c r="R81" s="103"/>
-      <c r="U81" s="43">
+      <c r="S81" s="93"/>
+      <c r="V81" s="43">
         <v>12</v>
       </c>
-      <c r="Y81" s="55">
+      <c r="Z81" s="55">
         <v>245057</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C82" s="90">
         <v>33.302422157565999</v>
       </c>
@@ -16563,22 +16743,23 @@
       <c r="I82" s="90">
         <v>84.848484848484802</v>
       </c>
-      <c r="J82" s="103"/>
+      <c r="J82" s="93"/>
       <c r="N82" s="90">
         <v>5.0058344079100001</v>
       </c>
-      <c r="Q82" s="90">
+      <c r="O82" s="93"/>
+      <c r="R82" s="90">
         <v>33.302422157565999</v>
       </c>
-      <c r="R82" s="103"/>
-      <c r="U82" s="43">
+      <c r="S82" s="93"/>
+      <c r="V82" s="43">
         <v>12</v>
       </c>
-      <c r="Y82" s="55">
+      <c r="Z82" s="55">
         <v>245057</v>
       </c>
     </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C83" s="90">
         <v>33.302422157565999</v>
       </c>
@@ -16588,22 +16769,23 @@
       <c r="I83" s="90">
         <v>84.848484848484802</v>
       </c>
-      <c r="J83" s="103"/>
+      <c r="J83" s="93"/>
       <c r="N83" s="90">
         <v>5.0058344079100001</v>
       </c>
-      <c r="Q83" s="90">
+      <c r="O83" s="93"/>
+      <c r="R83" s="90">
         <v>33.302422157565999</v>
       </c>
-      <c r="R83" s="103"/>
-      <c r="U83" s="43">
+      <c r="S83" s="93"/>
+      <c r="V83" s="43">
         <v>12</v>
       </c>
-      <c r="Y83" s="55">
+      <c r="Z83" s="55">
         <v>245057</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C84" s="90">
         <v>33.302422157565999</v>
       </c>
@@ -16613,22 +16795,23 @@
       <c r="I84" s="90">
         <v>84.848484848484802</v>
       </c>
-      <c r="J84" s="103"/>
+      <c r="J84" s="93"/>
       <c r="N84" s="90">
         <v>5.0058344079100001</v>
       </c>
-      <c r="Q84" s="90">
+      <c r="O84" s="93"/>
+      <c r="R84" s="90">
         <v>33.302422157565999</v>
       </c>
-      <c r="R84" s="103"/>
-      <c r="U84" s="43">
+      <c r="S84" s="93"/>
+      <c r="V84" s="43">
         <v>12</v>
       </c>
-      <c r="Y84" s="55">
+      <c r="Z84" s="55">
         <v>245057</v>
       </c>
     </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C85" s="90">
         <v>33.302422157565999</v>
       </c>
@@ -16638,22 +16821,23 @@
       <c r="I85" s="90">
         <v>84.848484848484802</v>
       </c>
-      <c r="J85" s="103"/>
+      <c r="J85" s="93"/>
       <c r="N85" s="90">
         <v>5.0058344079100001</v>
       </c>
-      <c r="Q85" s="90">
+      <c r="O85" s="93"/>
+      <c r="R85" s="90">
         <v>33.302422157565999</v>
       </c>
-      <c r="R85" s="103"/>
-      <c r="U85" s="43">
+      <c r="S85" s="93"/>
+      <c r="V85" s="43">
         <v>12</v>
       </c>
-      <c r="Y85" s="55">
+      <c r="Z85" s="55">
         <v>245057</v>
       </c>
     </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C86" s="71">
         <v>7.2239084689736197</v>
       </c>
@@ -16663,20 +16847,21 @@
       <c r="I86" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="J86" s="104"/>
+      <c r="J86" s="94"/>
       <c r="N86" s="71"/>
-      <c r="Q86" s="71">
+      <c r="O86" s="94"/>
+      <c r="R86" s="71">
         <v>7.2239084689736197</v>
       </c>
-      <c r="R86" s="104"/>
-      <c r="U86" s="54">
+      <c r="S86" s="94"/>
+      <c r="V86" s="54">
         <v>468</v>
       </c>
-      <c r="Y86" s="53">
+      <c r="Z86" s="53">
         <v>340183</v>
       </c>
     </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C87" s="71">
         <v>7.2239084689736197</v>
       </c>
@@ -16686,20 +16871,21 @@
       <c r="I87" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="J87" s="104"/>
+      <c r="J87" s="94"/>
       <c r="N87" s="71"/>
-      <c r="Q87" s="71">
+      <c r="O87" s="94"/>
+      <c r="R87" s="71">
         <v>7.2239084689736197</v>
       </c>
-      <c r="R87" s="104"/>
-      <c r="U87" s="54">
+      <c r="S87" s="94"/>
+      <c r="V87" s="54">
         <v>468</v>
       </c>
-      <c r="Y87" s="53">
+      <c r="Z87" s="53">
         <v>340183</v>
       </c>
     </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C88" s="71">
         <v>7.2239084689736197</v>
       </c>
@@ -16709,20 +16895,21 @@
       <c r="I88" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="J88" s="104"/>
+      <c r="J88" s="94"/>
       <c r="N88" s="71"/>
-      <c r="Q88" s="71">
+      <c r="O88" s="94"/>
+      <c r="R88" s="71">
         <v>7.2239084689736197</v>
       </c>
-      <c r="R88" s="104"/>
-      <c r="U88" s="54">
+      <c r="S88" s="94"/>
+      <c r="V88" s="54">
         <v>468</v>
       </c>
-      <c r="Y88" s="53">
+      <c r="Z88" s="53">
         <v>340183</v>
       </c>
     </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C89" s="71">
         <v>7.2239084689736197</v>
       </c>
@@ -16732,20 +16919,21 @@
       <c r="I89" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="J89" s="104"/>
+      <c r="J89" s="94"/>
       <c r="N89" s="71"/>
-      <c r="Q89" s="71">
+      <c r="O89" s="94"/>
+      <c r="R89" s="71">
         <v>7.2239084689736197</v>
       </c>
-      <c r="R89" s="104"/>
-      <c r="U89" s="54">
+      <c r="S89" s="94"/>
+      <c r="V89" s="54">
         <v>468</v>
       </c>
-      <c r="Y89" s="53">
+      <c r="Z89" s="53">
         <v>340183</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C90" s="71">
         <v>7.2239084689736197</v>
       </c>
@@ -16755,20 +16943,21 @@
       <c r="I90" s="71">
         <v>42.840278921649301</v>
       </c>
-      <c r="J90" s="104"/>
+      <c r="J90" s="94"/>
       <c r="N90" s="71"/>
-      <c r="Q90" s="71">
+      <c r="O90" s="94"/>
+      <c r="R90" s="71">
         <v>7.2239084689736197</v>
       </c>
-      <c r="R90" s="104"/>
-      <c r="U90" s="54">
+      <c r="S90" s="94"/>
+      <c r="V90" s="54">
         <v>468</v>
       </c>
-      <c r="Y90" s="53">
+      <c r="Z90" s="53">
         <v>340183</v>
       </c>
     </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C91" s="90">
         <v>0.16758174398199499</v>
       </c>
@@ -16778,20 +16967,21 @@
       <c r="I91" s="90">
         <v>0.53108400858515403</v>
       </c>
-      <c r="J91" s="103"/>
+      <c r="J91" s="93"/>
       <c r="N91" s="90"/>
-      <c r="Q91" s="90">
+      <c r="O91" s="93"/>
+      <c r="R91" s="90">
         <v>0.16758174398199499</v>
       </c>
-      <c r="R91" s="103"/>
-      <c r="U91" s="43">
+      <c r="S91" s="93"/>
+      <c r="V91" s="43">
         <v>2604</v>
       </c>
-      <c r="Y91" s="55">
+      <c r="Z91" s="55">
         <v>541909</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C92" s="90">
         <v>0.16758174398199499</v>
       </c>
@@ -16801,20 +16991,21 @@
       <c r="I92" s="90">
         <v>0.53108400858515403</v>
       </c>
-      <c r="J92" s="103"/>
+      <c r="J92" s="93"/>
       <c r="N92" s="90"/>
-      <c r="Q92" s="90">
+      <c r="O92" s="93"/>
+      <c r="R92" s="90">
         <v>0.16758174398199499</v>
       </c>
-      <c r="R92" s="103"/>
-      <c r="U92" s="43">
+      <c r="S92" s="93"/>
+      <c r="V92" s="43">
         <v>2604</v>
       </c>
-      <c r="Y92" s="55">
+      <c r="Z92" s="55">
         <v>541909</v>
       </c>
     </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C93" s="90">
         <v>0.16758174398199499</v>
       </c>
@@ -16824,20 +17015,21 @@
       <c r="I93" s="90">
         <v>0.53108400858515403</v>
       </c>
-      <c r="J93" s="103"/>
+      <c r="J93" s="93"/>
       <c r="N93" s="90"/>
-      <c r="Q93" s="90">
+      <c r="O93" s="93"/>
+      <c r="R93" s="90">
         <v>0.16758174398199499</v>
       </c>
-      <c r="R93" s="103"/>
-      <c r="U93" s="43">
+      <c r="S93" s="93"/>
+      <c r="V93" s="43">
         <v>2604</v>
       </c>
-      <c r="Y93" s="55">
+      <c r="Z93" s="55">
         <v>541909</v>
       </c>
     </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C94" s="90">
         <v>0.16758174398199499</v>
       </c>
@@ -16847,20 +17039,21 @@
       <c r="I94" s="90">
         <v>0.53108400858515403</v>
       </c>
-      <c r="J94" s="103"/>
+      <c r="J94" s="93"/>
       <c r="N94" s="90"/>
-      <c r="Q94" s="90">
+      <c r="O94" s="93"/>
+      <c r="R94" s="90">
         <v>0.16758174398199499</v>
       </c>
-      <c r="R94" s="103"/>
-      <c r="U94" s="43">
+      <c r="S94" s="93"/>
+      <c r="V94" s="43">
         <v>2604</v>
       </c>
-      <c r="Y94" s="55">
+      <c r="Z94" s="55">
         <v>541909</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C95" s="90">
         <v>0.16758174398199499</v>
       </c>
@@ -16870,20 +17063,21 @@
       <c r="I95" s="90">
         <v>0.53108400858515403</v>
       </c>
-      <c r="J95" s="103"/>
+      <c r="J95" s="93"/>
       <c r="N95" s="90"/>
-      <c r="Q95" s="90">
+      <c r="O95" s="93"/>
+      <c r="R95" s="90">
         <v>0.16758174398199499</v>
       </c>
-      <c r="R95" s="103"/>
-      <c r="U95" s="43">
+      <c r="S95" s="93"/>
+      <c r="V95" s="43">
         <v>2604</v>
       </c>
-      <c r="Y95" s="55">
+      <c r="Z95" s="55">
         <v>541909</v>
       </c>
     </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C96" s="71">
         <v>37.037037037037003</v>
       </c>
@@ -16893,22 +17087,23 @@
       <c r="I96" s="71">
         <v>78.632478632478595</v>
       </c>
-      <c r="J96" s="104"/>
+      <c r="J96" s="94"/>
       <c r="N96" s="71">
         <v>6.4273218295100003</v>
       </c>
-      <c r="Q96" s="71">
+      <c r="O96" s="94"/>
+      <c r="R96" s="71">
         <v>37.037037037037003</v>
       </c>
-      <c r="R96" s="104"/>
-      <c r="U96" s="54">
+      <c r="S96" s="94"/>
+      <c r="V96" s="54">
         <v>27</v>
       </c>
-      <c r="Y96" s="53">
+      <c r="Z96" s="53">
         <v>574913</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C97" s="71">
         <v>37.037037037037003</v>
       </c>
@@ -16918,22 +17113,23 @@
       <c r="I97" s="71">
         <v>78.632478632478595</v>
       </c>
-      <c r="J97" s="104"/>
+      <c r="J97" s="94"/>
       <c r="N97" s="71">
         <v>6.4273218295100003</v>
       </c>
-      <c r="Q97" s="71">
+      <c r="O97" s="94"/>
+      <c r="R97" s="71">
         <v>37.037037037037003</v>
       </c>
-      <c r="R97" s="104"/>
-      <c r="U97" s="54">
+      <c r="S97" s="94"/>
+      <c r="V97" s="54">
         <v>27</v>
       </c>
-      <c r="Y97" s="53">
+      <c r="Z97" s="53">
         <v>574913</v>
       </c>
     </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C98" s="71">
         <v>37.037037037037003</v>
       </c>
@@ -16943,22 +17139,23 @@
       <c r="I98" s="71">
         <v>78.632478632478595</v>
       </c>
-      <c r="J98" s="104"/>
+      <c r="J98" s="94"/>
       <c r="N98" s="71">
         <v>6.4273218295100003</v>
       </c>
-      <c r="Q98" s="71">
+      <c r="O98" s="94"/>
+      <c r="R98" s="71">
         <v>37.037037037037003</v>
       </c>
-      <c r="R98" s="104"/>
-      <c r="U98" s="54">
+      <c r="S98" s="94"/>
+      <c r="V98" s="54">
         <v>27</v>
       </c>
-      <c r="Y98" s="53">
+      <c r="Z98" s="53">
         <v>574913</v>
       </c>
     </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C99" s="71">
         <v>37.037037037037003</v>
       </c>
@@ -16968,22 +17165,23 @@
       <c r="I99" s="71">
         <v>78.632478632478595</v>
       </c>
-      <c r="J99" s="104"/>
+      <c r="J99" s="94"/>
       <c r="N99" s="71">
         <v>6.4273218295100003</v>
       </c>
-      <c r="Q99" s="71">
+      <c r="O99" s="94"/>
+      <c r="R99" s="71">
         <v>37.037037037037003</v>
       </c>
-      <c r="R99" s="104"/>
-      <c r="U99" s="54">
+      <c r="S99" s="94"/>
+      <c r="V99" s="54">
         <v>27</v>
       </c>
-      <c r="Y99" s="53">
+      <c r="Z99" s="53">
         <v>574913</v>
       </c>
     </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C100" s="71">
         <v>37.037037037037003</v>
       </c>
@@ -16993,22 +17191,23 @@
       <c r="I100" s="71">
         <v>78.632478632478595</v>
       </c>
-      <c r="J100" s="104"/>
+      <c r="J100" s="94"/>
       <c r="N100" s="71">
         <v>6.4273218295100003</v>
       </c>
-      <c r="Q100" s="71">
+      <c r="O100" s="94"/>
+      <c r="R100" s="71">
         <v>37.037037037037003</v>
       </c>
-      <c r="R100" s="104"/>
-      <c r="U100" s="54">
+      <c r="S100" s="94"/>
+      <c r="V100" s="54">
         <v>27</v>
       </c>
-      <c r="Y100" s="53">
+      <c r="Z100" s="53">
         <v>574913</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C101" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
@@ -17018,20 +17217,21 @@
       <c r="I101" s="90">
         <v>3.8871343811662702</v>
       </c>
-      <c r="J101" s="103"/>
+      <c r="J101" s="93"/>
       <c r="N101" s="90"/>
-      <c r="Q101" s="90">
+      <c r="O101" s="93"/>
+      <c r="R101" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
-      <c r="R101" s="103"/>
-      <c r="U101" s="43">
+      <c r="S101" s="93"/>
+      <c r="V101" s="43">
         <v>41270</v>
       </c>
-      <c r="Y101" s="55">
+      <c r="Z101" s="55">
         <v>990002</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C102" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
@@ -17041,20 +17241,21 @@
       <c r="I102" s="90">
         <v>3.8871343811662702</v>
       </c>
-      <c r="J102" s="103"/>
+      <c r="J102" s="93"/>
       <c r="N102" s="90"/>
-      <c r="Q102" s="90">
+      <c r="O102" s="93"/>
+      <c r="R102" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
-      <c r="R102" s="103"/>
-      <c r="U102" s="43">
+      <c r="S102" s="93"/>
+      <c r="V102" s="43">
         <v>41270</v>
       </c>
-      <c r="Y102" s="55">
+      <c r="Z102" s="55">
         <v>990002</v>
       </c>
     </row>
-    <row r="103" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C103" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
@@ -17064,20 +17265,21 @@
       <c r="I103" s="90">
         <v>3.8871343811662702</v>
       </c>
-      <c r="J103" s="103"/>
+      <c r="J103" s="93"/>
       <c r="N103" s="90"/>
-      <c r="Q103" s="90">
+      <c r="O103" s="93"/>
+      <c r="R103" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
-      <c r="R103" s="103"/>
-      <c r="U103" s="43">
+      <c r="S103" s="93"/>
+      <c r="V103" s="43">
         <v>41270</v>
       </c>
-      <c r="Y103" s="55">
+      <c r="Z103" s="55">
         <v>990002</v>
       </c>
     </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C104" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
@@ -17087,20 +17289,21 @@
       <c r="I104" s="90">
         <v>3.8871343811662702</v>
       </c>
-      <c r="J104" s="103"/>
+      <c r="J104" s="93"/>
       <c r="N104" s="90"/>
-      <c r="Q104" s="90">
+      <c r="O104" s="93"/>
+      <c r="R104" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
-      <c r="R104" s="103"/>
-      <c r="U104" s="43">
+      <c r="S104" s="93"/>
+      <c r="V104" s="43">
         <v>41270</v>
       </c>
-      <c r="Y104" s="55">
+      <c r="Z104" s="55">
         <v>990002</v>
       </c>
     </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C105" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
@@ -17110,20 +17313,21 @@
       <c r="I105" s="90">
         <v>3.8871343811662702</v>
       </c>
-      <c r="J105" s="103"/>
+      <c r="J105" s="93"/>
       <c r="N105" s="90"/>
-      <c r="Q105" s="90">
+      <c r="O105" s="93"/>
+      <c r="R105" s="90">
         <v>1.9626844652001998E-2</v>
       </c>
-      <c r="R105" s="103"/>
-      <c r="U105" s="43">
+      <c r="S105" s="93"/>
+      <c r="V105" s="43">
         <v>41270</v>
       </c>
-      <c r="Y105" s="55">
+      <c r="Z105" s="55">
         <v>990002</v>
       </c>
     </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C106" s="71">
         <v>11.8518518518518</v>
       </c>
@@ -17133,22 +17337,23 @@
       <c r="I106" s="71">
         <v>38.9275843007186</v>
       </c>
-      <c r="J106" s="104"/>
+      <c r="J106" s="94"/>
       <c r="N106" s="71">
         <v>8.5368888115899999</v>
       </c>
-      <c r="Q106" s="71">
+      <c r="O106" s="94"/>
+      <c r="R106" s="71">
         <v>11.8518518518518</v>
       </c>
-      <c r="R106" s="104"/>
-      <c r="U106" s="54">
+      <c r="S106" s="94"/>
+      <c r="V106" s="54">
         <v>135</v>
       </c>
-      <c r="Y106" s="53">
+      <c r="Z106" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C107" s="71">
         <v>11.8518518518518</v>
       </c>
@@ -17158,22 +17363,23 @@
       <c r="I107" s="71">
         <v>38.9275843007186</v>
       </c>
-      <c r="J107" s="104"/>
+      <c r="J107" s="94"/>
       <c r="N107" s="71">
         <v>8.5368888115899999</v>
       </c>
-      <c r="Q107" s="71">
+      <c r="O107" s="94"/>
+      <c r="R107" s="71">
         <v>11.8518518518518</v>
       </c>
-      <c r="R107" s="104"/>
-      <c r="U107" s="54">
+      <c r="S107" s="94"/>
+      <c r="V107" s="54">
         <v>135</v>
       </c>
-      <c r="Y107" s="53">
+      <c r="Z107" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C108" s="71">
         <v>11.8518518518518</v>
       </c>
@@ -17183,22 +17389,23 @@
       <c r="I108" s="71">
         <v>38.9275843007186</v>
       </c>
-      <c r="J108" s="104"/>
+      <c r="J108" s="94"/>
       <c r="N108" s="71">
         <v>8.5368888115899999</v>
       </c>
-      <c r="Q108" s="71">
+      <c r="O108" s="94"/>
+      <c r="R108" s="71">
         <v>11.8518518518518</v>
       </c>
-      <c r="R108" s="104"/>
-      <c r="U108" s="54">
+      <c r="S108" s="94"/>
+      <c r="V108" s="54">
         <v>135</v>
       </c>
-      <c r="Y108" s="53">
+      <c r="Z108" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C109" s="71">
         <v>11.8518518518518</v>
       </c>
@@ -17208,22 +17415,23 @@
       <c r="I109" s="71">
         <v>38.9275843007186</v>
       </c>
-      <c r="J109" s="104"/>
+      <c r="J109" s="94"/>
       <c r="N109" s="71">
         <v>8.5368888115899999</v>
       </c>
-      <c r="Q109" s="71">
+      <c r="O109" s="94"/>
+      <c r="R109" s="71">
         <v>11.8518518518518</v>
       </c>
-      <c r="R109" s="104"/>
-      <c r="U109" s="54">
+      <c r="S109" s="94"/>
+      <c r="V109" s="54">
         <v>135</v>
       </c>
-      <c r="Y109" s="53">
+      <c r="Z109" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C110" s="71">
         <v>11.8518518518518</v>
       </c>
@@ -17233,22 +17441,23 @@
       <c r="I110" s="71">
         <v>38.9275843007186</v>
       </c>
-      <c r="J110" s="104"/>
+      <c r="J110" s="94"/>
       <c r="N110" s="71">
         <v>8.5368888115899999</v>
       </c>
-      <c r="Q110" s="71">
+      <c r="O110" s="94"/>
+      <c r="R110" s="71">
         <v>11.8518518518518</v>
       </c>
-      <c r="R110" s="104"/>
-      <c r="U110" s="54">
+      <c r="S110" s="94"/>
+      <c r="V110" s="54">
         <v>135</v>
       </c>
-      <c r="Y110" s="53">
+      <c r="Z110" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C111" s="90">
         <v>29.1850365853658</v>
       </c>
@@ -17258,22 +17467,23 @@
       <c r="I111" s="90">
         <v>86.570310147545896</v>
       </c>
-      <c r="J111" s="103"/>
+      <c r="J111" s="93"/>
       <c r="N111" s="90">
         <v>9.8459303506700007</v>
       </c>
-      <c r="Q111" s="90">
+      <c r="O111" s="93"/>
+      <c r="R111" s="90">
         <v>29.1850365853658</v>
       </c>
-      <c r="R111" s="103"/>
-      <c r="U111" s="43">
+      <c r="S111" s="93"/>
+      <c r="V111" s="43">
         <v>82</v>
       </c>
-      <c r="Y111" s="55">
+      <c r="Z111" s="55">
         <v>1000000</v>
       </c>
     </row>
-    <row r="112" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C112" s="90">
         <v>29.1850365853658</v>
       </c>
@@ -17283,22 +17493,23 @@
       <c r="I112" s="90">
         <v>86.570310147545896</v>
       </c>
-      <c r="J112" s="103"/>
+      <c r="J112" s="93"/>
       <c r="N112" s="90">
         <v>9.8459303506700007</v>
       </c>
-      <c r="Q112" s="90">
+      <c r="O112" s="93"/>
+      <c r="R112" s="90">
         <v>29.1850365853658</v>
       </c>
-      <c r="R112" s="103"/>
-      <c r="U112" s="43">
+      <c r="S112" s="93"/>
+      <c r="V112" s="43">
         <v>82</v>
       </c>
-      <c r="Y112" s="55">
+      <c r="Z112" s="55">
         <v>1000000</v>
       </c>
     </row>
-    <row r="113" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C113" s="90">
         <v>29.1850365853658</v>
       </c>
@@ -17308,22 +17519,23 @@
       <c r="I113" s="90">
         <v>86.570310147545896</v>
       </c>
-      <c r="J113" s="103"/>
+      <c r="J113" s="93"/>
       <c r="N113" s="90">
         <v>9.8459303506700007</v>
       </c>
-      <c r="Q113" s="90">
+      <c r="O113" s="93"/>
+      <c r="R113" s="90">
         <v>29.1850365853658</v>
       </c>
-      <c r="R113" s="103"/>
-      <c r="U113" s="43">
+      <c r="S113" s="93"/>
+      <c r="V113" s="43">
         <v>82</v>
       </c>
-      <c r="Y113" s="55">
+      <c r="Z113" s="55">
         <v>1000000</v>
       </c>
     </row>
-    <row r="114" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C114" s="90">
         <v>29.1850365853658</v>
       </c>
@@ -17333,22 +17545,23 @@
       <c r="I114" s="90">
         <v>86.570310147545896</v>
       </c>
-      <c r="J114" s="103"/>
+      <c r="J114" s="93"/>
       <c r="N114" s="90">
         <v>9.8459303506700007</v>
       </c>
-      <c r="Q114" s="90">
+      <c r="O114" s="93"/>
+      <c r="R114" s="90">
         <v>29.1850365853658</v>
       </c>
-      <c r="R114" s="103"/>
-      <c r="U114" s="43">
+      <c r="S114" s="93"/>
+      <c r="V114" s="43">
         <v>82</v>
       </c>
-      <c r="Y114" s="55">
+      <c r="Z114" s="55">
         <v>1000000</v>
       </c>
     </row>
-    <row r="115" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C115" s="90">
         <v>29.1850365853658</v>
       </c>
@@ -17358,22 +17571,23 @@
       <c r="I115" s="90">
         <v>86.570310147545896</v>
       </c>
-      <c r="J115" s="103"/>
+      <c r="J115" s="93"/>
       <c r="N115" s="90">
         <v>9.8459303506700007</v>
       </c>
-      <c r="Q115" s="90">
+      <c r="O115" s="93"/>
+      <c r="R115" s="90">
         <v>29.1850365853658</v>
       </c>
-      <c r="R115" s="103"/>
-      <c r="U115" s="43">
+      <c r="S115" s="93"/>
+      <c r="V115" s="43">
         <v>82</v>
       </c>
-      <c r="Y115" s="55">
+      <c r="Z115" s="55">
         <v>1000000</v>
       </c>
     </row>
-    <row r="116" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C116" s="71">
         <v>15.1898734177215</v>
       </c>
@@ -17383,22 +17597,23 @@
       <c r="I116" s="71">
         <v>83.920032147880207</v>
       </c>
-      <c r="J116" s="104"/>
+      <c r="J116" s="94"/>
       <c r="N116" s="71">
         <v>12.9866738828</v>
       </c>
-      <c r="Q116" s="71">
+      <c r="O116" s="94"/>
+      <c r="R116" s="71">
         <v>15.1898734177215</v>
       </c>
-      <c r="R116" s="104"/>
-      <c r="U116" s="54">
+      <c r="S116" s="94"/>
+      <c r="V116" s="54">
         <v>316</v>
       </c>
-      <c r="Y116" s="53">
+      <c r="Z116" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="117" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C117" s="71">
         <v>15.1898734177215</v>
       </c>
@@ -17408,22 +17623,23 @@
       <c r="I117" s="71">
         <v>83.920032147880207</v>
       </c>
-      <c r="J117" s="104"/>
+      <c r="J117" s="94"/>
       <c r="N117" s="71">
         <v>12.9866738828</v>
       </c>
-      <c r="Q117" s="71">
+      <c r="O117" s="94"/>
+      <c r="R117" s="71">
         <v>15.1898734177215</v>
       </c>
-      <c r="R117" s="104"/>
-      <c r="U117" s="54">
+      <c r="S117" s="94"/>
+      <c r="V117" s="54">
         <v>316</v>
       </c>
-      <c r="Y117" s="53">
+      <c r="Z117" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="118" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C118" s="71">
         <v>15.1898734177215</v>
       </c>
@@ -17433,22 +17649,23 @@
       <c r="I118" s="71">
         <v>83.920032147880207</v>
       </c>
-      <c r="J118" s="104"/>
+      <c r="J118" s="94"/>
       <c r="N118" s="71">
         <v>12.9866738828</v>
       </c>
-      <c r="Q118" s="71">
+      <c r="O118" s="94"/>
+      <c r="R118" s="71">
         <v>15.1898734177215</v>
       </c>
-      <c r="R118" s="104"/>
-      <c r="U118" s="54">
+      <c r="S118" s="94"/>
+      <c r="V118" s="54">
         <v>316</v>
       </c>
-      <c r="Y118" s="53">
+      <c r="Z118" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="119" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C119" s="71">
         <v>15.1898734177215</v>
       </c>
@@ -17458,22 +17675,23 @@
       <c r="I119" s="71">
         <v>83.920032147880207</v>
       </c>
-      <c r="J119" s="104"/>
+      <c r="J119" s="94"/>
       <c r="N119" s="71">
         <v>12.9866738828</v>
       </c>
-      <c r="Q119" s="71">
+      <c r="O119" s="94"/>
+      <c r="R119" s="71">
         <v>15.1898734177215</v>
       </c>
-      <c r="R119" s="104"/>
-      <c r="U119" s="54">
+      <c r="S119" s="94"/>
+      <c r="V119" s="54">
         <v>316</v>
       </c>
-      <c r="Y119" s="53">
+      <c r="Z119" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="120" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C120" s="71">
         <v>15.1898734177215</v>
       </c>
@@ -17483,22 +17701,23 @@
       <c r="I120" s="71">
         <v>83.920032147880207</v>
       </c>
-      <c r="J120" s="104"/>
+      <c r="J120" s="94"/>
       <c r="N120" s="71">
         <v>12.9866738828</v>
       </c>
-      <c r="Q120" s="71">
+      <c r="O120" s="94"/>
+      <c r="R120" s="71">
         <v>15.1898734177215</v>
       </c>
-      <c r="R120" s="104"/>
-      <c r="U120" s="54">
+      <c r="S120" s="94"/>
+      <c r="V120" s="54">
         <v>316</v>
       </c>
-      <c r="Y120" s="53">
+      <c r="Z120" s="53">
         <v>1000000</v>
       </c>
     </row>
-    <row r="121" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C121" s="90">
         <v>5.6</v>
       </c>
@@ -17508,22 +17727,23 @@
       <c r="I121" s="90">
         <v>48.967741935483801</v>
       </c>
-      <c r="J121" s="103"/>
+      <c r="J121" s="93"/>
       <c r="N121" s="90">
         <v>7.06515962874</v>
       </c>
-      <c r="Q121" s="90">
+      <c r="O121" s="93"/>
+      <c r="R121" s="90">
         <v>5.6</v>
       </c>
-      <c r="R121" s="103"/>
-      <c r="U121" s="43">
+      <c r="S121" s="93"/>
+      <c r="V121" s="43">
         <v>125</v>
       </c>
-      <c r="Y121" s="55">
+      <c r="Z121" s="55">
         <v>1040000</v>
       </c>
     </row>
-    <row r="122" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C122" s="90">
         <v>5.6</v>
       </c>
@@ -17533,22 +17753,23 @@
       <c r="I122" s="90">
         <v>48.967741935483801</v>
       </c>
-      <c r="J122" s="103"/>
+      <c r="J122" s="93"/>
       <c r="N122" s="90">
         <v>7.06515962874</v>
       </c>
-      <c r="Q122" s="90">
+      <c r="O122" s="93"/>
+      <c r="R122" s="90">
         <v>5.6</v>
       </c>
-      <c r="R122" s="103"/>
-      <c r="U122" s="43">
+      <c r="S122" s="93"/>
+      <c r="V122" s="43">
         <v>125</v>
       </c>
-      <c r="Y122" s="55">
+      <c r="Z122" s="55">
         <v>1040000</v>
       </c>
     </row>
-    <row r="123" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C123" s="90">
         <v>5.6</v>
       </c>
@@ -17558,22 +17779,23 @@
       <c r="I123" s="90">
         <v>48.967741935483801</v>
       </c>
-      <c r="J123" s="103"/>
+      <c r="J123" s="93"/>
       <c r="N123" s="90">
         <v>7.06515962874</v>
       </c>
-      <c r="Q123" s="90">
+      <c r="O123" s="93"/>
+      <c r="R123" s="90">
         <v>5.6</v>
       </c>
-      <c r="R123" s="103"/>
-      <c r="U123" s="43">
+      <c r="S123" s="93"/>
+      <c r="V123" s="43">
         <v>125</v>
       </c>
-      <c r="Y123" s="55">
+      <c r="Z123" s="55">
         <v>1040000</v>
       </c>
     </row>
-    <row r="124" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C124" s="90">
         <v>5.6</v>
       </c>
@@ -17583,22 +17805,23 @@
       <c r="I124" s="90">
         <v>48.967741935483801</v>
       </c>
-      <c r="J124" s="103"/>
+      <c r="J124" s="93"/>
       <c r="N124" s="90">
         <v>7.06515962874</v>
       </c>
-      <c r="Q124" s="90">
+      <c r="O124" s="93"/>
+      <c r="R124" s="90">
         <v>5.6</v>
       </c>
-      <c r="R124" s="103"/>
-      <c r="U124" s="43">
+      <c r="S124" s="93"/>
+      <c r="V124" s="43">
         <v>125</v>
       </c>
-      <c r="Y124" s="55">
+      <c r="Z124" s="55">
         <v>1040000</v>
       </c>
     </row>
-    <row r="125" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C125" s="90">
         <v>5.6</v>
       </c>
@@ -17608,22 +17831,23 @@
       <c r="I125" s="90">
         <v>48.967741935483801</v>
       </c>
-      <c r="J125" s="103"/>
+      <c r="J125" s="93"/>
       <c r="N125" s="90">
         <v>7.06515962874</v>
       </c>
-      <c r="Q125" s="90">
+      <c r="O125" s="93"/>
+      <c r="R125" s="90">
         <v>5.6</v>
       </c>
-      <c r="R125" s="103"/>
-      <c r="U125" s="43">
+      <c r="S125" s="93"/>
+      <c r="V125" s="43">
         <v>125</v>
       </c>
-      <c r="Y125" s="55">
+      <c r="Z125" s="55">
         <v>1040000</v>
       </c>
     </row>
-    <row r="126" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C126" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
@@ -17633,20 +17857,21 @@
       <c r="I126" s="71">
         <v>2.84136458214638</v>
       </c>
-      <c r="J126" s="104"/>
+      <c r="J126" s="94"/>
       <c r="N126" s="71"/>
-      <c r="Q126" s="71">
+      <c r="O126" s="94"/>
+      <c r="R126" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
-      <c r="R126" s="104"/>
-      <c r="U126" s="54">
+      <c r="S126" s="94"/>
+      <c r="V126" s="54">
         <v>46086</v>
       </c>
-      <c r="Y126" s="53">
+      <c r="Z126" s="53">
         <v>1112949</v>
       </c>
     </row>
-    <row r="127" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C127" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
@@ -17656,20 +17881,21 @@
       <c r="I127" s="71">
         <v>2.84136458214638</v>
       </c>
-      <c r="J127" s="104"/>
+      <c r="J127" s="94"/>
       <c r="N127" s="71"/>
-      <c r="Q127" s="71">
+      <c r="O127" s="94"/>
+      <c r="R127" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
-      <c r="R127" s="104"/>
-      <c r="U127" s="54">
+      <c r="S127" s="94"/>
+      <c r="V127" s="54">
         <v>46086</v>
       </c>
-      <c r="Y127" s="53">
+      <c r="Z127" s="53">
         <v>1112949</v>
       </c>
     </row>
-    <row r="128" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C128" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
@@ -17679,20 +17905,21 @@
       <c r="I128" s="71">
         <v>2.84136458214638</v>
       </c>
-      <c r="J128" s="104"/>
+      <c r="J128" s="94"/>
       <c r="N128" s="71"/>
-      <c r="Q128" s="71">
+      <c r="O128" s="94"/>
+      <c r="R128" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
-      <c r="R128" s="104"/>
-      <c r="U128" s="54">
+      <c r="S128" s="94"/>
+      <c r="V128" s="54">
         <v>46086</v>
       </c>
-      <c r="Y128" s="53">
+      <c r="Z128" s="53">
         <v>1112949</v>
       </c>
     </row>
-    <row r="129" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C129" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
@@ -17702,20 +17929,21 @@
       <c r="I129" s="71">
         <v>2.84136458214638</v>
       </c>
-      <c r="J129" s="104"/>
+      <c r="J129" s="94"/>
       <c r="N129" s="71"/>
-      <c r="Q129" s="71">
+      <c r="O129" s="94"/>
+      <c r="R129" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
-      <c r="R129" s="104"/>
-      <c r="U129" s="54">
+      <c r="S129" s="94"/>
+      <c r="V129" s="54">
         <v>46086</v>
       </c>
-      <c r="Y129" s="53">
+      <c r="Z129" s="53">
         <v>1112949</v>
       </c>
     </row>
-    <row r="130" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C130" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
@@ -17725,16 +17953,17 @@
       <c r="I130" s="71">
         <v>2.84136458214638</v>
       </c>
-      <c r="J130" s="104"/>
+      <c r="J130" s="94"/>
       <c r="N130" s="74"/>
-      <c r="Q130" s="71">
+      <c r="O130" s="94"/>
+      <c r="R130" s="71">
         <v>1.5680765349303499E-2</v>
       </c>
-      <c r="R130" s="104"/>
-      <c r="U130" s="77">
+      <c r="S130" s="94"/>
+      <c r="V130" s="77">
         <v>46086</v>
       </c>
-      <c r="Y130" s="76">
+      <c r="Z130" s="76">
         <v>1112949</v>
       </c>
     </row>

--- a/DBMetrics.xlsx
+++ b/DBMetrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1827,7 +1829,7 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2240,6 +2242,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2407,7 +2415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3007,11 +3015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30814704"/>
-        <c:axId val="-30815248"/>
+        <c:axId val="1598152624"/>
+        <c:axId val="1598154800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30814704"/>
+        <c:axId val="1598152624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3076,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3106,10 +3114,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30815248"/>
+        <c:crossAx val="1598154800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3117,7 +3125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30815248"/>
+        <c:axId val="1598154800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3188,7 +3196,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3220,10 +3228,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30814704"/>
+        <c:crossAx val="1598152624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3262,7 +3270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3299,7 +3307,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3375,7 +3383,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3975,11 +3983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30817424"/>
-        <c:axId val="-30822864"/>
+        <c:axId val="1598155344"/>
+        <c:axId val="1598155888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30817424"/>
+        <c:axId val="1598155344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,7 +4044,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4074,10 +4082,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30822864"/>
+        <c:crossAx val="1598155888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4085,7 +4093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30822864"/>
+        <c:axId val="1598155888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4164,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4188,10 +4196,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30817424"/>
+        <c:crossAx val="1598155344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4230,7 +4238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4267,7 +4275,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4343,7 +4351,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4943,11 +4951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30816880"/>
-        <c:axId val="-30814160"/>
+        <c:axId val="1598164048"/>
+        <c:axId val="1598154256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30816880"/>
+        <c:axId val="1598164048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,7 +5012,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5042,10 +5050,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30814160"/>
+        <c:crossAx val="1598154256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30814160"/>
+        <c:axId val="1598154256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5132,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5156,10 +5164,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30816880"/>
+        <c:crossAx val="1598164048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5198,7 +5206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5235,7 +5243,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5311,7 +5319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5911,11 +5919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30812528"/>
-        <c:axId val="-30811440"/>
+        <c:axId val="1598156976"/>
+        <c:axId val="1598165136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30812528"/>
+        <c:axId val="1598156976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5980,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6010,10 +6018,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30811440"/>
+        <c:crossAx val="1598165136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6021,7 +6029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30811440"/>
+        <c:axId val="1598165136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,7 +6100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6124,10 +6132,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30812528"/>
+        <c:crossAx val="1598156976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6166,7 +6174,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6203,7 +6211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8809,8 +8817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8883,25 +8891,25 @@
       <c r="U4" s="53"/>
     </row>
     <row r="5" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
       <c r="U5" s="54"/>
     </row>
     <row r="6" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9013,7 +9021,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142">
+      <c r="B8" s="144">
         <v>1</v>
       </c>
       <c r="C8" s="132" t="s">
@@ -9057,7 +9065,7 @@
       <c r="U8" s="139"/>
     </row>
     <row r="9" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="141"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="124" t="s">
         <v>32</v>
       </c>
@@ -9099,7 +9107,7 @@
       <c r="U9" s="131"/>
     </row>
     <row r="10" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="58" t="s">
         <v>32</v>
       </c>
@@ -9153,7 +9161,7 @@
       <c r="U10" s="117"/>
     </row>
     <row r="11" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="58" t="s">
         <v>32</v>
       </c>
@@ -9207,7 +9215,7 @@
       <c r="U11" s="117"/>
     </row>
     <row r="12" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="58" t="s">
         <v>32</v>
       </c>
@@ -9261,7 +9269,7 @@
       <c r="U12" s="117"/>
     </row>
     <row r="13" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="58" t="s">
         <v>32</v>
       </c>
@@ -9315,7 +9323,7 @@
       <c r="U13" s="117"/>
     </row>
     <row r="14" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="141"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="58" t="s">
         <v>32</v>
       </c>
@@ -9376,7 +9384,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="141"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="58" t="s">
         <v>32</v>
       </c>
@@ -9437,7 +9445,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="143"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="58" t="s">
         <v>32</v>
       </c>
@@ -9498,7 +9506,7 @@
       </c>
     </row>
     <row r="17" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="140">
+      <c r="B17" s="142">
         <v>2</v>
       </c>
       <c r="C17" s="42" t="s">
@@ -9561,7 +9569,7 @@
       </c>
     </row>
     <row r="18" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="42" t="s">
         <v>33</v>
       </c>
@@ -9622,7 +9630,7 @@
       </c>
     </row>
     <row r="19" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="42" t="s">
         <v>33</v>
       </c>
@@ -9683,7 +9691,7 @@
       </c>
     </row>
     <row r="20" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="141"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="42" t="s">
         <v>33</v>
       </c>
@@ -9744,7 +9752,7 @@
       </c>
     </row>
     <row r="21" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="141"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="42" t="s">
         <v>33</v>
       </c>
@@ -9805,7 +9813,7 @@
       </c>
     </row>
     <row r="22" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="143"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="42" t="s">
         <v>33</v>
       </c>
@@ -9866,7 +9874,7 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140">
+      <c r="B23" s="142">
         <v>3</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -9929,7 +9937,7 @@
       </c>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="58" t="s">
         <v>4</v>
       </c>
@@ -9990,7 +9998,7 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="58" t="s">
         <v>4</v>
       </c>
@@ -10051,7 +10059,7 @@
       </c>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="141"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="58" t="s">
         <v>4</v>
       </c>
@@ -10112,7 +10120,7 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="141"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="58" t="s">
         <v>4</v>
       </c>
@@ -10173,7 +10181,7 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="141"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="58" t="s">
         <v>4</v>
       </c>
@@ -10234,7 +10242,7 @@
       </c>
     </row>
     <row r="29" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="141"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="58" t="s">
         <v>4</v>
       </c>
@@ -10295,7 +10303,7 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="141"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="58" t="s">
         <v>4</v>
       </c>
@@ -10356,7 +10364,7 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="141"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="58" t="s">
         <v>4</v>
       </c>
@@ -10417,7 +10425,7 @@
       </c>
     </row>
     <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="143"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="58" t="s">
         <v>4</v>
       </c>
@@ -10478,7 +10486,7 @@
       </c>
     </row>
     <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="140">
+      <c r="B33" s="142">
         <v>4</v>
       </c>
       <c r="C33" s="42" t="s">
@@ -10525,7 +10533,7 @@
       </c>
     </row>
     <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="141"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="42" t="s">
         <v>34</v>
       </c>
@@ -10570,7 +10578,7 @@
       </c>
     </row>
     <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="141"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="42" t="s">
         <v>34</v>
       </c>
@@ -10615,7 +10623,7 @@
       </c>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="141"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="42" t="s">
         <v>34</v>
       </c>
@@ -10660,7 +10668,7 @@
       </c>
     </row>
     <row r="37" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="141"/>
+      <c r="B37" s="143"/>
       <c r="C37" s="42" t="s">
         <v>34</v>
       </c>
@@ -10705,7 +10713,7 @@
       </c>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="141"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="42" t="s">
         <v>34</v>
       </c>
@@ -10750,7 +10758,7 @@
       </c>
     </row>
     <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="141"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="42" t="s">
         <v>34</v>
       </c>
@@ -10811,7 +10819,7 @@
       </c>
     </row>
     <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="141"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="42" t="s">
         <v>34</v>
       </c>
@@ -10872,7 +10880,7 @@
       </c>
     </row>
     <row r="41" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="141"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="42" t="s">
         <v>34</v>
       </c>
@@ -10933,7 +10941,7 @@
       </c>
     </row>
     <row r="42" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="145">
+      <c r="B42" s="147">
         <v>5</v>
       </c>
       <c r="C42" s="58" t="s">
@@ -10980,7 +10988,7 @@
       </c>
     </row>
     <row r="43" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="145"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="58" t="s">
         <v>35</v>
       </c>
@@ -11025,7 +11033,7 @@
       </c>
     </row>
     <row r="44" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="145"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="58" t="s">
         <v>35</v>
       </c>
@@ -11070,7 +11078,7 @@
       </c>
     </row>
     <row r="45" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="145"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="58" t="s">
         <v>35</v>
       </c>
@@ -11115,7 +11123,7 @@
       </c>
     </row>
     <row r="46" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="58" t="s">
         <v>35</v>
       </c>
@@ -11160,7 +11168,7 @@
       </c>
     </row>
     <row r="47" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="58" t="s">
         <v>35</v>
       </c>
@@ -11221,7 +11229,7 @@
       </c>
     </row>
     <row r="48" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="140">
+      <c r="B48" s="142">
         <v>6</v>
       </c>
       <c r="C48" s="42" t="s">
@@ -11268,7 +11276,7 @@
       </c>
     </row>
     <row r="49" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="141"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="42" t="s">
         <v>5</v>
       </c>
@@ -11329,7 +11337,7 @@
       </c>
     </row>
     <row r="50" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="141"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="42" t="s">
         <v>5</v>
       </c>
@@ -11374,7 +11382,7 @@
       </c>
     </row>
     <row r="51" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="141"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="42" t="s">
         <v>5</v>
       </c>
@@ -11435,7 +11443,7 @@
       </c>
     </row>
     <row r="52" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="141"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="42" t="s">
         <v>5</v>
       </c>
@@ -11480,7 +11488,7 @@
       </c>
     </row>
     <row r="53" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="141"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="42" t="s">
         <v>5</v>
       </c>
@@ -11541,7 +11549,7 @@
       </c>
     </row>
     <row r="54" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="141"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="42" t="s">
         <v>5</v>
       </c>
@@ -11586,7 +11594,7 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="141"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="42" t="s">
         <v>5</v>
       </c>
@@ -11647,7 +11655,7 @@
       </c>
     </row>
     <row r="56" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="141"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="42" t="s">
         <v>5</v>
       </c>
@@ -11692,7 +11700,7 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="143"/>
+      <c r="B57" s="145"/>
       <c r="C57" s="42" t="s">
         <v>5</v>
       </c>
@@ -11753,7 +11761,7 @@
       </c>
     </row>
     <row r="58" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="140">
+      <c r="B58" s="142">
         <v>7</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -11792,7 +11800,7 @@
       <c r="P58" s="49"/>
       <c r="Q58" s="49"/>
       <c r="R58" s="112"/>
-      <c r="S58" s="49"/>
+      <c r="S58" s="140"/>
       <c r="T58" s="49"/>
       <c r="U58" s="117">
         <f t="shared" si="3"/>
@@ -11800,7 +11808,7 @@
       </c>
     </row>
     <row r="59" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="141"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="58" t="s">
         <v>36</v>
       </c>
@@ -11831,21 +11839,37 @@
       <c r="L59" s="58">
         <v>20</v>
       </c>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
+      <c r="M59" s="49">
+        <v>53583</v>
+      </c>
+      <c r="N59" s="141">
+        <v>22.695940970071401</v>
+      </c>
+      <c r="O59" s="141">
+        <v>7.11124797043838</v>
+      </c>
+      <c r="P59" s="49">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="49">
+        <v>158</v>
+      </c>
+      <c r="R59" s="112">
+        <v>1015</v>
+      </c>
+      <c r="S59" s="141">
+        <v>6.4936708860759396</v>
+      </c>
+      <c r="T59" s="141">
+        <v>2.4837438423645302</v>
+      </c>
       <c r="U59" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.009927043711409</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="141"/>
+      <c r="B60" s="143"/>
       <c r="C60" s="58" t="s">
         <v>36</v>
       </c>
@@ -11876,21 +11900,37 @@
       <c r="L60" s="58">
         <v>30</v>
       </c>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="112"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
+      <c r="M60" s="49">
+        <v>2735</v>
+      </c>
+      <c r="N60" s="141">
+        <v>36.869386691042202</v>
+      </c>
+      <c r="O60" s="141">
+        <v>4.5148080438756804</v>
+      </c>
+      <c r="P60" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="49">
+        <v>63</v>
+      </c>
+      <c r="R60" s="112">
+        <v>415</v>
+      </c>
+      <c r="S60" s="141">
+        <v>6.2698412698412698</v>
+      </c>
+      <c r="T60" s="141">
+        <v>2.2168674698795101</v>
+      </c>
       <c r="U60" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0529737999617597</v>
       </c>
     </row>
     <row r="61" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="141"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="58" t="s">
         <v>36</v>
       </c>
@@ -11924,10 +11964,10 @@
       <c r="M61" s="49">
         <v>565</v>
       </c>
-      <c r="N61" s="49">
+      <c r="N61" s="141">
         <v>49.0645433628316</v>
       </c>
-      <c r="O61" s="49">
+      <c r="O61" s="141">
         <v>3.4106194690265399</v>
       </c>
       <c r="P61" s="49">
@@ -11939,10 +11979,10 @@
       <c r="R61" s="112">
         <v>259</v>
       </c>
-      <c r="S61" s="49">
+      <c r="S61" s="141">
         <v>4.7804878048780397</v>
       </c>
-      <c r="T61" s="49">
+      <c r="T61" s="141">
         <v>1.88416988416988</v>
       </c>
       <c r="U61" s="117">
@@ -11951,7 +11991,7 @@
       </c>
     </row>
     <row r="62" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="141"/>
+      <c r="B62" s="143"/>
       <c r="C62" s="58" t="s">
         <v>36</v>
       </c>
@@ -11983,20 +12023,20 @@
         <v>50</v>
       </c>
       <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
+      <c r="N62" s="141"/>
+      <c r="O62" s="141"/>
       <c r="P62" s="49"/>
       <c r="Q62" s="49"/>
       <c r="R62" s="112"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
+      <c r="S62" s="141"/>
+      <c r="T62" s="141"/>
       <c r="U62" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="141"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="58" t="s">
         <v>36</v>
       </c>
@@ -12030,10 +12070,10 @@
       <c r="M63" s="49">
         <v>51</v>
       </c>
-      <c r="N63" s="49">
+      <c r="N63" s="141">
         <v>77.696678431372504</v>
       </c>
-      <c r="O63" s="49">
+      <c r="O63" s="141">
         <v>2.5098039215686199</v>
       </c>
       <c r="P63" s="49">
@@ -12045,10 +12085,10 @@
       <c r="R63" s="112">
         <v>123</v>
       </c>
-      <c r="S63" s="49">
+      <c r="S63" s="141">
         <v>3.6</v>
       </c>
-      <c r="T63" s="49">
+      <c r="T63" s="141">
         <v>1.1138211382113801</v>
       </c>
       <c r="U63" s="117">
@@ -12057,7 +12097,7 @@
       </c>
     </row>
     <row r="64" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="141"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="58" t="s">
         <v>36</v>
       </c>
@@ -12089,20 +12129,20 @@
         <v>70</v>
       </c>
       <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
+      <c r="N64" s="141"/>
+      <c r="O64" s="141"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
       <c r="R64" s="112"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
+      <c r="S64" s="141"/>
+      <c r="T64" s="141"/>
       <c r="U64" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="141"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="58" t="s">
         <v>36</v>
       </c>
@@ -12136,10 +12176,10 @@
       <c r="M65" s="49">
         <v>23</v>
       </c>
-      <c r="N65" s="49">
+      <c r="N65" s="141">
         <v>89.698808695652104</v>
       </c>
-      <c r="O65" s="49">
+      <c r="O65" s="141">
         <v>2.2608695652173898</v>
       </c>
       <c r="P65" s="49">
@@ -12151,10 +12191,10 @@
       <c r="R65" s="112">
         <v>115</v>
       </c>
-      <c r="S65" s="49">
+      <c r="S65" s="141">
         <v>4</v>
       </c>
-      <c r="T65" s="49">
+      <c r="T65" s="141">
         <v>1.0086956521739101</v>
       </c>
       <c r="U65" s="117">
@@ -12163,7 +12203,7 @@
       </c>
     </row>
     <row r="66" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="143"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="58" t="s">
         <v>36</v>
       </c>
@@ -12197,10 +12237,10 @@
       <c r="M66" s="49">
         <v>9</v>
       </c>
-      <c r="N66" s="49">
+      <c r="N66" s="141">
         <v>96.542488888888798</v>
       </c>
-      <c r="O66" s="49">
+      <c r="O66" s="141">
         <v>1.6666666666666601</v>
       </c>
       <c r="P66" s="49">
@@ -12212,10 +12252,10 @@
       <c r="R66" s="112">
         <v>117</v>
       </c>
-      <c r="S66" s="49">
+      <c r="S66" s="141">
         <v>2.5</v>
       </c>
-      <c r="T66" s="49">
+      <c r="T66" s="141">
         <v>1.0170940170940099</v>
       </c>
       <c r="U66" s="117">
@@ -12224,7 +12264,7 @@
       </c>
     </row>
     <row r="67" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="140">
+      <c r="B67" s="142">
         <v>8</v>
       </c>
       <c r="C67" s="42" t="s">
@@ -12268,7 +12308,7 @@
       <c r="U67" s="120"/>
     </row>
     <row r="68" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="141"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="42" t="s">
         <v>6</v>
       </c>
@@ -12310,7 +12350,7 @@
       <c r="U68" s="120"/>
     </row>
     <row r="69" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="141"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="42" t="s">
         <v>6</v>
       </c>
@@ -12352,7 +12392,7 @@
       <c r="U69" s="120"/>
     </row>
     <row r="70" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="141"/>
+      <c r="B70" s="143"/>
       <c r="C70" s="42" t="s">
         <v>6</v>
       </c>
@@ -12394,7 +12434,7 @@
       <c r="U70" s="120"/>
     </row>
     <row r="71" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="141"/>
+      <c r="B71" s="143"/>
       <c r="C71" s="42" t="s">
         <v>6</v>
       </c>
@@ -12436,7 +12476,7 @@
       <c r="U71" s="120"/>
     </row>
     <row r="72" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="141"/>
+      <c r="B72" s="143"/>
       <c r="C72" s="42" t="s">
         <v>6</v>
       </c>
@@ -12478,7 +12518,7 @@
       <c r="U72" s="120"/>
     </row>
     <row r="73" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="141"/>
+      <c r="B73" s="143"/>
       <c r="C73" s="42" t="s">
         <v>6</v>
       </c>
@@ -12520,7 +12560,7 @@
       <c r="U73" s="120"/>
     </row>
     <row r="74" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="141"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="42" t="s">
         <v>6</v>
       </c>
@@ -12562,7 +12602,7 @@
       <c r="U74" s="120"/>
     </row>
     <row r="75" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="141"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="42" t="s">
         <v>6</v>
       </c>
@@ -12604,7 +12644,7 @@
       <c r="U75" s="120"/>
     </row>
     <row r="76" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="143"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="42" t="s">
         <v>6</v>
       </c>
@@ -12646,7 +12686,7 @@
       <c r="U76" s="120"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="140">
+      <c r="B77" s="142">
         <v>9</v>
       </c>
       <c r="C77" s="58" t="s">
@@ -12690,7 +12730,7 @@
       <c r="U77" s="119"/>
     </row>
     <row r="78" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="141"/>
+      <c r="B78" s="143"/>
       <c r="C78" s="58" t="s">
         <v>37</v>
       </c>
@@ -12732,7 +12772,7 @@
       <c r="U78" s="119"/>
     </row>
     <row r="79" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="141"/>
+      <c r="B79" s="143"/>
       <c r="C79" s="58" t="s">
         <v>37</v>
       </c>
@@ -12774,7 +12814,7 @@
       <c r="U79" s="119"/>
     </row>
     <row r="80" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="141"/>
+      <c r="B80" s="143"/>
       <c r="C80" s="58" t="s">
         <v>37</v>
       </c>
@@ -12816,7 +12856,7 @@
       <c r="U80" s="119"/>
     </row>
     <row r="81" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="141"/>
+      <c r="B81" s="143"/>
       <c r="C81" s="58" t="s">
         <v>37</v>
       </c>
@@ -12858,7 +12898,7 @@
       <c r="U81" s="119"/>
     </row>
     <row r="82" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="141"/>
+      <c r="B82" s="143"/>
       <c r="C82" s="58" t="s">
         <v>37</v>
       </c>
@@ -12900,7 +12940,7 @@
       <c r="U82" s="119"/>
     </row>
     <row r="83" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="141"/>
+      <c r="B83" s="143"/>
       <c r="C83" s="58" t="s">
         <v>37</v>
       </c>
@@ -12942,7 +12982,7 @@
       <c r="U83" s="119"/>
     </row>
     <row r="84" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="141"/>
+      <c r="B84" s="143"/>
       <c r="C84" s="58" t="s">
         <v>37</v>
       </c>
@@ -12984,7 +13024,7 @@
       <c r="U84" s="119"/>
     </row>
     <row r="85" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="143"/>
+      <c r="B85" s="145"/>
       <c r="C85" s="58" t="s">
         <v>37</v>
       </c>
@@ -13026,7 +13066,7 @@
       <c r="U85" s="119"/>
     </row>
     <row r="86" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="140">
+      <c r="B86" s="142">
         <v>10</v>
       </c>
       <c r="C86" s="42" t="s">
@@ -13070,7 +13110,7 @@
       <c r="U86" s="120"/>
     </row>
     <row r="87" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="141"/>
+      <c r="B87" s="143"/>
       <c r="C87" s="42" t="s">
         <v>38</v>
       </c>
@@ -13112,7 +13152,7 @@
       <c r="U87" s="120"/>
     </row>
     <row r="88" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="141"/>
+      <c r="B88" s="143"/>
       <c r="C88" s="42" t="s">
         <v>38</v>
       </c>
@@ -13154,7 +13194,7 @@
       <c r="U88" s="120"/>
     </row>
     <row r="89" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="141"/>
+      <c r="B89" s="143"/>
       <c r="C89" s="42" t="s">
         <v>38</v>
       </c>
@@ -13196,7 +13236,7 @@
       <c r="U89" s="120"/>
     </row>
     <row r="90" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="141"/>
+      <c r="B90" s="143"/>
       <c r="C90" s="42" t="s">
         <v>38</v>
       </c>
@@ -13238,7 +13278,7 @@
       <c r="U90" s="120"/>
     </row>
     <row r="91" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="141"/>
+      <c r="B91" s="143"/>
       <c r="C91" s="42" t="s">
         <v>38</v>
       </c>
@@ -13280,7 +13320,7 @@
       <c r="U91" s="120"/>
     </row>
     <row r="92" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="143"/>
+      <c r="B92" s="145"/>
       <c r="C92" s="42" t="s">
         <v>38</v>
       </c>
@@ -13322,7 +13362,7 @@
       <c r="U92" s="120"/>
     </row>
     <row r="93" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="140">
+      <c r="B93" s="142">
         <v>11</v>
       </c>
       <c r="C93" s="58" t="s">
@@ -13366,7 +13406,7 @@
       <c r="U93" s="119"/>
     </row>
     <row r="94" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="141"/>
+      <c r="B94" s="143"/>
       <c r="C94" s="58" t="s">
         <v>39</v>
       </c>
@@ -13408,7 +13448,7 @@
       <c r="U94" s="119"/>
     </row>
     <row r="95" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="141"/>
+      <c r="B95" s="143"/>
       <c r="C95" s="58" t="s">
         <v>39</v>
       </c>
@@ -13450,7 +13490,7 @@
       <c r="U95" s="119"/>
     </row>
     <row r="96" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="141"/>
+      <c r="B96" s="143"/>
       <c r="C96" s="58" t="s">
         <v>39</v>
       </c>
@@ -13492,7 +13532,7 @@
       <c r="U96" s="119"/>
     </row>
     <row r="97" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="141"/>
+      <c r="B97" s="143"/>
       <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
@@ -13534,7 +13574,7 @@
       <c r="U97" s="119"/>
     </row>
     <row r="98" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="143"/>
+      <c r="B98" s="145"/>
       <c r="C98" s="58" t="s">
         <v>39</v>
       </c>
@@ -13576,7 +13616,7 @@
       <c r="U98" s="119"/>
     </row>
     <row r="99" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="140">
+      <c r="B99" s="142">
         <v>12</v>
       </c>
       <c r="C99" s="42" t="s">
@@ -13620,7 +13660,7 @@
       <c r="U99" s="120"/>
     </row>
     <row r="100" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="141"/>
+      <c r="B100" s="143"/>
       <c r="C100" s="42" t="s">
         <v>41</v>
       </c>
@@ -13662,7 +13702,7 @@
       <c r="U100" s="120"/>
     </row>
     <row r="101" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="141"/>
+      <c r="B101" s="143"/>
       <c r="C101" s="42" t="s">
         <v>41</v>
       </c>
@@ -13704,7 +13744,7 @@
       <c r="U101" s="120"/>
     </row>
     <row r="102" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="141"/>
+      <c r="B102" s="143"/>
       <c r="C102" s="42" t="s">
         <v>41</v>
       </c>
@@ -13746,7 +13786,7 @@
       <c r="U102" s="120"/>
     </row>
     <row r="103" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="141"/>
+      <c r="B103" s="143"/>
       <c r="C103" s="42" t="s">
         <v>41</v>
       </c>
@@ -13788,7 +13828,7 @@
       <c r="U103" s="120"/>
     </row>
     <row r="104" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="141"/>
+      <c r="B104" s="143"/>
       <c r="C104" s="42" t="s">
         <v>41</v>
       </c>
@@ -13830,7 +13870,7 @@
       <c r="U104" s="120"/>
     </row>
     <row r="105" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="141"/>
+      <c r="B105" s="143"/>
       <c r="C105" s="42" t="s">
         <v>41</v>
       </c>
@@ -13872,7 +13912,7 @@
       <c r="U105" s="120"/>
     </row>
     <row r="106" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="141"/>
+      <c r="B106" s="143"/>
       <c r="C106" s="42" t="s">
         <v>41</v>
       </c>
@@ -13914,7 +13954,7 @@
       <c r="U106" s="120"/>
     </row>
     <row r="107" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="143"/>
+      <c r="B107" s="145"/>
       <c r="C107" s="42" t="s">
         <v>41</v>
       </c>
@@ -13956,7 +13996,7 @@
       <c r="U107" s="120"/>
     </row>
     <row r="108" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="140">
+      <c r="B108" s="142">
         <v>13</v>
       </c>
       <c r="C108" s="58" t="s">
@@ -14000,7 +14040,7 @@
       <c r="U108" s="119"/>
     </row>
     <row r="109" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="141"/>
+      <c r="B109" s="143"/>
       <c r="C109" s="58" t="s">
         <v>7</v>
       </c>
@@ -14042,7 +14082,7 @@
       <c r="U109" s="119"/>
     </row>
     <row r="110" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="141"/>
+      <c r="B110" s="143"/>
       <c r="C110" s="58" t="s">
         <v>7</v>
       </c>
@@ -14084,7 +14124,7 @@
       <c r="U110" s="119"/>
     </row>
     <row r="111" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="141"/>
+      <c r="B111" s="143"/>
       <c r="C111" s="58" t="s">
         <v>7</v>
       </c>
@@ -14126,7 +14166,7 @@
       <c r="U111" s="119"/>
     </row>
     <row r="112" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="141"/>
+      <c r="B112" s="143"/>
       <c r="C112" s="58" t="s">
         <v>7</v>
       </c>
@@ -14168,7 +14208,7 @@
       <c r="U112" s="119"/>
     </row>
     <row r="113" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="141"/>
+      <c r="B113" s="143"/>
       <c r="C113" s="58" t="s">
         <v>7</v>
       </c>
@@ -14210,7 +14250,7 @@
       <c r="U113" s="119"/>
     </row>
     <row r="114" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="141"/>
+      <c r="B114" s="143"/>
       <c r="C114" s="58" t="s">
         <v>7</v>
       </c>
@@ -14252,7 +14292,7 @@
       <c r="U114" s="119"/>
     </row>
     <row r="115" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="141"/>
+      <c r="B115" s="143"/>
       <c r="C115" s="58" t="s">
         <v>7</v>
       </c>
@@ -14294,7 +14334,7 @@
       <c r="U115" s="119"/>
     </row>
     <row r="116" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="141"/>
+      <c r="B116" s="143"/>
       <c r="C116" s="58" t="s">
         <v>7</v>
       </c>
@@ -14336,7 +14376,7 @@
       <c r="U116" s="119"/>
     </row>
     <row r="117" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="143"/>
+      <c r="B117" s="145"/>
       <c r="C117" s="58" t="s">
         <v>7</v>
       </c>
@@ -14378,7 +14418,7 @@
       <c r="U117" s="119"/>
     </row>
     <row r="118" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="145">
+      <c r="B118" s="147">
         <v>14</v>
       </c>
       <c r="C118" s="42" t="s">
@@ -14420,7 +14460,7 @@
       <c r="U118" s="120"/>
     </row>
     <row r="119" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="145"/>
+      <c r="B119" s="147"/>
       <c r="C119" s="42" t="s">
         <v>40</v>
       </c>
@@ -14460,7 +14500,7 @@
       <c r="U119" s="120"/>
     </row>
     <row r="120" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="145"/>
+      <c r="B120" s="147"/>
       <c r="C120" s="42" t="s">
         <v>40</v>
       </c>
@@ -14500,7 +14540,7 @@
       <c r="U120" s="120"/>
     </row>
     <row r="121" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="145"/>
+      <c r="B121" s="147"/>
       <c r="C121" s="42" t="s">
         <v>40</v>
       </c>
@@ -14540,7 +14580,7 @@
       <c r="U121" s="120"/>
     </row>
     <row r="122" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="145">
+      <c r="B122" s="147">
         <v>15</v>
       </c>
       <c r="C122" s="58" t="s">
@@ -14582,7 +14622,7 @@
       <c r="U122" s="119"/>
     </row>
     <row r="123" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="145"/>
+      <c r="B123" s="147"/>
       <c r="C123" s="58" t="s">
         <v>15</v>
       </c>
@@ -14622,7 +14662,7 @@
       <c r="U123" s="119"/>
     </row>
     <row r="124" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="145"/>
+      <c r="B124" s="147"/>
       <c r="C124" s="58" t="s">
         <v>15</v>
       </c>
@@ -14662,7 +14702,7 @@
       <c r="U124" s="119"/>
     </row>
     <row r="125" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="145"/>
+      <c r="B125" s="147"/>
       <c r="C125" s="58" t="s">
         <v>15</v>
       </c>
@@ -14702,7 +14742,7 @@
       <c r="U125" s="119"/>
     </row>
     <row r="126" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="145"/>
+      <c r="B126" s="147"/>
       <c r="C126" s="58" t="s">
         <v>15</v>
       </c>
@@ -14742,7 +14782,7 @@
       <c r="U126" s="119"/>
     </row>
     <row r="127" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="140">
+      <c r="B127" s="142">
         <v>16</v>
       </c>
       <c r="C127" s="42" t="s">
@@ -14786,7 +14826,7 @@
       <c r="U127" s="120"/>
     </row>
     <row r="128" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="141"/>
+      <c r="B128" s="143"/>
       <c r="C128" s="42" t="s">
         <v>42</v>
       </c>
@@ -14828,7 +14868,7 @@
       <c r="U128" s="120"/>
     </row>
     <row r="129" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="141"/>
+      <c r="B129" s="143"/>
       <c r="C129" s="42" t="s">
         <v>42</v>
       </c>
@@ -14870,7 +14910,7 @@
       <c r="U129" s="120"/>
     </row>
     <row r="130" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="141"/>
+      <c r="B130" s="143"/>
       <c r="C130" s="42" t="s">
         <v>42</v>
       </c>
@@ -14912,7 +14952,7 @@
       <c r="U130" s="120"/>
     </row>
     <row r="131" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="141"/>
+      <c r="B131" s="143"/>
       <c r="C131" s="42" t="s">
         <v>42</v>
       </c>
@@ -14954,7 +14994,7 @@
       <c r="U131" s="120"/>
     </row>
     <row r="132" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="141"/>
+      <c r="B132" s="143"/>
       <c r="C132" s="42" t="s">
         <v>42</v>
       </c>
@@ -14996,7 +15036,7 @@
       <c r="U132" s="120"/>
     </row>
     <row r="133" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="143"/>
+      <c r="B133" s="145"/>
       <c r="C133" s="42" t="s">
         <v>42</v>
       </c>
@@ -15038,7 +15078,7 @@
       <c r="U133" s="120"/>
     </row>
     <row r="134" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="140">
+      <c r="B134" s="142">
         <v>17</v>
       </c>
       <c r="C134" s="58" t="s">
@@ -15082,7 +15122,7 @@
       <c r="U134" s="119"/>
     </row>
     <row r="135" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="141"/>
+      <c r="B135" s="143"/>
       <c r="C135" s="58" t="s">
         <v>43</v>
       </c>
@@ -15124,7 +15164,7 @@
       <c r="U135" s="119"/>
     </row>
     <row r="136" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="141"/>
+      <c r="B136" s="143"/>
       <c r="C136" s="58" t="s">
         <v>43</v>
       </c>
@@ -15166,7 +15206,7 @@
       <c r="U136" s="119"/>
     </row>
     <row r="137" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="141"/>
+      <c r="B137" s="143"/>
       <c r="C137" s="58" t="s">
         <v>43</v>
       </c>
@@ -15208,7 +15248,7 @@
       <c r="U137" s="119"/>
     </row>
     <row r="138" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="141"/>
+      <c r="B138" s="143"/>
       <c r="C138" s="58" t="s">
         <v>43</v>
       </c>
@@ -15250,7 +15290,7 @@
       <c r="U138" s="119"/>
     </row>
     <row r="139" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="141"/>
+      <c r="B139" s="143"/>
       <c r="C139" s="58" t="s">
         <v>43</v>
       </c>
@@ -15292,7 +15332,7 @@
       <c r="U139" s="119"/>
     </row>
     <row r="140" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="141"/>
+      <c r="B140" s="143"/>
       <c r="C140" s="58" t="s">
         <v>43</v>
       </c>
@@ -15334,7 +15374,7 @@
       <c r="U140" s="119"/>
     </row>
     <row r="141" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="141"/>
+      <c r="B141" s="143"/>
       <c r="C141" s="58" t="s">
         <v>43</v>
       </c>
@@ -15376,7 +15416,7 @@
       <c r="U141" s="119"/>
     </row>
     <row r="142" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="143"/>
+      <c r="B142" s="145"/>
       <c r="C142" s="58" t="s">
         <v>43</v>
       </c>
@@ -15418,7 +15458,7 @@
       <c r="U142" s="119"/>
     </row>
     <row r="143" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="140">
+      <c r="B143" s="142">
         <v>18</v>
       </c>
       <c r="C143" s="42" t="s">
@@ -15461,7 +15501,7 @@
       <c r="V143" s="10"/>
     </row>
     <row r="144" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="141"/>
+      <c r="B144" s="143"/>
       <c r="C144" s="42" t="s">
         <v>44</v>
       </c>
@@ -15502,7 +15542,7 @@
       <c r="V144" s="10"/>
     </row>
     <row r="145" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="141"/>
+      <c r="B145" s="143"/>
       <c r="C145" s="42" t="s">
         <v>44</v>
       </c>
@@ -15543,7 +15583,7 @@
       <c r="V145" s="10"/>
     </row>
     <row r="146" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="141"/>
+      <c r="B146" s="143"/>
       <c r="C146" s="42" t="s">
         <v>44</v>
       </c>
@@ -15584,7 +15624,7 @@
       <c r="V146" s="10"/>
     </row>
     <row r="147" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="141"/>
+      <c r="B147" s="143"/>
       <c r="C147" s="42" t="s">
         <v>44</v>
       </c>
@@ -15625,7 +15665,7 @@
       <c r="V147" s="10"/>
     </row>
     <row r="148" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="141"/>
+      <c r="B148" s="143"/>
       <c r="C148" s="42" t="s">
         <v>44</v>
       </c>
@@ -15666,7 +15706,7 @@
       <c r="V148" s="10"/>
     </row>
     <row r="149" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="141"/>
+      <c r="B149" s="143"/>
       <c r="C149" s="42" t="s">
         <v>44</v>
       </c>
@@ -15707,7 +15747,7 @@
       <c r="V149" s="10"/>
     </row>
     <row r="150" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="141"/>
+      <c r="B150" s="143"/>
       <c r="C150" s="42" t="s">
         <v>44</v>
       </c>
@@ -15748,7 +15788,7 @@
       <c r="V150" s="10"/>
     </row>
     <row r="151" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="143"/>
+      <c r="B151" s="145"/>
       <c r="C151" s="42" t="s">
         <v>44</v>
       </c>
@@ -15789,7 +15829,7 @@
       <c r="V151" s="10"/>
     </row>
     <row r="152" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="140">
+      <c r="B152" s="142">
         <v>19</v>
       </c>
       <c r="C152" s="58" t="s">
@@ -15833,7 +15873,7 @@
       <c r="U152" s="119"/>
     </row>
     <row r="153" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="141"/>
+      <c r="B153" s="143"/>
       <c r="C153" s="58" t="s">
         <v>45</v>
       </c>
@@ -15875,7 +15915,7 @@
       <c r="U153" s="119"/>
     </row>
     <row r="154" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="141"/>
+      <c r="B154" s="143"/>
       <c r="C154" s="58" t="s">
         <v>45</v>
       </c>
@@ -15917,7 +15957,7 @@
       <c r="U154" s="119"/>
     </row>
     <row r="155" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="141"/>
+      <c r="B155" s="143"/>
       <c r="C155" s="58" t="s">
         <v>45</v>
       </c>
@@ -15959,7 +15999,7 @@
       <c r="U155" s="119"/>
     </row>
     <row r="156" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="141"/>
+      <c r="B156" s="143"/>
       <c r="C156" s="58" t="s">
         <v>45</v>
       </c>
@@ -16001,7 +16041,7 @@
       <c r="U156" s="119"/>
     </row>
     <row r="157" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="141"/>
+      <c r="B157" s="143"/>
       <c r="C157" s="58" t="s">
         <v>45</v>
       </c>
@@ -16043,7 +16083,7 @@
       <c r="U157" s="119"/>
     </row>
     <row r="158" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="141"/>
+      <c r="B158" s="143"/>
       <c r="C158" s="58" t="s">
         <v>45</v>
       </c>
@@ -16085,7 +16125,7 @@
       <c r="U158" s="119"/>
     </row>
     <row r="159" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="141"/>
+      <c r="B159" s="143"/>
       <c r="C159" s="58" t="s">
         <v>45</v>
       </c>
@@ -16127,7 +16167,7 @@
       <c r="U159" s="119"/>
     </row>
     <row r="160" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="143"/>
+      <c r="B160" s="145"/>
       <c r="C160" s="58" t="s">
         <v>45</v>
       </c>
@@ -16169,7 +16209,7 @@
       <c r="U160" s="119"/>
     </row>
     <row r="161" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="140">
+      <c r="B161" s="142">
         <v>20</v>
       </c>
       <c r="C161" s="42" t="s">
@@ -16211,7 +16251,7 @@
       <c r="U161" s="120"/>
     </row>
     <row r="162" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="141"/>
+      <c r="B162" s="143"/>
       <c r="C162" s="42" t="s">
         <v>46</v>
       </c>
@@ -16251,7 +16291,7 @@
       <c r="U162" s="120"/>
     </row>
     <row r="163" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="141"/>
+      <c r="B163" s="143"/>
       <c r="C163" s="42" t="s">
         <v>46</v>
       </c>
@@ -16291,7 +16331,7 @@
       <c r="U163" s="120"/>
     </row>
     <row r="164" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="141"/>
+      <c r="B164" s="143"/>
       <c r="C164" s="42" t="s">
         <v>46</v>
       </c>
@@ -16331,7 +16371,7 @@
       <c r="U164" s="120"/>
     </row>
     <row r="165" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="141"/>
+      <c r="B165" s="143"/>
       <c r="C165" s="42" t="s">
         <v>46</v>
       </c>
@@ -16371,7 +16411,7 @@
       <c r="U165" s="120"/>
     </row>
     <row r="166" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="143"/>
+      <c r="B166" s="145"/>
       <c r="C166" s="42" t="s">
         <v>46</v>
       </c>
@@ -16411,7 +16451,7 @@
       <c r="U166" s="120"/>
     </row>
     <row r="167" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="140">
+      <c r="B167" s="142">
         <v>21</v>
       </c>
       <c r="C167" s="58" t="s">
@@ -16455,7 +16495,7 @@
       <c r="U167" s="119"/>
     </row>
     <row r="168" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="141"/>
+      <c r="B168" s="143"/>
       <c r="C168" s="58" t="s">
         <v>48</v>
       </c>
@@ -16497,7 +16537,7 @@
       <c r="U168" s="119"/>
     </row>
     <row r="169" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="141"/>
+      <c r="B169" s="143"/>
       <c r="C169" s="58" t="s">
         <v>48</v>
       </c>
@@ -16539,7 +16579,7 @@
       <c r="U169" s="119"/>
     </row>
     <row r="170" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="141"/>
+      <c r="B170" s="143"/>
       <c r="C170" s="58" t="s">
         <v>48</v>
       </c>
@@ -16581,7 +16621,7 @@
       <c r="U170" s="119"/>
     </row>
     <row r="171" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="141"/>
+      <c r="B171" s="143"/>
       <c r="C171" s="58" t="s">
         <v>48</v>
       </c>
@@ -16623,7 +16663,7 @@
       <c r="U171" s="119"/>
     </row>
     <row r="172" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="141"/>
+      <c r="B172" s="143"/>
       <c r="C172" s="58" t="s">
         <v>48</v>
       </c>
@@ -16665,7 +16705,7 @@
       <c r="U172" s="119"/>
     </row>
     <row r="173" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="143"/>
+      <c r="B173" s="145"/>
       <c r="C173" s="58" t="s">
         <v>48</v>
       </c>
@@ -16707,7 +16747,7 @@
       <c r="U173" s="119"/>
     </row>
     <row r="174" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="140">
+      <c r="B174" s="142">
         <v>22</v>
       </c>
       <c r="C174" s="42" t="s">
@@ -16751,7 +16791,7 @@
       <c r="U174" s="120"/>
     </row>
     <row r="175" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="141"/>
+      <c r="B175" s="143"/>
       <c r="C175" s="42" t="s">
         <v>49</v>
       </c>
@@ -16793,7 +16833,7 @@
       <c r="U175" s="120"/>
     </row>
     <row r="176" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="141"/>
+      <c r="B176" s="143"/>
       <c r="C176" s="42" t="s">
         <v>49</v>
       </c>
@@ -16835,7 +16875,7 @@
       <c r="U176" s="120"/>
     </row>
     <row r="177" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="141"/>
+      <c r="B177" s="143"/>
       <c r="C177" s="42" t="s">
         <v>49</v>
       </c>
@@ -16877,7 +16917,7 @@
       <c r="U177" s="120"/>
     </row>
     <row r="178" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="141"/>
+      <c r="B178" s="143"/>
       <c r="C178" s="42" t="s">
         <v>49</v>
       </c>
@@ -16919,7 +16959,7 @@
       <c r="U178" s="120"/>
     </row>
     <row r="179" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="141"/>
+      <c r="B179" s="143"/>
       <c r="C179" s="42" t="s">
         <v>49</v>
       </c>
@@ -16961,7 +17001,7 @@
       <c r="U179" s="120"/>
     </row>
     <row r="180" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="141"/>
+      <c r="B180" s="143"/>
       <c r="C180" s="42" t="s">
         <v>49</v>
       </c>
@@ -17003,7 +17043,7 @@
       <c r="U180" s="120"/>
     </row>
     <row r="181" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="141"/>
+      <c r="B181" s="143"/>
       <c r="C181" s="42" t="s">
         <v>49</v>
       </c>
@@ -17045,7 +17085,7 @@
       <c r="U181" s="120"/>
     </row>
     <row r="182" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="143"/>
+      <c r="B182" s="145"/>
       <c r="C182" s="42" t="s">
         <v>49</v>
       </c>
@@ -17087,7 +17127,7 @@
       <c r="U182" s="120"/>
     </row>
     <row r="183" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="140">
+      <c r="B183" s="142">
         <v>23</v>
       </c>
       <c r="C183" s="58" t="s">
@@ -17131,7 +17171,7 @@
       <c r="U183" s="119"/>
     </row>
     <row r="184" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="141"/>
+      <c r="B184" s="143"/>
       <c r="C184" s="58" t="s">
         <v>50</v>
       </c>
@@ -17173,7 +17213,7 @@
       <c r="U184" s="119"/>
     </row>
     <row r="185" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="141"/>
+      <c r="B185" s="143"/>
       <c r="C185" s="58" t="s">
         <v>50</v>
       </c>
@@ -17215,7 +17255,7 @@
       <c r="U185" s="119"/>
     </row>
     <row r="186" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="141"/>
+      <c r="B186" s="143"/>
       <c r="C186" s="58" t="s">
         <v>50</v>
       </c>
@@ -17257,7 +17297,7 @@
       <c r="U186" s="119"/>
     </row>
     <row r="187" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="141"/>
+      <c r="B187" s="143"/>
       <c r="C187" s="58" t="s">
         <v>50</v>
       </c>
@@ -17299,7 +17339,7 @@
       <c r="U187" s="119"/>
     </row>
     <row r="188" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="141"/>
+      <c r="B188" s="143"/>
       <c r="C188" s="58" t="s">
         <v>50</v>
       </c>
@@ -17341,7 +17381,7 @@
       <c r="U188" s="119"/>
     </row>
     <row r="189" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="141"/>
+      <c r="B189" s="143"/>
       <c r="C189" s="58" t="s">
         <v>50</v>
       </c>
@@ -17383,7 +17423,7 @@
       <c r="U189" s="119"/>
     </row>
     <row r="190" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="143"/>
+      <c r="B190" s="145"/>
       <c r="C190" s="58" t="s">
         <v>50</v>
       </c>
@@ -17425,7 +17465,7 @@
       <c r="U190" s="119"/>
     </row>
     <row r="191" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="140">
+      <c r="B191" s="142">
         <v>24</v>
       </c>
       <c r="C191" s="42" t="s">
@@ -17469,7 +17509,7 @@
       <c r="U191" s="120"/>
     </row>
     <row r="192" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="141"/>
+      <c r="B192" s="143"/>
       <c r="C192" s="42" t="s">
         <v>51</v>
       </c>
@@ -17511,7 +17551,7 @@
       <c r="U192" s="120"/>
     </row>
     <row r="193" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="141"/>
+      <c r="B193" s="143"/>
       <c r="C193" s="42" t="s">
         <v>51</v>
       </c>
@@ -17553,7 +17593,7 @@
       <c r="U193" s="120"/>
     </row>
     <row r="194" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="141"/>
+      <c r="B194" s="143"/>
       <c r="C194" s="42" t="s">
         <v>51</v>
       </c>
@@ -17595,7 +17635,7 @@
       <c r="U194" s="120"/>
     </row>
     <row r="195" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="141"/>
+      <c r="B195" s="143"/>
       <c r="C195" s="42" t="s">
         <v>51</v>
       </c>
@@ -17637,7 +17677,7 @@
       <c r="U195" s="120"/>
     </row>
     <row r="196" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="141"/>
+      <c r="B196" s="143"/>
       <c r="C196" s="42" t="s">
         <v>51</v>
       </c>
@@ -17679,7 +17719,7 @@
       <c r="U196" s="120"/>
     </row>
     <row r="197" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="141"/>
+      <c r="B197" s="143"/>
       <c r="C197" s="42" t="s">
         <v>51</v>
       </c>
@@ -17721,7 +17761,7 @@
       <c r="U197" s="120"/>
     </row>
     <row r="198" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="141"/>
+      <c r="B198" s="143"/>
       <c r="C198" s="42" t="s">
         <v>51</v>
       </c>
@@ -17763,7 +17803,7 @@
       <c r="U198" s="120"/>
     </row>
     <row r="199" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="143"/>
+      <c r="B199" s="145"/>
       <c r="C199" s="42" t="s">
         <v>51</v>
       </c>
@@ -17805,7 +17845,7 @@
       <c r="U199" s="120"/>
     </row>
     <row r="200" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="140">
+      <c r="B200" s="142">
         <v>25</v>
       </c>
       <c r="C200" s="58" t="s">
@@ -17847,7 +17887,7 @@
       <c r="U200" s="119"/>
     </row>
     <row r="201" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="141"/>
+      <c r="B201" s="143"/>
       <c r="C201" s="58" t="s">
         <v>47</v>
       </c>
@@ -17887,7 +17927,7 @@
       <c r="U201" s="119"/>
     </row>
     <row r="202" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="141"/>
+      <c r="B202" s="143"/>
       <c r="C202" s="58" t="s">
         <v>47</v>
       </c>
@@ -17927,7 +17967,7 @@
       <c r="U202" s="119"/>
     </row>
     <row r="203" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="141"/>
+      <c r="B203" s="143"/>
       <c r="C203" s="58" t="s">
         <v>47</v>
       </c>
@@ -17967,7 +18007,7 @@
       <c r="U203" s="119"/>
     </row>
     <row r="204" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="143"/>
+      <c r="B204" s="145"/>
       <c r="C204" s="67" t="s">
         <v>47</v>
       </c>
@@ -18007,7 +18047,7 @@
       <c r="U204" s="121"/>
     </row>
     <row r="205" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="140">
+      <c r="B205" s="142">
         <v>26</v>
       </c>
       <c r="C205" s="71" t="s">
@@ -18035,7 +18075,7 @@
       <c r="U205" s="122"/>
     </row>
     <row r="206" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="141"/>
+      <c r="B206" s="143"/>
       <c r="C206" s="42" t="s">
         <v>100</v>
       </c>
@@ -18061,7 +18101,7 @@
       <c r="U206" s="120"/>
     </row>
     <row r="207" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="141"/>
+      <c r="B207" s="143"/>
       <c r="C207" s="42" t="s">
         <v>100</v>
       </c>
@@ -18087,7 +18127,7 @@
       <c r="U207" s="120"/>
     </row>
     <row r="208" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="141"/>
+      <c r="B208" s="143"/>
       <c r="C208" s="42" t="s">
         <v>100</v>
       </c>
@@ -18113,7 +18153,7 @@
       <c r="U208" s="120"/>
     </row>
     <row r="209" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="143"/>
+      <c r="B209" s="145"/>
       <c r="C209" s="42" t="s">
         <v>100</v>
       </c>
@@ -18139,7 +18179,7 @@
       <c r="U209" s="120"/>
     </row>
     <row r="210" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="145">
+      <c r="B210" s="147">
         <v>27</v>
       </c>
       <c r="C210" s="58" t="s">
@@ -18167,7 +18207,7 @@
       <c r="U210" s="119"/>
     </row>
     <row r="211" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="145"/>
+      <c r="B211" s="147"/>
       <c r="C211" s="58" t="s">
         <v>102</v>
       </c>
@@ -18193,7 +18233,7 @@
       <c r="U211" s="119"/>
     </row>
     <row r="212" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="145"/>
+      <c r="B212" s="147"/>
       <c r="C212" s="58" t="s">
         <v>102</v>
       </c>
@@ -18219,7 +18259,7 @@
       <c r="U212" s="119"/>
     </row>
     <row r="213" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="145"/>
+      <c r="B213" s="147"/>
       <c r="C213" s="58" t="s">
         <v>102</v>
       </c>
@@ -18245,7 +18285,7 @@
       <c r="U213" s="119"/>
     </row>
     <row r="214" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="146"/>
+      <c r="B214" s="148"/>
       <c r="C214" s="59" t="s">
         <v>102</v>
       </c>
@@ -18272,20 +18312,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="B108:B117"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="B58:B66"/>
     <mergeCell ref="B67:B76"/>
     <mergeCell ref="B77:B85"/>
     <mergeCell ref="B86:B92"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B99:B107"/>
     <mergeCell ref="B210:B214"/>
     <mergeCell ref="B200:B204"/>
     <mergeCell ref="B205:B209"/>
     <mergeCell ref="B118:B121"/>
     <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B108:B117"/>
     <mergeCell ref="B167:B173"/>
     <mergeCell ref="B174:B182"/>
     <mergeCell ref="B183:B190"/>
@@ -18294,6 +18333,7 @@
     <mergeCell ref="B134:B142"/>
     <mergeCell ref="B143:B151"/>
     <mergeCell ref="B152:B160"/>
+    <mergeCell ref="B161:B166"/>
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="B17:B22"/>
@@ -18349,31 +18389,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="149" t="s">
+      <c r="T4" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="153"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
@@ -18683,31 +18723,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="149" t="s">
+      <c r="T4" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="153"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">

--- a/DBMetrics.xlsx
+++ b/DBMetrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -429,10 +430,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1598,43 +1601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
@@ -1782,6 +1748,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1827,7 +1832,7 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2183,83 +2188,101 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="42" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="42" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="42" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="42" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="0" fillId="39" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3007,11 +3030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30814704"/>
-        <c:axId val="-30815248"/>
+        <c:axId val="-871376528"/>
+        <c:axId val="-871370000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30814704"/>
+        <c:axId val="-871376528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,7 +3132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30815248"/>
+        <c:crossAx val="-871370000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3117,7 +3140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30815248"/>
+        <c:axId val="-871370000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30814704"/>
+        <c:crossAx val="-871376528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3975,11 +3998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30817424"/>
-        <c:axId val="-30822864"/>
+        <c:axId val="-871367824"/>
+        <c:axId val="-871366736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30817424"/>
+        <c:axId val="-871367824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,7 +4100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30822864"/>
+        <c:crossAx val="-871366736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4085,7 +4108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30822864"/>
+        <c:axId val="-871366736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30817424"/>
+        <c:crossAx val="-871367824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4943,11 +4966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30816880"/>
-        <c:axId val="-30814160"/>
+        <c:axId val="-871375984"/>
+        <c:axId val="-878858656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30816880"/>
+        <c:axId val="-871375984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,7 +5068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30814160"/>
+        <c:crossAx val="-878858656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30814160"/>
+        <c:axId val="-878858656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5159,7 +5182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30816880"/>
+        <c:crossAx val="-871375984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5911,11 +5934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-30812528"/>
-        <c:axId val="-30811440"/>
+        <c:axId val="-878854304"/>
+        <c:axId val="-878865728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-30812528"/>
+        <c:axId val="-878854304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6013,7 +6036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30811440"/>
+        <c:crossAx val="-878865728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6021,7 +6044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-30811440"/>
+        <c:axId val="-878865728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,7 +6150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-30812528"/>
+        <c:crossAx val="-878854304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8809,8 +8832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O203" sqref="O203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8883,25 +8906,25 @@
       <c r="U4" s="53"/>
     </row>
     <row r="5" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
       <c r="U5" s="54"/>
     </row>
     <row r="6" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9013,93 +9036,93 @@
       </c>
     </row>
     <row r="8" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142">
+      <c r="B8" s="151">
         <v>1</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="131">
         <v>246</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="131">
         <v>206</v>
       </c>
-      <c r="G8" s="134">
+      <c r="G8" s="131">
         <v>29.7399163312021</v>
       </c>
-      <c r="H8" s="134">
+      <c r="H8" s="131">
         <v>89.883968742600004</v>
       </c>
-      <c r="I8" s="134">
+      <c r="I8" s="131">
         <v>13.238989091000001</v>
       </c>
-      <c r="J8" s="135">
+      <c r="J8" s="132">
         <v>93.089430894308904</v>
       </c>
-      <c r="K8" s="136">
+      <c r="K8" s="133">
         <v>229</v>
       </c>
-      <c r="L8" s="137">
+      <c r="L8" s="134">
         <v>10</v>
       </c>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="139"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="136"/>
     </row>
     <row r="9" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="141"/>
-      <c r="C9" s="124" t="s">
+      <c r="B9" s="147"/>
+      <c r="C9" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="123">
         <v>246</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="123">
         <v>206</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="123">
         <v>29.7399163312021</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="123">
         <v>89.883968742600004</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="123">
         <v>13.238989091000001</v>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="124">
         <v>93.089430894308904</v>
       </c>
-      <c r="K9" s="128">
+      <c r="K9" s="125">
         <v>229</v>
       </c>
-      <c r="L9" s="129">
+      <c r="L9" s="126">
         <v>20</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="131"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="128"/>
     </row>
     <row r="10" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="58" t="s">
         <v>32</v>
       </c>
@@ -9153,7 +9176,7 @@
       <c r="U10" s="117"/>
     </row>
     <row r="11" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="58" t="s">
         <v>32</v>
       </c>
@@ -9207,7 +9230,7 @@
       <c r="U11" s="117"/>
     </row>
     <row r="12" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="58" t="s">
         <v>32</v>
       </c>
@@ -9261,7 +9284,7 @@
       <c r="U12" s="117"/>
     </row>
     <row r="13" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="58" t="s">
         <v>32</v>
       </c>
@@ -9315,7 +9338,7 @@
       <c r="U13" s="117"/>
     </row>
     <row r="14" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="141"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="58" t="s">
         <v>32</v>
       </c>
@@ -9376,7 +9399,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="141"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="58" t="s">
         <v>32</v>
       </c>
@@ -9437,7 +9460,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="143"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="58" t="s">
         <v>32</v>
       </c>
@@ -9498,7 +9521,7 @@
       </c>
     </row>
     <row r="17" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="140">
+      <c r="B17" s="146">
         <v>2</v>
       </c>
       <c r="C17" s="42" t="s">
@@ -9561,7 +9584,7 @@
       </c>
     </row>
     <row r="18" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="42" t="s">
         <v>33</v>
       </c>
@@ -9622,7 +9645,7 @@
       </c>
     </row>
     <row r="19" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="42" t="s">
         <v>33</v>
       </c>
@@ -9683,7 +9706,7 @@
       </c>
     </row>
     <row r="20" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="141"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="42" t="s">
         <v>33</v>
       </c>
@@ -9744,7 +9767,7 @@
       </c>
     </row>
     <row r="21" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="141"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="42" t="s">
         <v>33</v>
       </c>
@@ -9805,7 +9828,7 @@
       </c>
     </row>
     <row r="22" spans="2:21" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="143"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="42" t="s">
         <v>33</v>
       </c>
@@ -9866,7 +9889,7 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140">
+      <c r="B23" s="146">
         <v>3</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -9929,7 +9952,7 @@
       </c>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="58" t="s">
         <v>4</v>
       </c>
@@ -9990,7 +10013,7 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="58" t="s">
         <v>4</v>
       </c>
@@ -10051,7 +10074,7 @@
       </c>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="141"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="58" t="s">
         <v>4</v>
       </c>
@@ -10112,7 +10135,7 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="141"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="58" t="s">
         <v>4</v>
       </c>
@@ -10173,7 +10196,7 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="141"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="58" t="s">
         <v>4</v>
       </c>
@@ -10234,7 +10257,7 @@
       </c>
     </row>
     <row r="29" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="141"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="58" t="s">
         <v>4</v>
       </c>
@@ -10295,7 +10318,7 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="141"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="58" t="s">
         <v>4</v>
       </c>
@@ -10356,7 +10379,7 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="141"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="58" t="s">
         <v>4</v>
       </c>
@@ -10417,7 +10440,7 @@
       </c>
     </row>
     <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="143"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="58" t="s">
         <v>4</v>
       </c>
@@ -10478,7 +10501,7 @@
       </c>
     </row>
     <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="140">
+      <c r="B33" s="146">
         <v>4</v>
       </c>
       <c r="C33" s="42" t="s">
@@ -10525,7 +10548,7 @@
       </c>
     </row>
     <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="141"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="42" t="s">
         <v>34</v>
       </c>
@@ -10570,7 +10593,7 @@
       </c>
     </row>
     <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="141"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="42" t="s">
         <v>34</v>
       </c>
@@ -10615,7 +10638,7 @@
       </c>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="141"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="42" t="s">
         <v>34</v>
       </c>
@@ -10660,7 +10683,7 @@
       </c>
     </row>
     <row r="37" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="141"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="42" t="s">
         <v>34</v>
       </c>
@@ -10705,7 +10728,7 @@
       </c>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="141"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="42" t="s">
         <v>34</v>
       </c>
@@ -10750,7 +10773,7 @@
       </c>
     </row>
     <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="141"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="42" t="s">
         <v>34</v>
       </c>
@@ -10811,7 +10834,7 @@
       </c>
     </row>
     <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="141"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="42" t="s">
         <v>34</v>
       </c>
@@ -10872,7 +10895,7 @@
       </c>
     </row>
     <row r="41" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="141"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="42" t="s">
         <v>34</v>
       </c>
@@ -10928,12 +10951,12 @@
         <v>2.1120000000000001</v>
       </c>
       <c r="U41" s="118">
-        <f t="shared" ref="U41:U66" si="3">S41-T41</f>
+        <f t="shared" ref="U41:U76" si="3">S41-T41</f>
         <v>3.1821176470588197</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="145">
+      <c r="B42" s="149">
         <v>5</v>
       </c>
       <c r="C42" s="58" t="s">
@@ -10980,7 +11003,7 @@
       </c>
     </row>
     <row r="43" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="145"/>
+      <c r="B43" s="149"/>
       <c r="C43" s="58" t="s">
         <v>35</v>
       </c>
@@ -11025,7 +11048,7 @@
       </c>
     </row>
     <row r="44" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="145"/>
+      <c r="B44" s="149"/>
       <c r="C44" s="58" t="s">
         <v>35</v>
       </c>
@@ -11070,7 +11093,7 @@
       </c>
     </row>
     <row r="45" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="145"/>
+      <c r="B45" s="149"/>
       <c r="C45" s="58" t="s">
         <v>35</v>
       </c>
@@ -11115,7 +11138,7 @@
       </c>
     </row>
     <row r="46" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
+      <c r="B46" s="149"/>
       <c r="C46" s="58" t="s">
         <v>35</v>
       </c>
@@ -11160,7 +11183,7 @@
       </c>
     </row>
     <row r="47" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="58" t="s">
         <v>35</v>
       </c>
@@ -11221,7 +11244,7 @@
       </c>
     </row>
     <row r="48" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="140">
+      <c r="B48" s="146">
         <v>6</v>
       </c>
       <c r="C48" s="42" t="s">
@@ -11260,15 +11283,15 @@
       <c r="P48" s="43"/>
       <c r="Q48" s="43"/>
       <c r="R48" s="113"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
+      <c r="S48" s="143"/>
+      <c r="T48" s="143"/>
       <c r="U48" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="141"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="42" t="s">
         <v>5</v>
       </c>
@@ -11317,10 +11340,10 @@
       <c r="R49" s="113">
         <v>1182</v>
       </c>
-      <c r="S49" s="43">
+      <c r="S49" s="143">
         <v>2</v>
       </c>
-      <c r="T49" s="43">
+      <c r="T49" s="143">
         <v>2</v>
       </c>
       <c r="U49" s="118">
@@ -11329,7 +11352,7 @@
       </c>
     </row>
     <row r="50" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="141"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="42" t="s">
         <v>5</v>
       </c>
@@ -11366,15 +11389,15 @@
       <c r="P50" s="43"/>
       <c r="Q50" s="43"/>
       <c r="R50" s="113"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
+      <c r="S50" s="143"/>
+      <c r="T50" s="143"/>
       <c r="U50" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="141"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="42" t="s">
         <v>5</v>
       </c>
@@ -11423,10 +11446,10 @@
       <c r="R51" s="113">
         <v>1029</v>
       </c>
-      <c r="S51" s="43">
+      <c r="S51" s="143">
         <v>1.23684210526315</v>
       </c>
-      <c r="T51" s="43">
+      <c r="T51" s="143">
         <v>1.9961127308066</v>
       </c>
       <c r="U51" s="118">
@@ -11435,7 +11458,7 @@
       </c>
     </row>
     <row r="52" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="141"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="42" t="s">
         <v>5</v>
       </c>
@@ -11472,15 +11495,15 @@
       <c r="P52" s="43"/>
       <c r="Q52" s="43"/>
       <c r="R52" s="113"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
+      <c r="S52" s="143"/>
+      <c r="T52" s="143"/>
       <c r="U52" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="141"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="42" t="s">
         <v>5</v>
       </c>
@@ -11529,10 +11552,10 @@
       <c r="R53" s="113">
         <v>715</v>
       </c>
-      <c r="S53" s="43">
+      <c r="S53" s="143">
         <v>1</v>
       </c>
-      <c r="T53" s="43">
+      <c r="T53" s="143">
         <v>1.98321678321678</v>
       </c>
       <c r="U53" s="118">
@@ -11541,7 +11564,7 @@
       </c>
     </row>
     <row r="54" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="141"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="42" t="s">
         <v>5</v>
       </c>
@@ -11578,15 +11601,15 @@
       <c r="P54" s="43"/>
       <c r="Q54" s="43"/>
       <c r="R54" s="113"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="143"/>
       <c r="U54" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="141"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="42" t="s">
         <v>5</v>
       </c>
@@ -11635,10 +11658,10 @@
       <c r="R55" s="113">
         <v>169</v>
       </c>
-      <c r="S55" s="43">
+      <c r="S55" s="143">
         <v>1</v>
       </c>
-      <c r="T55" s="43">
+      <c r="T55" s="143">
         <v>1.8047337278106499</v>
       </c>
       <c r="U55" s="118">
@@ -11647,7 +11670,7 @@
       </c>
     </row>
     <row r="56" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="141"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="42" t="s">
         <v>5</v>
       </c>
@@ -11684,15 +11707,15 @@
       <c r="P56" s="43"/>
       <c r="Q56" s="43"/>
       <c r="R56" s="113"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
+      <c r="S56" s="143"/>
+      <c r="T56" s="143"/>
       <c r="U56" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="143"/>
+      <c r="B57" s="148"/>
       <c r="C57" s="42" t="s">
         <v>5</v>
       </c>
@@ -11741,10 +11764,10 @@
       <c r="R57" s="113">
         <v>49</v>
       </c>
-      <c r="S57" s="43">
+      <c r="S57" s="143">
         <v>1</v>
       </c>
-      <c r="T57" s="43">
+      <c r="T57" s="143">
         <v>1.0204081632652999</v>
       </c>
       <c r="U57" s="118">
@@ -11753,7 +11776,7 @@
       </c>
     </row>
     <row r="58" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="140">
+      <c r="B58" s="146">
         <v>7</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -11792,7 +11815,7 @@
       <c r="P58" s="49"/>
       <c r="Q58" s="49"/>
       <c r="R58" s="112"/>
-      <c r="S58" s="49"/>
+      <c r="S58" s="137"/>
       <c r="T58" s="49"/>
       <c r="U58" s="117">
         <f t="shared" si="3"/>
@@ -11800,7 +11823,7 @@
       </c>
     </row>
     <row r="59" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="141"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="58" t="s">
         <v>36</v>
       </c>
@@ -11831,21 +11854,37 @@
       <c r="L59" s="58">
         <v>20</v>
       </c>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
+      <c r="M59" s="49">
+        <v>53583</v>
+      </c>
+      <c r="N59" s="138">
+        <v>22.695940970071401</v>
+      </c>
+      <c r="O59" s="138">
+        <v>7.11124797043838</v>
+      </c>
+      <c r="P59" s="49">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="49">
+        <v>158</v>
+      </c>
+      <c r="R59" s="112">
+        <v>1015</v>
+      </c>
+      <c r="S59" s="138">
+        <v>6.4936708860759396</v>
+      </c>
+      <c r="T59" s="138">
+        <v>2.4837438423645302</v>
+      </c>
       <c r="U59" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.009927043711409</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="141"/>
+      <c r="B60" s="147"/>
       <c r="C60" s="58" t="s">
         <v>36</v>
       </c>
@@ -11876,21 +11915,37 @@
       <c r="L60" s="58">
         <v>30</v>
       </c>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="112"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
+      <c r="M60" s="49">
+        <v>2735</v>
+      </c>
+      <c r="N60" s="138">
+        <v>36.869386691042202</v>
+      </c>
+      <c r="O60" s="138">
+        <v>4.5148080438756804</v>
+      </c>
+      <c r="P60" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="49">
+        <v>63</v>
+      </c>
+      <c r="R60" s="112">
+        <v>415</v>
+      </c>
+      <c r="S60" s="138">
+        <v>6.2698412698412698</v>
+      </c>
+      <c r="T60" s="138">
+        <v>2.2168674698795101</v>
+      </c>
       <c r="U60" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0529737999617597</v>
       </c>
     </row>
     <row r="61" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="141"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="58" t="s">
         <v>36</v>
       </c>
@@ -11924,10 +11979,10 @@
       <c r="M61" s="49">
         <v>565</v>
       </c>
-      <c r="N61" s="49">
+      <c r="N61" s="138">
         <v>49.0645433628316</v>
       </c>
-      <c r="O61" s="49">
+      <c r="O61" s="138">
         <v>3.4106194690265399</v>
       </c>
       <c r="P61" s="49">
@@ -11939,10 +11994,10 @@
       <c r="R61" s="112">
         <v>259</v>
       </c>
-      <c r="S61" s="49">
+      <c r="S61" s="138">
         <v>4.7804878048780397</v>
       </c>
-      <c r="T61" s="49">
+      <c r="T61" s="138">
         <v>1.88416988416988</v>
       </c>
       <c r="U61" s="117">
@@ -11951,7 +12006,7 @@
       </c>
     </row>
     <row r="62" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="141"/>
+      <c r="B62" s="147"/>
       <c r="C62" s="58" t="s">
         <v>36</v>
       </c>
@@ -11983,20 +12038,20 @@
         <v>50</v>
       </c>
       <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="138"/>
       <c r="P62" s="49"/>
       <c r="Q62" s="49"/>
       <c r="R62" s="112"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
+      <c r="S62" s="138"/>
+      <c r="T62" s="138"/>
       <c r="U62" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="141"/>
+      <c r="B63" s="147"/>
       <c r="C63" s="58" t="s">
         <v>36</v>
       </c>
@@ -12030,10 +12085,10 @@
       <c r="M63" s="49">
         <v>51</v>
       </c>
-      <c r="N63" s="49">
+      <c r="N63" s="138">
         <v>77.696678431372504</v>
       </c>
-      <c r="O63" s="49">
+      <c r="O63" s="138">
         <v>2.5098039215686199</v>
       </c>
       <c r="P63" s="49">
@@ -12045,10 +12100,10 @@
       <c r="R63" s="112">
         <v>123</v>
       </c>
-      <c r="S63" s="49">
+      <c r="S63" s="138">
         <v>3.6</v>
       </c>
-      <c r="T63" s="49">
+      <c r="T63" s="138">
         <v>1.1138211382113801</v>
       </c>
       <c r="U63" s="117">
@@ -12057,7 +12112,7 @@
       </c>
     </row>
     <row r="64" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="141"/>
+      <c r="B64" s="147"/>
       <c r="C64" s="58" t="s">
         <v>36</v>
       </c>
@@ -12089,20 +12144,20 @@
         <v>70</v>
       </c>
       <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
+      <c r="N64" s="138"/>
+      <c r="O64" s="138"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
       <c r="R64" s="112"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
+      <c r="S64" s="138"/>
+      <c r="T64" s="138"/>
       <c r="U64" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="141"/>
+      <c r="B65" s="147"/>
       <c r="C65" s="58" t="s">
         <v>36</v>
       </c>
@@ -12136,10 +12191,10 @@
       <c r="M65" s="49">
         <v>23</v>
       </c>
-      <c r="N65" s="49">
+      <c r="N65" s="138">
         <v>89.698808695652104</v>
       </c>
-      <c r="O65" s="49">
+      <c r="O65" s="138">
         <v>2.2608695652173898</v>
       </c>
       <c r="P65" s="49">
@@ -12151,10 +12206,10 @@
       <c r="R65" s="112">
         <v>115</v>
       </c>
-      <c r="S65" s="49">
+      <c r="S65" s="138">
         <v>4</v>
       </c>
-      <c r="T65" s="49">
+      <c r="T65" s="138">
         <v>1.0086956521739101</v>
       </c>
       <c r="U65" s="117">
@@ -12163,7 +12218,7 @@
       </c>
     </row>
     <row r="66" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="143"/>
+      <c r="B66" s="148"/>
       <c r="C66" s="58" t="s">
         <v>36</v>
       </c>
@@ -12197,10 +12252,10 @@
       <c r="M66" s="49">
         <v>9</v>
       </c>
-      <c r="N66" s="49">
+      <c r="N66" s="138">
         <v>96.542488888888798</v>
       </c>
-      <c r="O66" s="49">
+      <c r="O66" s="138">
         <v>1.6666666666666601</v>
       </c>
       <c r="P66" s="49">
@@ -12212,10 +12267,10 @@
       <c r="R66" s="112">
         <v>117</v>
       </c>
-      <c r="S66" s="49">
+      <c r="S66" s="138">
         <v>2.5</v>
       </c>
-      <c r="T66" s="49">
+      <c r="T66" s="138">
         <v>1.0170940170940099</v>
       </c>
       <c r="U66" s="117">
@@ -12224,7 +12279,7 @@
       </c>
     </row>
     <row r="67" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="140">
+      <c r="B67" s="146">
         <v>8</v>
       </c>
       <c r="C67" s="42" t="s">
@@ -12265,10 +12320,13 @@
       <c r="R67" s="113"/>
       <c r="S67" s="43"/>
       <c r="T67" s="43"/>
-      <c r="U67" s="120"/>
+      <c r="U67" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="141"/>
+      <c r="B68" s="147"/>
       <c r="C68" s="42" t="s">
         <v>6</v>
       </c>
@@ -12299,18 +12357,37 @@
       <c r="L68" s="42">
         <v>2</v>
       </c>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="113"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="120"/>
+      <c r="M68" s="43">
+        <v>124</v>
+      </c>
+      <c r="N68" s="43">
+        <v>4.6459274193548401</v>
+      </c>
+      <c r="O68" s="43">
+        <v>1.9193548387096699</v>
+      </c>
+      <c r="P68" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="43">
+        <v>26</v>
+      </c>
+      <c r="R68" s="113">
+        <v>1182</v>
+      </c>
+      <c r="S68" s="43">
+        <v>2</v>
+      </c>
+      <c r="T68" s="43">
+        <v>2</v>
+      </c>
+      <c r="U68" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="141"/>
+      <c r="B69" s="147"/>
       <c r="C69" s="42" t="s">
         <v>6</v>
       </c>
@@ -12349,10 +12426,13 @@
       <c r="R69" s="113"/>
       <c r="S69" s="43"/>
       <c r="T69" s="43"/>
-      <c r="U69" s="120"/>
+      <c r="U69" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="141"/>
+      <c r="B70" s="147"/>
       <c r="C70" s="42" t="s">
         <v>6</v>
       </c>
@@ -12383,18 +12463,37 @@
       <c r="L70" s="42">
         <v>4</v>
       </c>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="113"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="120"/>
+      <c r="M70" s="43">
+        <v>60</v>
+      </c>
+      <c r="N70" s="43">
+        <v>6.6721666666666604</v>
+      </c>
+      <c r="O70" s="43">
+        <v>1.18333333333333</v>
+      </c>
+      <c r="P70" s="43">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="43">
+        <v>42</v>
+      </c>
+      <c r="R70" s="113">
+        <v>1216</v>
+      </c>
+      <c r="S70" s="43">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="T70" s="43">
+        <v>2</v>
+      </c>
+      <c r="U70" s="118">
+        <f t="shared" si="3"/>
+        <v>-0.80952380952380998</v>
+      </c>
     </row>
     <row r="71" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="141"/>
+      <c r="B71" s="147"/>
       <c r="C71" s="42" t="s">
         <v>6</v>
       </c>
@@ -12433,10 +12532,13 @@
       <c r="R71" s="113"/>
       <c r="S71" s="43"/>
       <c r="T71" s="43"/>
-      <c r="U71" s="120"/>
+      <c r="U71" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="141"/>
+      <c r="B72" s="147"/>
       <c r="C72" s="42" t="s">
         <v>6</v>
       </c>
@@ -12467,18 +12569,37 @@
       <c r="L72" s="42">
         <v>6</v>
       </c>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="113"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="120"/>
+      <c r="M72" s="43">
+        <v>38</v>
+      </c>
+      <c r="N72" s="43">
+        <v>8.0107894736842002</v>
+      </c>
+      <c r="O72" s="43">
+        <v>1</v>
+      </c>
+      <c r="P72" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="43">
+        <v>38</v>
+      </c>
+      <c r="R72" s="113">
+        <v>715</v>
+      </c>
+      <c r="S72" s="43">
+        <v>1</v>
+      </c>
+      <c r="T72" s="43">
+        <v>1.98321678321678</v>
+      </c>
+      <c r="U72" s="118">
+        <f t="shared" si="3"/>
+        <v>-0.98321678321677997</v>
+      </c>
     </row>
     <row r="73" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="141"/>
+      <c r="B73" s="147"/>
       <c r="C73" s="42" t="s">
         <v>6</v>
       </c>
@@ -12517,10 +12638,13 @@
       <c r="R73" s="113"/>
       <c r="S73" s="43"/>
       <c r="T73" s="43"/>
-      <c r="U73" s="120"/>
+      <c r="U73" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="141"/>
+      <c r="B74" s="147"/>
       <c r="C74" s="42" t="s">
         <v>6</v>
       </c>
@@ -12551,18 +12675,37 @@
       <c r="L74" s="42">
         <v>8</v>
       </c>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="113"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="120"/>
+      <c r="M74" s="43">
+        <v>19</v>
+      </c>
+      <c r="N74" s="43">
+        <v>8.9213157894736792</v>
+      </c>
+      <c r="O74" s="43">
+        <v>1</v>
+      </c>
+      <c r="P74" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="43">
+        <v>19</v>
+      </c>
+      <c r="R74" s="113">
+        <v>202</v>
+      </c>
+      <c r="S74" s="43">
+        <v>1</v>
+      </c>
+      <c r="T74" s="43">
+        <v>1.84653465346534</v>
+      </c>
+      <c r="U74" s="118">
+        <f t="shared" si="3"/>
+        <v>-0.84653465346533996</v>
+      </c>
     </row>
     <row r="75" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="141"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="42" t="s">
         <v>6</v>
       </c>
@@ -12598,13 +12741,16 @@
       <c r="O75" s="43"/>
       <c r="P75" s="43"/>
       <c r="Q75" s="43"/>
-      <c r="R75" s="113"/>
+      <c r="R75" s="43"/>
       <c r="S75" s="43"/>
       <c r="T75" s="43"/>
-      <c r="U75" s="120"/>
+      <c r="U75" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="143"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="42" t="s">
         <v>6</v>
       </c>
@@ -12635,18 +12781,37 @@
       <c r="L76" s="42">
         <v>10</v>
       </c>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="113"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="120"/>
+      <c r="M76" s="43">
+        <v>2</v>
+      </c>
+      <c r="N76" s="43">
+        <v>10.672499999999999</v>
+      </c>
+      <c r="O76" s="43">
+        <v>1</v>
+      </c>
+      <c r="P76" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="43">
+        <v>2</v>
+      </c>
+      <c r="R76" s="113">
+        <v>49</v>
+      </c>
+      <c r="S76" s="43">
+        <v>1</v>
+      </c>
+      <c r="T76" s="43">
+        <v>1.0204081632652999</v>
+      </c>
+      <c r="U76" s="118">
+        <f t="shared" si="3"/>
+        <v>-2.0408163265299928E-2</v>
+      </c>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="140">
+      <c r="B77" s="146">
         <v>9</v>
       </c>
       <c r="C77" s="58" t="s">
@@ -12690,7 +12855,7 @@
       <c r="U77" s="119"/>
     </row>
     <row r="78" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="141"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="58" t="s">
         <v>37</v>
       </c>
@@ -12732,7 +12897,7 @@
       <c r="U78" s="119"/>
     </row>
     <row r="79" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="141"/>
+      <c r="B79" s="147"/>
       <c r="C79" s="58" t="s">
         <v>37</v>
       </c>
@@ -12774,7 +12939,7 @@
       <c r="U79" s="119"/>
     </row>
     <row r="80" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="141"/>
+      <c r="B80" s="147"/>
       <c r="C80" s="58" t="s">
         <v>37</v>
       </c>
@@ -12816,7 +12981,7 @@
       <c r="U80" s="119"/>
     </row>
     <row r="81" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="141"/>
+      <c r="B81" s="147"/>
       <c r="C81" s="58" t="s">
         <v>37</v>
       </c>
@@ -12858,7 +13023,7 @@
       <c r="U81" s="119"/>
     </row>
     <row r="82" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="141"/>
+      <c r="B82" s="147"/>
       <c r="C82" s="58" t="s">
         <v>37</v>
       </c>
@@ -12900,7 +13065,7 @@
       <c r="U82" s="119"/>
     </row>
     <row r="83" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="141"/>
+      <c r="B83" s="147"/>
       <c r="C83" s="58" t="s">
         <v>37</v>
       </c>
@@ -12942,7 +13107,7 @@
       <c r="U83" s="119"/>
     </row>
     <row r="84" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="141"/>
+      <c r="B84" s="147"/>
       <c r="C84" s="58" t="s">
         <v>37</v>
       </c>
@@ -12984,7 +13149,7 @@
       <c r="U84" s="119"/>
     </row>
     <row r="85" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="143"/>
+      <c r="B85" s="148"/>
       <c r="C85" s="58" t="s">
         <v>37</v>
       </c>
@@ -13026,7 +13191,7 @@
       <c r="U85" s="119"/>
     </row>
     <row r="86" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="140">
+      <c r="B86" s="146">
         <v>10</v>
       </c>
       <c r="C86" s="42" t="s">
@@ -13070,7 +13235,7 @@
       <c r="U86" s="120"/>
     </row>
     <row r="87" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="141"/>
+      <c r="B87" s="147"/>
       <c r="C87" s="42" t="s">
         <v>38</v>
       </c>
@@ -13112,7 +13277,7 @@
       <c r="U87" s="120"/>
     </row>
     <row r="88" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="141"/>
+      <c r="B88" s="147"/>
       <c r="C88" s="42" t="s">
         <v>38</v>
       </c>
@@ -13154,7 +13319,7 @@
       <c r="U88" s="120"/>
     </row>
     <row r="89" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="141"/>
+      <c r="B89" s="147"/>
       <c r="C89" s="42" t="s">
         <v>38</v>
       </c>
@@ -13196,7 +13361,7 @@
       <c r="U89" s="120"/>
     </row>
     <row r="90" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="141"/>
+      <c r="B90" s="147"/>
       <c r="C90" s="42" t="s">
         <v>38</v>
       </c>
@@ -13238,7 +13403,7 @@
       <c r="U90" s="120"/>
     </row>
     <row r="91" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="141"/>
+      <c r="B91" s="147"/>
       <c r="C91" s="42" t="s">
         <v>38</v>
       </c>
@@ -13280,7 +13445,7 @@
       <c r="U91" s="120"/>
     </row>
     <row r="92" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="143"/>
+      <c r="B92" s="148"/>
       <c r="C92" s="42" t="s">
         <v>38</v>
       </c>
@@ -13322,7 +13487,7 @@
       <c r="U92" s="120"/>
     </row>
     <row r="93" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="140">
+      <c r="B93" s="146">
         <v>11</v>
       </c>
       <c r="C93" s="58" t="s">
@@ -13366,7 +13531,7 @@
       <c r="U93" s="119"/>
     </row>
     <row r="94" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="141"/>
+      <c r="B94" s="147"/>
       <c r="C94" s="58" t="s">
         <v>39</v>
       </c>
@@ -13408,7 +13573,7 @@
       <c r="U94" s="119"/>
     </row>
     <row r="95" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="141"/>
+      <c r="B95" s="147"/>
       <c r="C95" s="58" t="s">
         <v>39</v>
       </c>
@@ -13450,7 +13615,7 @@
       <c r="U95" s="119"/>
     </row>
     <row r="96" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="141"/>
+      <c r="B96" s="147"/>
       <c r="C96" s="58" t="s">
         <v>39</v>
       </c>
@@ -13492,7 +13657,7 @@
       <c r="U96" s="119"/>
     </row>
     <row r="97" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="141"/>
+      <c r="B97" s="147"/>
       <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
@@ -13534,7 +13699,7 @@
       <c r="U97" s="119"/>
     </row>
     <row r="98" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="143"/>
+      <c r="B98" s="148"/>
       <c r="C98" s="58" t="s">
         <v>39</v>
       </c>
@@ -13576,7 +13741,7 @@
       <c r="U98" s="119"/>
     </row>
     <row r="99" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="140">
+      <c r="B99" s="146">
         <v>12</v>
       </c>
       <c r="C99" s="42" t="s">
@@ -13620,7 +13785,7 @@
       <c r="U99" s="120"/>
     </row>
     <row r="100" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="141"/>
+      <c r="B100" s="147"/>
       <c r="C100" s="42" t="s">
         <v>41</v>
       </c>
@@ -13662,7 +13827,7 @@
       <c r="U100" s="120"/>
     </row>
     <row r="101" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="141"/>
+      <c r="B101" s="147"/>
       <c r="C101" s="42" t="s">
         <v>41</v>
       </c>
@@ -13704,7 +13869,7 @@
       <c r="U101" s="120"/>
     </row>
     <row r="102" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="141"/>
+      <c r="B102" s="147"/>
       <c r="C102" s="42" t="s">
         <v>41</v>
       </c>
@@ -13746,7 +13911,7 @@
       <c r="U102" s="120"/>
     </row>
     <row r="103" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="141"/>
+      <c r="B103" s="147"/>
       <c r="C103" s="42" t="s">
         <v>41</v>
       </c>
@@ -13788,7 +13953,7 @@
       <c r="U103" s="120"/>
     </row>
     <row r="104" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="141"/>
+      <c r="B104" s="147"/>
       <c r="C104" s="42" t="s">
         <v>41</v>
       </c>
@@ -13830,7 +13995,7 @@
       <c r="U104" s="120"/>
     </row>
     <row r="105" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="141"/>
+      <c r="B105" s="147"/>
       <c r="C105" s="42" t="s">
         <v>41</v>
       </c>
@@ -13872,7 +14037,7 @@
       <c r="U105" s="120"/>
     </row>
     <row r="106" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="141"/>
+      <c r="B106" s="147"/>
       <c r="C106" s="42" t="s">
         <v>41</v>
       </c>
@@ -13914,7 +14079,7 @@
       <c r="U106" s="120"/>
     </row>
     <row r="107" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="143"/>
+      <c r="B107" s="148"/>
       <c r="C107" s="42" t="s">
         <v>41</v>
       </c>
@@ -13945,18 +14110,34 @@
       <c r="L107" s="42">
         <v>90</v>
       </c>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
-      <c r="Q107" s="43"/>
-      <c r="R107" s="113"/>
-      <c r="S107" s="43"/>
-      <c r="T107" s="43"/>
+      <c r="M107" s="43">
+        <v>27127</v>
+      </c>
+      <c r="N107" s="43">
+        <v>92.117932613265197</v>
+      </c>
+      <c r="O107" s="43">
+        <v>6.2700630368267696</v>
+      </c>
+      <c r="P107" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q107" s="43">
+        <v>222</v>
+      </c>
+      <c r="R107" s="113">
+        <v>395</v>
+      </c>
+      <c r="S107" s="43">
+        <v>9.28828828828828</v>
+      </c>
+      <c r="T107" s="43">
+        <v>3.31392405063291</v>
+      </c>
       <c r="U107" s="120"/>
     </row>
     <row r="108" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="140">
+      <c r="B108" s="146">
         <v>13</v>
       </c>
       <c r="C108" s="58" t="s">
@@ -13997,10 +14178,13 @@
       <c r="R108" s="112"/>
       <c r="S108" s="49"/>
       <c r="T108" s="49"/>
-      <c r="U108" s="119"/>
+      <c r="U108" s="119">
+        <f t="shared" ref="U108:U116" si="4">S108-T108</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="141"/>
+      <c r="B109" s="147"/>
       <c r="C109" s="58" t="s">
         <v>7</v>
       </c>
@@ -14031,18 +14215,37 @@
       <c r="L109" s="58">
         <v>2</v>
       </c>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
-      <c r="Q109" s="49"/>
-      <c r="R109" s="112"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="49"/>
-      <c r="U109" s="119"/>
+      <c r="M109" s="49">
+        <v>124</v>
+      </c>
+      <c r="N109" s="49">
+        <v>4.6381185483870899</v>
+      </c>
+      <c r="O109" s="49">
+        <v>1.9193548387096699</v>
+      </c>
+      <c r="P109" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q109" s="49">
+        <v>26</v>
+      </c>
+      <c r="R109" s="112">
+        <v>1182</v>
+      </c>
+      <c r="S109" s="49">
+        <v>2</v>
+      </c>
+      <c r="T109" s="49">
+        <v>2</v>
+      </c>
+      <c r="U109" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="141"/>
+      <c r="B110" s="147"/>
       <c r="C110" s="58" t="s">
         <v>7</v>
       </c>
@@ -14081,10 +14284,13 @@
       <c r="R110" s="112"/>
       <c r="S110" s="49"/>
       <c r="T110" s="49"/>
-      <c r="U110" s="119"/>
+      <c r="U110" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="141"/>
+      <c r="B111" s="147"/>
       <c r="C111" s="58" t="s">
         <v>7</v>
       </c>
@@ -14115,18 +14321,37 @@
       <c r="L111" s="58">
         <v>4</v>
       </c>
-      <c r="M111" s="49"/>
-      <c r="N111" s="49"/>
-      <c r="O111" s="49"/>
-      <c r="P111" s="49"/>
-      <c r="Q111" s="49"/>
-      <c r="R111" s="112"/>
-      <c r="S111" s="49"/>
-      <c r="T111" s="49"/>
-      <c r="U111" s="119"/>
+      <c r="M111" s="49">
+        <v>60</v>
+      </c>
+      <c r="N111" s="49">
+        <v>6.6644231666666602</v>
+      </c>
+      <c r="O111" s="49">
+        <v>1.18333333333333</v>
+      </c>
+      <c r="P111" s="49">
+        <v>3</v>
+      </c>
+      <c r="Q111" s="49">
+        <v>42</v>
+      </c>
+      <c r="R111" s="112">
+        <v>1216</v>
+      </c>
+      <c r="S111" s="49">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="T111" s="49">
+        <v>2</v>
+      </c>
+      <c r="U111" s="119">
+        <f t="shared" si="4"/>
+        <v>-0.80952380952380998</v>
+      </c>
     </row>
     <row r="112" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="141"/>
+      <c r="B112" s="147"/>
       <c r="C112" s="58" t="s">
         <v>7</v>
       </c>
@@ -14165,10 +14390,13 @@
       <c r="R112" s="112"/>
       <c r="S112" s="49"/>
       <c r="T112" s="49"/>
-      <c r="U112" s="119"/>
+      <c r="U112" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="141"/>
+      <c r="B113" s="147"/>
       <c r="C113" s="58" t="s">
         <v>7</v>
       </c>
@@ -14199,18 +14427,37 @@
       <c r="L113" s="58">
         <v>6</v>
       </c>
-      <c r="M113" s="49"/>
-      <c r="N113" s="49"/>
-      <c r="O113" s="49"/>
-      <c r="P113" s="49"/>
-      <c r="Q113" s="49"/>
-      <c r="R113" s="112"/>
-      <c r="S113" s="49"/>
-      <c r="T113" s="49"/>
-      <c r="U113" s="119"/>
+      <c r="M113" s="49">
+        <v>38</v>
+      </c>
+      <c r="N113" s="49">
+        <v>7.9913699999999999</v>
+      </c>
+      <c r="O113" s="49">
+        <v>1</v>
+      </c>
+      <c r="P113" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="49">
+        <v>38</v>
+      </c>
+      <c r="R113" s="112">
+        <v>715</v>
+      </c>
+      <c r="S113" s="49">
+        <v>1</v>
+      </c>
+      <c r="T113" s="49">
+        <v>1.98321678321678</v>
+      </c>
+      <c r="U113" s="119">
+        <f t="shared" si="4"/>
+        <v>-0.98321678321677997</v>
+      </c>
     </row>
     <row r="114" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="141"/>
+      <c r="B114" s="147"/>
       <c r="C114" s="58" t="s">
         <v>7</v>
       </c>
@@ -14249,10 +14496,13 @@
       <c r="R114" s="112"/>
       <c r="S114" s="49"/>
       <c r="T114" s="49"/>
-      <c r="U114" s="119"/>
+      <c r="U114" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="141"/>
+      <c r="B115" s="147"/>
       <c r="C115" s="58" t="s">
         <v>7</v>
       </c>
@@ -14283,18 +14533,37 @@
       <c r="L115" s="58">
         <v>8</v>
       </c>
-      <c r="M115" s="49"/>
-      <c r="N115" s="49"/>
-      <c r="O115" s="49"/>
-      <c r="P115" s="49"/>
-      <c r="Q115" s="49"/>
-      <c r="R115" s="112"/>
-      <c r="S115" s="49"/>
-      <c r="T115" s="49"/>
-      <c r="U115" s="119"/>
+      <c r="M115" s="49">
+        <v>19</v>
+      </c>
+      <c r="N115" s="49">
+        <v>8.9168452631578905</v>
+      </c>
+      <c r="O115" s="49">
+        <v>1</v>
+      </c>
+      <c r="P115" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="49">
+        <v>19</v>
+      </c>
+      <c r="R115" s="112">
+        <v>202</v>
+      </c>
+      <c r="S115" s="49">
+        <v>1</v>
+      </c>
+      <c r="T115" s="49">
+        <v>1.84653465346534</v>
+      </c>
+      <c r="U115" s="119">
+        <f t="shared" si="4"/>
+        <v>-0.84653465346533996</v>
+      </c>
     </row>
     <row r="116" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="141"/>
+      <c r="B116" s="147"/>
       <c r="C116" s="58" t="s">
         <v>7</v>
       </c>
@@ -14333,10 +14602,13 @@
       <c r="R116" s="112"/>
       <c r="S116" s="49"/>
       <c r="T116" s="49"/>
-      <c r="U116" s="119"/>
+      <c r="U116" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="143"/>
+      <c r="B117" s="148"/>
       <c r="C117" s="58" t="s">
         <v>7</v>
       </c>
@@ -14367,18 +14639,37 @@
       <c r="L117" s="58">
         <v>10</v>
       </c>
-      <c r="M117" s="49"/>
-      <c r="N117" s="49"/>
-      <c r="O117" s="49"/>
-      <c r="P117" s="49"/>
-      <c r="Q117" s="49"/>
-      <c r="R117" s="112"/>
-      <c r="S117" s="49"/>
-      <c r="T117" s="49"/>
-      <c r="U117" s="119"/>
+      <c r="M117" s="49">
+        <v>3</v>
+      </c>
+      <c r="N117" s="49">
+        <v>10.421799999999999</v>
+      </c>
+      <c r="O117" s="49">
+        <v>1</v>
+      </c>
+      <c r="P117" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="49">
+        <v>3</v>
+      </c>
+      <c r="R117" s="112">
+        <v>50</v>
+      </c>
+      <c r="S117" s="49">
+        <v>1</v>
+      </c>
+      <c r="T117" s="49">
+        <v>1.06</v>
+      </c>
+      <c r="U117" s="119">
+        <f>S117-T117</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
     </row>
     <row r="118" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="145">
+      <c r="B118" s="149">
         <v>14</v>
       </c>
       <c r="C118" s="42" t="s">
@@ -14417,10 +14708,13 @@
       <c r="R118" s="113"/>
       <c r="S118" s="43"/>
       <c r="T118" s="43"/>
-      <c r="U118" s="120"/>
+      <c r="U118" s="120">
+        <f t="shared" ref="U118:U181" si="5">S118-T118</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="145"/>
+      <c r="B119" s="149"/>
       <c r="C119" s="42" t="s">
         <v>40</v>
       </c>
@@ -14457,10 +14751,13 @@
       <c r="R119" s="113"/>
       <c r="S119" s="43"/>
       <c r="T119" s="43"/>
-      <c r="U119" s="120"/>
+      <c r="U119" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="145"/>
+      <c r="B120" s="149"/>
       <c r="C120" s="42" t="s">
         <v>40</v>
       </c>
@@ -14497,10 +14794,13 @@
       <c r="R120" s="113"/>
       <c r="S120" s="43"/>
       <c r="T120" s="43"/>
-      <c r="U120" s="120"/>
+      <c r="U120" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="145"/>
+      <c r="B121" s="149"/>
       <c r="C121" s="42" t="s">
         <v>40</v>
       </c>
@@ -14537,10 +14837,13 @@
       <c r="R121" s="113"/>
       <c r="S121" s="43"/>
       <c r="T121" s="43"/>
-      <c r="U121" s="120"/>
+      <c r="U121" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="145">
+      <c r="B122" s="149">
         <v>15</v>
       </c>
       <c r="C122" s="58" t="s">
@@ -14579,10 +14882,13 @@
       <c r="R122" s="112"/>
       <c r="S122" s="49"/>
       <c r="T122" s="49"/>
-      <c r="U122" s="119"/>
+      <c r="U122" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="145"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="58" t="s">
         <v>15</v>
       </c>
@@ -14619,10 +14925,13 @@
       <c r="R123" s="112"/>
       <c r="S123" s="49"/>
       <c r="T123" s="49"/>
-      <c r="U123" s="119"/>
+      <c r="U123" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="145"/>
+      <c r="B124" s="149"/>
       <c r="C124" s="58" t="s">
         <v>15</v>
       </c>
@@ -14659,10 +14968,13 @@
       <c r="R124" s="112"/>
       <c r="S124" s="49"/>
       <c r="T124" s="49"/>
-      <c r="U124" s="119"/>
+      <c r="U124" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="145"/>
+      <c r="B125" s="149"/>
       <c r="C125" s="58" t="s">
         <v>15</v>
       </c>
@@ -14699,10 +15011,13 @@
       <c r="R125" s="112"/>
       <c r="S125" s="49"/>
       <c r="T125" s="49"/>
-      <c r="U125" s="119"/>
+      <c r="U125" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="145"/>
+      <c r="B126" s="149"/>
       <c r="C126" s="58" t="s">
         <v>15</v>
       </c>
@@ -14739,10 +15054,13 @@
       <c r="R126" s="112"/>
       <c r="S126" s="49"/>
       <c r="T126" s="49"/>
-      <c r="U126" s="119"/>
+      <c r="U126" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="140">
+      <c r="B127" s="146">
         <v>16</v>
       </c>
       <c r="C127" s="42" t="s">
@@ -14783,10 +15101,13 @@
       <c r="R127" s="113"/>
       <c r="S127" s="43"/>
       <c r="T127" s="43"/>
-      <c r="U127" s="120"/>
+      <c r="U127" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="141"/>
+      <c r="B128" s="147"/>
       <c r="C128" s="42" t="s">
         <v>42</v>
       </c>
@@ -14825,10 +15146,13 @@
       <c r="R128" s="113"/>
       <c r="S128" s="43"/>
       <c r="T128" s="43"/>
-      <c r="U128" s="120"/>
+      <c r="U128" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="141"/>
+      <c r="B129" s="147"/>
       <c r="C129" s="42" t="s">
         <v>42</v>
       </c>
@@ -14867,10 +15191,13 @@
       <c r="R129" s="113"/>
       <c r="S129" s="43"/>
       <c r="T129" s="43"/>
-      <c r="U129" s="120"/>
+      <c r="U129" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="141"/>
+      <c r="B130" s="147"/>
       <c r="C130" s="42" t="s">
         <v>42</v>
       </c>
@@ -14909,10 +15236,13 @@
       <c r="R130" s="113"/>
       <c r="S130" s="43"/>
       <c r="T130" s="43"/>
-      <c r="U130" s="120"/>
+      <c r="U130" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="141"/>
+      <c r="B131" s="147"/>
       <c r="C131" s="42" t="s">
         <v>42</v>
       </c>
@@ -14943,18 +15273,37 @@
       <c r="L131" s="42">
         <v>50</v>
       </c>
-      <c r="M131" s="43"/>
-      <c r="N131" s="43"/>
-      <c r="O131" s="43"/>
-      <c r="P131" s="43"/>
-      <c r="Q131" s="43"/>
-      <c r="R131" s="113"/>
-      <c r="S131" s="43"/>
-      <c r="T131" s="43"/>
-      <c r="U131" s="120"/>
+      <c r="M131" s="43">
+        <v>1</v>
+      </c>
+      <c r="N131" s="43">
+        <v>79.246099999999998</v>
+      </c>
+      <c r="O131" s="43">
+        <v>1</v>
+      </c>
+      <c r="P131" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="43">
+        <v>1</v>
+      </c>
+      <c r="R131" s="113">
+        <v>11</v>
+      </c>
+      <c r="S131" s="43">
+        <v>1</v>
+      </c>
+      <c r="T131" s="43">
+        <v>1</v>
+      </c>
+      <c r="U131" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="141"/>
+      <c r="B132" s="147"/>
       <c r="C132" s="42" t="s">
         <v>42</v>
       </c>
@@ -14992,11 +15341,14 @@
       <c r="Q132" s="43"/>
       <c r="R132" s="113"/>
       <c r="S132" s="43"/>
-      <c r="T132" s="43"/>
-      <c r="U132" s="120"/>
+      <c r="T132" s="144"/>
+      <c r="U132" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="143"/>
+      <c r="B133" s="148"/>
       <c r="C133" s="42" t="s">
         <v>42</v>
       </c>
@@ -15027,18 +15379,37 @@
       <c r="L133" s="42">
         <v>70</v>
       </c>
-      <c r="M133" s="43"/>
-      <c r="N133" s="43"/>
-      <c r="O133" s="43"/>
-      <c r="P133" s="43"/>
-      <c r="Q133" s="43"/>
-      <c r="R133" s="113"/>
-      <c r="S133" s="43"/>
-      <c r="T133" s="43"/>
-      <c r="U133" s="120"/>
+      <c r="M133" s="43">
+        <v>1</v>
+      </c>
+      <c r="N133" s="43">
+        <v>79.246099999999998</v>
+      </c>
+      <c r="O133" s="43">
+        <v>1</v>
+      </c>
+      <c r="P133" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="43">
+        <v>1</v>
+      </c>
+      <c r="R133" s="113">
+        <v>11</v>
+      </c>
+      <c r="S133" s="43">
+        <v>1</v>
+      </c>
+      <c r="T133" s="43">
+        <v>1</v>
+      </c>
+      <c r="U133" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="140">
+      <c r="B134" s="146">
         <v>17</v>
       </c>
       <c r="C134" s="58" t="s">
@@ -15079,10 +15450,13 @@
       <c r="R134" s="112"/>
       <c r="S134" s="49"/>
       <c r="T134" s="49"/>
-      <c r="U134" s="119"/>
+      <c r="U134" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="141"/>
+      <c r="B135" s="147"/>
       <c r="C135" s="58" t="s">
         <v>43</v>
       </c>
@@ -15121,10 +15495,13 @@
       <c r="R135" s="112"/>
       <c r="S135" s="49"/>
       <c r="T135" s="49"/>
-      <c r="U135" s="119"/>
+      <c r="U135" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="141"/>
+      <c r="B136" s="147"/>
       <c r="C136" s="58" t="s">
         <v>43</v>
       </c>
@@ -15163,10 +15540,13 @@
       <c r="R136" s="112"/>
       <c r="S136" s="49"/>
       <c r="T136" s="49"/>
-      <c r="U136" s="119"/>
+      <c r="U136" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="141"/>
+      <c r="B137" s="147"/>
       <c r="C137" s="58" t="s">
         <v>43</v>
       </c>
@@ -15205,10 +15585,13 @@
       <c r="R137" s="112"/>
       <c r="S137" s="49"/>
       <c r="T137" s="49"/>
-      <c r="U137" s="119"/>
+      <c r="U137" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="141"/>
+      <c r="B138" s="147"/>
       <c r="C138" s="58" t="s">
         <v>43</v>
       </c>
@@ -15247,10 +15630,13 @@
       <c r="R138" s="112"/>
       <c r="S138" s="49"/>
       <c r="T138" s="49"/>
-      <c r="U138" s="119"/>
+      <c r="U138" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="141"/>
+      <c r="B139" s="147"/>
       <c r="C139" s="58" t="s">
         <v>43</v>
       </c>
@@ -15289,10 +15675,13 @@
       <c r="R139" s="112"/>
       <c r="S139" s="49"/>
       <c r="T139" s="49"/>
-      <c r="U139" s="119"/>
+      <c r="U139" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="141"/>
+      <c r="B140" s="147"/>
       <c r="C140" s="58" t="s">
         <v>43</v>
       </c>
@@ -15323,18 +15712,37 @@
       <c r="L140" s="58">
         <v>70</v>
       </c>
-      <c r="M140" s="49"/>
-      <c r="N140" s="49"/>
-      <c r="O140" s="49"/>
-      <c r="P140" s="49"/>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="112"/>
-      <c r="S140" s="49"/>
-      <c r="T140" s="49"/>
-      <c r="U140" s="119"/>
+      <c r="M140" s="49">
+        <v>529</v>
+      </c>
+      <c r="N140" s="49">
+        <v>77.6157652173911</v>
+      </c>
+      <c r="O140" s="49">
+        <v>3.6427221172022599</v>
+      </c>
+      <c r="P140" s="49">
+        <v>7</v>
+      </c>
+      <c r="Q140" s="49">
+        <v>23</v>
+      </c>
+      <c r="R140" s="112">
+        <v>520</v>
+      </c>
+      <c r="S140" s="49">
+        <v>5.4782608695652097</v>
+      </c>
+      <c r="T140" s="49">
+        <v>1.1788461538461501</v>
+      </c>
+      <c r="U140" s="119">
+        <f t="shared" si="5"/>
+        <v>4.2994147157190596</v>
+      </c>
     </row>
     <row r="141" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="141"/>
+      <c r="B141" s="147"/>
       <c r="C141" s="58" t="s">
         <v>43</v>
       </c>
@@ -15373,10 +15781,13 @@
       <c r="R141" s="112"/>
       <c r="S141" s="49"/>
       <c r="T141" s="49"/>
-      <c r="U141" s="119"/>
+      <c r="U141" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="143"/>
+      <c r="B142" s="148"/>
       <c r="C142" s="58" t="s">
         <v>43</v>
       </c>
@@ -15407,18 +15818,37 @@
       <c r="L142" s="58">
         <v>90</v>
       </c>
-      <c r="M142" s="49"/>
-      <c r="N142" s="49"/>
-      <c r="O142" s="49"/>
-      <c r="P142" s="49"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="112"/>
-      <c r="S142" s="49"/>
-      <c r="T142" s="49"/>
-      <c r="U142" s="119"/>
+      <c r="M142" s="49">
+        <v>31</v>
+      </c>
+      <c r="N142" s="49">
+        <v>95.432983870967703</v>
+      </c>
+      <c r="O142" s="49">
+        <v>2.5806451612903198</v>
+      </c>
+      <c r="P142" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q142" s="49">
+        <v>1</v>
+      </c>
+      <c r="R142" s="112">
+        <v>463</v>
+      </c>
+      <c r="S142" s="49">
+        <v>5</v>
+      </c>
+      <c r="T142" s="49">
+        <v>1</v>
+      </c>
+      <c r="U142" s="119">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="140">
+      <c r="B143" s="146">
         <v>18</v>
       </c>
       <c r="C143" s="42" t="s">
@@ -15457,11 +15887,14 @@
       <c r="R143" s="113"/>
       <c r="S143" s="43"/>
       <c r="T143" s="43"/>
-      <c r="U143" s="120"/>
+      <c r="U143" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V143" s="10"/>
     </row>
     <row r="144" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="141"/>
+      <c r="B144" s="147"/>
       <c r="C144" s="42" t="s">
         <v>44</v>
       </c>
@@ -15498,11 +15931,14 @@
       <c r="R144" s="113"/>
       <c r="S144" s="43"/>
       <c r="T144" s="43"/>
-      <c r="U144" s="120"/>
+      <c r="U144" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V144" s="10"/>
     </row>
     <row r="145" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="141"/>
+      <c r="B145" s="147"/>
       <c r="C145" s="42" t="s">
         <v>44</v>
       </c>
@@ -15539,11 +15975,14 @@
       <c r="R145" s="113"/>
       <c r="S145" s="43"/>
       <c r="T145" s="43"/>
-      <c r="U145" s="120"/>
+      <c r="U145" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V145" s="10"/>
     </row>
     <row r="146" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="141"/>
+      <c r="B146" s="147"/>
       <c r="C146" s="42" t="s">
         <v>44</v>
       </c>
@@ -15580,11 +16019,14 @@
       <c r="R146" s="113"/>
       <c r="S146" s="43"/>
       <c r="T146" s="43"/>
-      <c r="U146" s="120"/>
+      <c r="U146" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V146" s="10"/>
     </row>
     <row r="147" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="141"/>
+      <c r="B147" s="147"/>
       <c r="C147" s="42" t="s">
         <v>44</v>
       </c>
@@ -15621,11 +16063,14 @@
       <c r="R147" s="113"/>
       <c r="S147" s="43"/>
       <c r="T147" s="43"/>
-      <c r="U147" s="120"/>
+      <c r="U147" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V147" s="10"/>
     </row>
     <row r="148" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="141"/>
+      <c r="B148" s="147"/>
       <c r="C148" s="42" t="s">
         <v>44</v>
       </c>
@@ -15662,11 +16107,14 @@
       <c r="R148" s="113"/>
       <c r="S148" s="43"/>
       <c r="T148" s="43"/>
-      <c r="U148" s="120"/>
+      <c r="U148" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V148" s="10"/>
     </row>
     <row r="149" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="141"/>
+      <c r="B149" s="147"/>
       <c r="C149" s="42" t="s">
         <v>44</v>
       </c>
@@ -15703,11 +16151,14 @@
       <c r="R149" s="113"/>
       <c r="S149" s="43"/>
       <c r="T149" s="43"/>
-      <c r="U149" s="120"/>
+      <c r="U149" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V149" s="10"/>
     </row>
     <row r="150" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="141"/>
+      <c r="B150" s="147"/>
       <c r="C150" s="42" t="s">
         <v>44</v>
       </c>
@@ -15744,11 +16195,14 @@
       <c r="R150" s="113"/>
       <c r="S150" s="43"/>
       <c r="T150" s="43"/>
-      <c r="U150" s="120"/>
+      <c r="U150" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V150" s="10"/>
     </row>
     <row r="151" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="143"/>
+      <c r="B151" s="148"/>
       <c r="C151" s="42" t="s">
         <v>44</v>
       </c>
@@ -15785,11 +16239,14 @@
       <c r="R151" s="113"/>
       <c r="S151" s="43"/>
       <c r="T151" s="43"/>
-      <c r="U151" s="120"/>
+      <c r="U151" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V151" s="10"/>
     </row>
     <row r="152" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="140">
+      <c r="B152" s="146">
         <v>19</v>
       </c>
       <c r="C152" s="58" t="s">
@@ -15830,10 +16287,13 @@
       <c r="R152" s="112"/>
       <c r="S152" s="49"/>
       <c r="T152" s="49"/>
-      <c r="U152" s="119"/>
+      <c r="U152" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="141"/>
+      <c r="B153" s="147"/>
       <c r="C153" s="58" t="s">
         <v>45</v>
       </c>
@@ -15872,10 +16332,13 @@
       <c r="R153" s="112"/>
       <c r="S153" s="49"/>
       <c r="T153" s="49"/>
-      <c r="U153" s="119"/>
+      <c r="U153" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="141"/>
+      <c r="B154" s="147"/>
       <c r="C154" s="58" t="s">
         <v>45</v>
       </c>
@@ -15914,10 +16377,13 @@
       <c r="R154" s="112"/>
       <c r="S154" s="49"/>
       <c r="T154" s="49"/>
-      <c r="U154" s="119"/>
+      <c r="U154" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="141"/>
+      <c r="B155" s="147"/>
       <c r="C155" s="58" t="s">
         <v>45</v>
       </c>
@@ -15956,10 +16422,13 @@
       <c r="R155" s="112"/>
       <c r="S155" s="49"/>
       <c r="T155" s="49"/>
-      <c r="U155" s="119"/>
+      <c r="U155" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="141"/>
+      <c r="B156" s="147"/>
       <c r="C156" s="58" t="s">
         <v>45</v>
       </c>
@@ -15998,10 +16467,13 @@
       <c r="R156" s="112"/>
       <c r="S156" s="49"/>
       <c r="T156" s="49"/>
-      <c r="U156" s="119"/>
+      <c r="U156" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="141"/>
+      <c r="B157" s="147"/>
       <c r="C157" s="58" t="s">
         <v>45</v>
       </c>
@@ -16040,10 +16512,13 @@
       <c r="R157" s="112"/>
       <c r="S157" s="49"/>
       <c r="T157" s="49"/>
-      <c r="U157" s="119"/>
+      <c r="U157" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="141"/>
+      <c r="B158" s="147"/>
       <c r="C158" s="58" t="s">
         <v>45</v>
       </c>
@@ -16082,10 +16557,13 @@
       <c r="R158" s="112"/>
       <c r="S158" s="49"/>
       <c r="T158" s="49"/>
-      <c r="U158" s="119"/>
+      <c r="U158" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="141"/>
+      <c r="B159" s="147"/>
       <c r="C159" s="58" t="s">
         <v>45</v>
       </c>
@@ -16124,10 +16602,13 @@
       <c r="R159" s="112"/>
       <c r="S159" s="49"/>
       <c r="T159" s="49"/>
-      <c r="U159" s="119"/>
+      <c r="U159" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="143"/>
+      <c r="B160" s="148"/>
       <c r="C160" s="58" t="s">
         <v>45</v>
       </c>
@@ -16158,18 +16639,37 @@
       <c r="L160" s="58">
         <v>90</v>
       </c>
-      <c r="M160" s="49"/>
-      <c r="N160" s="49"/>
-      <c r="O160" s="49"/>
-      <c r="P160" s="49"/>
-      <c r="Q160" s="49"/>
-      <c r="R160" s="112"/>
-      <c r="S160" s="49"/>
-      <c r="T160" s="49"/>
-      <c r="U160" s="119"/>
+      <c r="M160" s="49">
+        <v>31</v>
+      </c>
+      <c r="N160" s="49">
+        <v>96.287193548387094</v>
+      </c>
+      <c r="O160" s="49">
+        <v>2.5806451612903198</v>
+      </c>
+      <c r="P160" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q160" s="49">
+        <v>1</v>
+      </c>
+      <c r="R160" s="112">
+        <v>22</v>
+      </c>
+      <c r="S160" s="49">
+        <v>5</v>
+      </c>
+      <c r="T160" s="49">
+        <v>1</v>
+      </c>
+      <c r="U160" s="119">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="161" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="140">
+      <c r="B161" s="146">
         <v>20</v>
       </c>
       <c r="C161" s="42" t="s">
@@ -16208,10 +16708,13 @@
       <c r="R161" s="113"/>
       <c r="S161" s="43"/>
       <c r="T161" s="43"/>
-      <c r="U161" s="120"/>
+      <c r="U161" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="141"/>
+      <c r="B162" s="147"/>
       <c r="C162" s="42" t="s">
         <v>46</v>
       </c>
@@ -16248,10 +16751,13 @@
       <c r="R162" s="113"/>
       <c r="S162" s="43"/>
       <c r="T162" s="43"/>
-      <c r="U162" s="120"/>
+      <c r="U162" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="141"/>
+      <c r="B163" s="147"/>
       <c r="C163" s="42" t="s">
         <v>46</v>
       </c>
@@ -16288,10 +16794,13 @@
       <c r="R163" s="113"/>
       <c r="S163" s="43"/>
       <c r="T163" s="43"/>
-      <c r="U163" s="120"/>
+      <c r="U163" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="141"/>
+      <c r="B164" s="147"/>
       <c r="C164" s="42" t="s">
         <v>46</v>
       </c>
@@ -16328,10 +16837,13 @@
       <c r="R164" s="113"/>
       <c r="S164" s="43"/>
       <c r="T164" s="43"/>
-      <c r="U164" s="120"/>
+      <c r="U164" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="141"/>
+      <c r="B165" s="147"/>
       <c r="C165" s="42" t="s">
         <v>46</v>
       </c>
@@ -16368,10 +16880,13 @@
       <c r="R165" s="113"/>
       <c r="S165" s="43"/>
       <c r="T165" s="43"/>
-      <c r="U165" s="120"/>
+      <c r="U165" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="143"/>
+      <c r="B166" s="148"/>
       <c r="C166" s="42" t="s">
         <v>46</v>
       </c>
@@ -16408,10 +16923,13 @@
       <c r="R166" s="113"/>
       <c r="S166" s="43"/>
       <c r="T166" s="43"/>
-      <c r="U166" s="120"/>
+      <c r="U166" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="140">
+      <c r="B167" s="146">
         <v>21</v>
       </c>
       <c r="C167" s="58" t="s">
@@ -16452,10 +16970,13 @@
       <c r="R167" s="112"/>
       <c r="S167" s="49"/>
       <c r="T167" s="49"/>
-      <c r="U167" s="119"/>
+      <c r="U167" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="141"/>
+      <c r="B168" s="147"/>
       <c r="C168" s="58" t="s">
         <v>48</v>
       </c>
@@ -16494,10 +17015,13 @@
       <c r="R168" s="112"/>
       <c r="S168" s="49"/>
       <c r="T168" s="49"/>
-      <c r="U168" s="119"/>
+      <c r="U168" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="141"/>
+      <c r="B169" s="147"/>
       <c r="C169" s="58" t="s">
         <v>48</v>
       </c>
@@ -16536,10 +17060,13 @@
       <c r="R169" s="112"/>
       <c r="S169" s="49"/>
       <c r="T169" s="49"/>
-      <c r="U169" s="119"/>
+      <c r="U169" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="141"/>
+      <c r="B170" s="147"/>
       <c r="C170" s="58" t="s">
         <v>48</v>
       </c>
@@ -16578,10 +17105,13 @@
       <c r="R170" s="112"/>
       <c r="S170" s="49"/>
       <c r="T170" s="49"/>
-      <c r="U170" s="119"/>
+      <c r="U170" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="141"/>
+      <c r="B171" s="147"/>
       <c r="C171" s="58" t="s">
         <v>48</v>
       </c>
@@ -16620,10 +17150,13 @@
       <c r="R171" s="112"/>
       <c r="S171" s="49"/>
       <c r="T171" s="49"/>
-      <c r="U171" s="119"/>
+      <c r="U171" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="141"/>
+      <c r="B172" s="147"/>
       <c r="C172" s="58" t="s">
         <v>48</v>
       </c>
@@ -16662,10 +17195,13 @@
       <c r="R172" s="112"/>
       <c r="S172" s="49"/>
       <c r="T172" s="49"/>
-      <c r="U172" s="119"/>
+      <c r="U172" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="143"/>
+      <c r="B173" s="148"/>
       <c r="C173" s="58" t="s">
         <v>48</v>
       </c>
@@ -16704,10 +17240,13 @@
       <c r="R173" s="112"/>
       <c r="S173" s="49"/>
       <c r="T173" s="49"/>
-      <c r="U173" s="119"/>
+      <c r="U173" s="119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="140">
+      <c r="B174" s="146">
         <v>22</v>
       </c>
       <c r="C174" s="42" t="s">
@@ -16748,10 +17287,13 @@
       <c r="R174" s="113"/>
       <c r="S174" s="43"/>
       <c r="T174" s="43"/>
-      <c r="U174" s="120"/>
+      <c r="U174" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="141"/>
+      <c r="B175" s="147"/>
       <c r="C175" s="42" t="s">
         <v>49</v>
       </c>
@@ -16790,10 +17332,13 @@
       <c r="R175" s="113"/>
       <c r="S175" s="43"/>
       <c r="T175" s="43"/>
-      <c r="U175" s="120"/>
+      <c r="U175" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="141"/>
+      <c r="B176" s="147"/>
       <c r="C176" s="42" t="s">
         <v>49</v>
       </c>
@@ -16832,10 +17377,13 @@
       <c r="R176" s="113"/>
       <c r="S176" s="43"/>
       <c r="T176" s="43"/>
-      <c r="U176" s="120"/>
+      <c r="U176" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="141"/>
+      <c r="B177" s="147"/>
       <c r="C177" s="42" t="s">
         <v>49</v>
       </c>
@@ -16874,10 +17422,13 @@
       <c r="R177" s="113"/>
       <c r="S177" s="43"/>
       <c r="T177" s="43"/>
-      <c r="U177" s="120"/>
+      <c r="U177" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="141"/>
+      <c r="B178" s="147"/>
       <c r="C178" s="42" t="s">
         <v>49</v>
       </c>
@@ -16916,10 +17467,13 @@
       <c r="R178" s="113"/>
       <c r="S178" s="43"/>
       <c r="T178" s="43"/>
-      <c r="U178" s="120"/>
+      <c r="U178" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="141"/>
+      <c r="B179" s="147"/>
       <c r="C179" s="42" t="s">
         <v>49</v>
       </c>
@@ -16958,10 +17512,13 @@
       <c r="R179" s="113"/>
       <c r="S179" s="43"/>
       <c r="T179" s="43"/>
-      <c r="U179" s="120"/>
+      <c r="U179" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="141"/>
+      <c r="B180" s="147"/>
       <c r="C180" s="42" t="s">
         <v>49</v>
       </c>
@@ -17000,10 +17557,13 @@
       <c r="R180" s="113"/>
       <c r="S180" s="43"/>
       <c r="T180" s="43"/>
-      <c r="U180" s="120"/>
+      <c r="U180" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="141"/>
+      <c r="B181" s="147"/>
       <c r="C181" s="42" t="s">
         <v>49</v>
       </c>
@@ -17042,10 +17602,13 @@
       <c r="R181" s="113"/>
       <c r="S181" s="43"/>
       <c r="T181" s="43"/>
-      <c r="U181" s="120"/>
+      <c r="U181" s="120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="143"/>
+      <c r="B182" s="148"/>
       <c r="C182" s="42" t="s">
         <v>49</v>
       </c>
@@ -17084,10 +17647,13 @@
       <c r="R182" s="113"/>
       <c r="S182" s="43"/>
       <c r="T182" s="43"/>
-      <c r="U182" s="120"/>
+      <c r="U182" s="120">
+        <f t="shared" ref="U182:U214" si="6">S182-T182</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="140">
+      <c r="B183" s="146">
         <v>23</v>
       </c>
       <c r="C183" s="58" t="s">
@@ -17128,10 +17694,13 @@
       <c r="R183" s="112"/>
       <c r="S183" s="49"/>
       <c r="T183" s="49"/>
-      <c r="U183" s="119"/>
+      <c r="U183" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="141"/>
+      <c r="B184" s="147"/>
       <c r="C184" s="58" t="s">
         <v>50</v>
       </c>
@@ -17170,10 +17739,13 @@
       <c r="R184" s="112"/>
       <c r="S184" s="49"/>
       <c r="T184" s="49"/>
-      <c r="U184" s="119"/>
+      <c r="U184" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="141"/>
+      <c r="B185" s="147"/>
       <c r="C185" s="58" t="s">
         <v>50</v>
       </c>
@@ -17212,10 +17784,13 @@
       <c r="R185" s="112"/>
       <c r="S185" s="49"/>
       <c r="T185" s="49"/>
-      <c r="U185" s="119"/>
+      <c r="U185" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="141"/>
+      <c r="B186" s="147"/>
       <c r="C186" s="58" t="s">
         <v>50</v>
       </c>
@@ -17254,10 +17829,13 @@
       <c r="R186" s="112"/>
       <c r="S186" s="49"/>
       <c r="T186" s="49"/>
-      <c r="U186" s="119"/>
+      <c r="U186" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="141"/>
+      <c r="B187" s="147"/>
       <c r="C187" s="58" t="s">
         <v>50</v>
       </c>
@@ -17296,10 +17874,13 @@
       <c r="R187" s="112"/>
       <c r="S187" s="49"/>
       <c r="T187" s="49"/>
-      <c r="U187" s="119"/>
+      <c r="U187" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="141"/>
+      <c r="B188" s="147"/>
       <c r="C188" s="58" t="s">
         <v>50</v>
       </c>
@@ -17338,10 +17919,13 @@
       <c r="R188" s="112"/>
       <c r="S188" s="49"/>
       <c r="T188" s="49"/>
-      <c r="U188" s="119"/>
+      <c r="U188" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="141"/>
+      <c r="B189" s="147"/>
       <c r="C189" s="58" t="s">
         <v>50</v>
       </c>
@@ -17380,10 +17964,13 @@
       <c r="R189" s="112"/>
       <c r="S189" s="49"/>
       <c r="T189" s="49"/>
-      <c r="U189" s="119"/>
+      <c r="U189" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="143"/>
+      <c r="B190" s="148"/>
       <c r="C190" s="58" t="s">
         <v>50</v>
       </c>
@@ -17422,10 +18009,13 @@
       <c r="R190" s="112"/>
       <c r="S190" s="49"/>
       <c r="T190" s="49"/>
-      <c r="U190" s="119"/>
+      <c r="U190" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="140">
+      <c r="B191" s="146">
         <v>24</v>
       </c>
       <c r="C191" s="42" t="s">
@@ -17466,10 +18056,13 @@
       <c r="R191" s="113"/>
       <c r="S191" s="43"/>
       <c r="T191" s="43"/>
-      <c r="U191" s="120"/>
+      <c r="U191" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="141"/>
+      <c r="B192" s="147"/>
       <c r="C192" s="42" t="s">
         <v>51</v>
       </c>
@@ -17508,10 +18101,13 @@
       <c r="R192" s="113"/>
       <c r="S192" s="43"/>
       <c r="T192" s="43"/>
-      <c r="U192" s="120"/>
+      <c r="U192" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="141"/>
+      <c r="B193" s="147"/>
       <c r="C193" s="42" t="s">
         <v>51</v>
       </c>
@@ -17550,10 +18146,13 @@
       <c r="R193" s="113"/>
       <c r="S193" s="43"/>
       <c r="T193" s="43"/>
-      <c r="U193" s="120"/>
+      <c r="U193" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="141"/>
+      <c r="B194" s="147"/>
       <c r="C194" s="42" t="s">
         <v>51</v>
       </c>
@@ -17592,10 +18191,13 @@
       <c r="R194" s="113"/>
       <c r="S194" s="43"/>
       <c r="T194" s="43"/>
-      <c r="U194" s="120"/>
+      <c r="U194" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="141"/>
+      <c r="B195" s="147"/>
       <c r="C195" s="42" t="s">
         <v>51</v>
       </c>
@@ -17634,10 +18236,13 @@
       <c r="R195" s="113"/>
       <c r="S195" s="43"/>
       <c r="T195" s="43"/>
-      <c r="U195" s="120"/>
+      <c r="U195" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="141"/>
+      <c r="B196" s="147"/>
       <c r="C196" s="42" t="s">
         <v>51</v>
       </c>
@@ -17676,10 +18281,13 @@
       <c r="R196" s="113"/>
       <c r="S196" s="43"/>
       <c r="T196" s="43"/>
-      <c r="U196" s="120"/>
+      <c r="U196" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="141"/>
+      <c r="B197" s="147"/>
       <c r="C197" s="42" t="s">
         <v>51</v>
       </c>
@@ -17718,10 +18326,13 @@
       <c r="R197" s="113"/>
       <c r="S197" s="43"/>
       <c r="T197" s="43"/>
-      <c r="U197" s="120"/>
+      <c r="U197" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="141"/>
+      <c r="B198" s="147"/>
       <c r="C198" s="42" t="s">
         <v>51</v>
       </c>
@@ -17760,10 +18371,13 @@
       <c r="R198" s="113"/>
       <c r="S198" s="43"/>
       <c r="T198" s="43"/>
-      <c r="U198" s="120"/>
+      <c r="U198" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="143"/>
+      <c r="B199" s="148"/>
       <c r="C199" s="42" t="s">
         <v>51</v>
       </c>
@@ -17802,10 +18416,13 @@
       <c r="R199" s="113"/>
       <c r="S199" s="43"/>
       <c r="T199" s="43"/>
-      <c r="U199" s="120"/>
+      <c r="U199" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="140">
+      <c r="B200" s="146">
         <v>25</v>
       </c>
       <c r="C200" s="58" t="s">
@@ -17844,10 +18461,13 @@
       <c r="R200" s="112"/>
       <c r="S200" s="49"/>
       <c r="T200" s="49"/>
-      <c r="U200" s="119"/>
+      <c r="U200" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="141"/>
+      <c r="B201" s="147"/>
       <c r="C201" s="58" t="s">
         <v>47</v>
       </c>
@@ -17884,10 +18504,13 @@
       <c r="R201" s="112"/>
       <c r="S201" s="49"/>
       <c r="T201" s="49"/>
-      <c r="U201" s="119"/>
+      <c r="U201" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="141"/>
+      <c r="B202" s="147"/>
       <c r="C202" s="58" t="s">
         <v>47</v>
       </c>
@@ -17924,10 +18547,13 @@
       <c r="R202" s="112"/>
       <c r="S202" s="49"/>
       <c r="T202" s="49"/>
-      <c r="U202" s="119"/>
+      <c r="U202" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="141"/>
+      <c r="B203" s="147"/>
       <c r="C203" s="58" t="s">
         <v>47</v>
       </c>
@@ -17964,10 +18590,13 @@
       <c r="R203" s="112"/>
       <c r="S203" s="49"/>
       <c r="T203" s="49"/>
-      <c r="U203" s="119"/>
+      <c r="U203" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="143"/>
+      <c r="B204" s="148"/>
       <c r="C204" s="67" t="s">
         <v>47</v>
       </c>
@@ -18004,10 +18633,13 @@
       <c r="R204" s="114"/>
       <c r="S204" s="69"/>
       <c r="T204" s="69"/>
-      <c r="U204" s="121"/>
+      <c r="U204" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="140">
+      <c r="B205" s="146">
         <v>26</v>
       </c>
       <c r="C205" s="71" t="s">
@@ -18032,10 +18664,13 @@
       <c r="R205" s="115"/>
       <c r="S205" s="73"/>
       <c r="T205" s="73"/>
-      <c r="U205" s="122"/>
+      <c r="U205" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="141"/>
+      <c r="B206" s="147"/>
       <c r="C206" s="42" t="s">
         <v>100</v>
       </c>
@@ -18058,10 +18693,13 @@
       <c r="R206" s="113"/>
       <c r="S206" s="43"/>
       <c r="T206" s="43"/>
-      <c r="U206" s="120"/>
+      <c r="U206" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="141"/>
+      <c r="B207" s="147"/>
       <c r="C207" s="42" t="s">
         <v>100</v>
       </c>
@@ -18084,10 +18722,13 @@
       <c r="R207" s="113"/>
       <c r="S207" s="43"/>
       <c r="T207" s="43"/>
-      <c r="U207" s="120"/>
+      <c r="U207" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="141"/>
+      <c r="B208" s="147"/>
       <c r="C208" s="42" t="s">
         <v>100</v>
       </c>
@@ -18110,10 +18751,13 @@
       <c r="R208" s="113"/>
       <c r="S208" s="43"/>
       <c r="T208" s="43"/>
-      <c r="U208" s="120"/>
+      <c r="U208" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="143"/>
+      <c r="B209" s="148"/>
       <c r="C209" s="42" t="s">
         <v>100</v>
       </c>
@@ -18136,10 +18780,13 @@
       <c r="R209" s="113"/>
       <c r="S209" s="43"/>
       <c r="T209" s="43"/>
-      <c r="U209" s="120"/>
+      <c r="U209" s="120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="145">
+      <c r="B210" s="149">
         <v>27</v>
       </c>
       <c r="C210" s="58" t="s">
@@ -18164,10 +18811,13 @@
       <c r="R210" s="112"/>
       <c r="S210" s="49"/>
       <c r="T210" s="49"/>
-      <c r="U210" s="119"/>
+      <c r="U210" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="145"/>
+      <c r="B211" s="149"/>
       <c r="C211" s="58" t="s">
         <v>102</v>
       </c>
@@ -18190,10 +18840,13 @@
       <c r="R211" s="112"/>
       <c r="S211" s="49"/>
       <c r="T211" s="49"/>
-      <c r="U211" s="119"/>
+      <c r="U211" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="145"/>
+      <c r="B212" s="149"/>
       <c r="C212" s="58" t="s">
         <v>102</v>
       </c>
@@ -18216,10 +18869,13 @@
       <c r="R212" s="112"/>
       <c r="S212" s="49"/>
       <c r="T212" s="49"/>
-      <c r="U212" s="119"/>
+      <c r="U212" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="145"/>
+      <c r="B213" s="149"/>
       <c r="C213" s="58" t="s">
         <v>102</v>
       </c>
@@ -18231,8 +18887,8 @@
       <c r="G213" s="63"/>
       <c r="H213" s="63"/>
       <c r="I213" s="99"/>
-      <c r="J213" s="102"/>
-      <c r="K213" s="103"/>
+      <c r="J213" s="139"/>
+      <c r="K213" s="140"/>
       <c r="L213" s="49"/>
       <c r="M213" s="49"/>
       <c r="N213" s="49"/>
@@ -18242,10 +18898,13 @@
       <c r="R213" s="112"/>
       <c r="S213" s="49"/>
       <c r="T213" s="49"/>
-      <c r="U213" s="119"/>
+      <c r="U213" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="146"/>
+      <c r="B214" s="150"/>
       <c r="C214" s="59" t="s">
         <v>102</v>
       </c>
@@ -18257,8 +18916,8 @@
       <c r="G214" s="78"/>
       <c r="H214" s="78"/>
       <c r="I214" s="100"/>
-      <c r="J214" s="102"/>
-      <c r="K214" s="103"/>
+      <c r="J214" s="141"/>
+      <c r="K214" s="142"/>
       <c r="L214" s="52"/>
       <c r="M214" s="52"/>
       <c r="N214" s="52"/>
@@ -18268,24 +18927,24 @@
       <c r="R214" s="116"/>
       <c r="S214" s="52"/>
       <c r="T214" s="52"/>
-      <c r="U214" s="123"/>
+      <c r="U214" s="145">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="B58:B66"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B23:B32"/>
     <mergeCell ref="B210:B214"/>
     <mergeCell ref="B200:B204"/>
     <mergeCell ref="B205:B209"/>
     <mergeCell ref="B118:B121"/>
     <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B108:B117"/>
     <mergeCell ref="B167:B173"/>
     <mergeCell ref="B174:B182"/>
     <mergeCell ref="B183:B190"/>
@@ -18294,12 +18953,15 @@
     <mergeCell ref="B134:B142"/>
     <mergeCell ref="B143:B151"/>
     <mergeCell ref="B152:B160"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="B108:B117"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="B86:B92"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -18349,31 +19011,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="149" t="s">
+      <c r="T4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="151"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="157"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
@@ -18683,31 +19345,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="149" t="s">
+      <c r="T4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="151"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="157"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
